--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Desktop\Respaldo_Susana\Enero2021\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6F78E-1943-4515-8CA5-7C7A6BBD915D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D751D83B-128A-4DC4-A378-7539101A7905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -475,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -722,6 +722,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -767,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,6 +859,12 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1216,11 +1244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT20"/>
+  <dimension ref="A1:IU20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IU5" sqref="IU5"/>
+      <selection pane="topRight" activeCell="IW8" sqref="IW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,20 +1502,20 @@
     <col min="250" max="250" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="254" width="12.453125" customWidth="1"/>
+    <col min="253" max="255" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
@@ -2244,14 +2272,17 @@
       <c r="IR4" s="3">
         <v>2020</v>
       </c>
-      <c r="IS4" s="26">
+      <c r="IS4" s="3">
         <v>2020</v>
       </c>
-      <c r="IT4" s="26">
+      <c r="IT4" s="2">
         <v>2021</v>
       </c>
+      <c r="IU4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
@@ -3006,14 +3037,17 @@
       <c r="IR5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="IS5" s="30" t="s">
+      <c r="IS5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="30" t="s">
+      <c r="IT5" s="33" t="s">
         <v>16</v>
       </c>
+      <c r="IU5" s="30" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,14 +3804,17 @@
       <c r="IR6" s="6">
         <v>34660</v>
       </c>
-      <c r="IS6" s="7">
+      <c r="IS6" s="6">
         <v>35603</v>
       </c>
-      <c r="IT6" s="7">
+      <c r="IT6" s="11">
         <v>36425</v>
       </c>
+      <c r="IU6" s="34">
+        <v>37598</v>
+      </c>
     </row>
-    <row r="7" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4534,14 +4571,17 @@
       <c r="IR7" s="6">
         <v>55767</v>
       </c>
-      <c r="IS7" s="7">
+      <c r="IS7" s="6">
         <v>55146</v>
       </c>
-      <c r="IT7" s="7">
+      <c r="IT7" s="5">
         <v>54765</v>
       </c>
+      <c r="IU7" s="7">
+        <v>55093</v>
+      </c>
     </row>
-    <row r="8" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5298,14 +5338,17 @@
       <c r="IR8" s="6">
         <v>65542</v>
       </c>
-      <c r="IS8" s="7">
+      <c r="IS8" s="6">
         <v>64993</v>
       </c>
-      <c r="IT8" s="7">
+      <c r="IT8" s="5">
         <v>65161</v>
       </c>
+      <c r="IU8" s="7">
+        <v>66592</v>
+      </c>
     </row>
-    <row r="9" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6062,14 +6105,17 @@
       <c r="IR9" s="6">
         <v>1396597</v>
       </c>
-      <c r="IS9" s="7">
+      <c r="IS9" s="6">
         <v>1376117</v>
       </c>
-      <c r="IT9" s="7">
+      <c r="IT9" s="5">
         <v>1382063</v>
       </c>
+      <c r="IU9" s="7">
+        <v>1392670</v>
+      </c>
     </row>
-    <row r="10" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6826,14 +6872,17 @@
       <c r="IR10" s="6">
         <v>49369</v>
       </c>
-      <c r="IS10" s="7">
+      <c r="IS10" s="6">
         <v>49092</v>
       </c>
-      <c r="IT10" s="7">
+      <c r="IT10" s="5">
         <v>49181</v>
       </c>
+      <c r="IU10" s="7">
+        <v>49692</v>
+      </c>
     </row>
-    <row r="11" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7590,14 +7639,17 @@
       <c r="IR11" s="6">
         <v>70951</v>
       </c>
-      <c r="IS11" s="7">
+      <c r="IS11" s="6">
         <v>69995</v>
       </c>
-      <c r="IT11" s="7">
+      <c r="IT11" s="5">
         <v>69336</v>
       </c>
+      <c r="IU11" s="7">
+        <v>68631</v>
+      </c>
     </row>
-    <row r="12" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8354,14 +8406,17 @@
       <c r="IR12" s="6">
         <v>9030</v>
       </c>
-      <c r="IS12" s="7">
+      <c r="IS12" s="6">
         <v>9073</v>
       </c>
-      <c r="IT12" s="7">
+      <c r="IT12" s="5">
         <v>9209</v>
       </c>
+      <c r="IU12" s="7">
+        <v>9198</v>
+      </c>
     </row>
-    <row r="13" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9118,14 +9173,17 @@
       <c r="IR13" s="6">
         <v>21090</v>
       </c>
-      <c r="IS13" s="7">
+      <c r="IS13" s="6">
         <v>20916</v>
       </c>
-      <c r="IT13" s="7">
+      <c r="IT13" s="5">
         <v>21315</v>
       </c>
+      <c r="IU13" s="7">
+        <v>22175</v>
+      </c>
     </row>
-    <row r="14" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9882,14 +9940,17 @@
       <c r="IR14" s="6">
         <v>2653</v>
       </c>
-      <c r="IS14" s="7">
+      <c r="IS14" s="6">
         <v>2654</v>
       </c>
-      <c r="IT14" s="7">
+      <c r="IT14" s="5">
         <v>2609</v>
       </c>
+      <c r="IU14" s="7">
+        <v>2455</v>
+      </c>
     </row>
-    <row r="15" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10646,14 +10707,17 @@
       <c r="IR15" s="6">
         <v>20543</v>
       </c>
-      <c r="IS15" s="7">
+      <c r="IS15" s="6">
         <v>20030</v>
       </c>
-      <c r="IT15" s="7">
+      <c r="IT15" s="5">
         <v>19985</v>
       </c>
+      <c r="IU15" s="7">
+        <v>20049</v>
+      </c>
     </row>
-    <row r="16" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11410,14 +11474,17 @@
       <c r="IR16" s="6">
         <v>62038</v>
       </c>
-      <c r="IS16" s="7">
+      <c r="IS16" s="6">
         <v>60359</v>
       </c>
-      <c r="IT16" s="7">
+      <c r="IT16" s="5">
         <v>61046</v>
       </c>
+      <c r="IU16" s="7">
+        <v>60607</v>
+      </c>
     </row>
-    <row r="17" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12174,14 +12241,17 @@
       <c r="IR17" s="6">
         <v>17029</v>
       </c>
-      <c r="IS17" s="7">
+      <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="7">
+      <c r="IT17" s="35">
         <v>16027</v>
       </c>
+      <c r="IU17" s="36">
+        <v>15973</v>
+      </c>
     </row>
-    <row r="18" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -12938,14 +13008,17 @@
       <c r="IR18" s="19">
         <v>1805269</v>
       </c>
-      <c r="IS18" s="20">
+      <c r="IS18" s="19">
         <v>1780367</v>
       </c>
-      <c r="IT18" s="20">
+      <c r="IT18" s="18">
         <v>1787122</v>
       </c>
+      <c r="IU18" s="20">
+        <v>1800733</v>
+      </c>
     </row>
-    <row r="19" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13199,7 +13272,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:255" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D751D83B-128A-4DC4-A378-7539101A7905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -727,17 +726,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -853,18 +841,18 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,23 +987,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1051,23 +1022,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1243,280 +1197,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IU20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IW8" sqref="IW8"/>
+      <selection pane="topRight" activeCell="JC26" sqref="JC26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="255" width="12.453125" customWidth="1"/>
+    <col min="253" max="256" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2281,9 +2235,12 @@
       <c r="IU4" s="26">
         <v>2021</v>
       </c>
+      <c r="IV4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:255" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
@@ -3040,14 +2997,17 @@
       <c r="IS5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="33" t="s">
+      <c r="IT5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="IU5" s="30" t="s">
+      <c r="IU5" s="29" t="s">
         <v>17</v>
       </c>
+      <c r="IV5" s="30" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3807,14 +3767,17 @@
       <c r="IS6" s="6">
         <v>35603</v>
       </c>
-      <c r="IT6" s="11">
+      <c r="IT6" s="5">
         <v>36425</v>
       </c>
-      <c r="IU6" s="34">
+      <c r="IU6" s="6">
         <v>37598</v>
       </c>
+      <c r="IV6" s="7">
+        <v>38052</v>
+      </c>
     </row>
-    <row r="7" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4577,11 +4540,14 @@
       <c r="IT7" s="5">
         <v>54765</v>
       </c>
-      <c r="IU7" s="7">
+      <c r="IU7" s="6">
         <v>55093</v>
       </c>
+      <c r="IV7" s="7">
+        <v>55367</v>
+      </c>
     </row>
-    <row r="8" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5344,11 +5310,14 @@
       <c r="IT8" s="5">
         <v>65161</v>
       </c>
-      <c r="IU8" s="7">
+      <c r="IU8" s="6">
         <v>66592</v>
       </c>
+      <c r="IV8" s="7">
+        <v>66247</v>
+      </c>
     </row>
-    <row r="9" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6111,11 +6080,14 @@
       <c r="IT9" s="5">
         <v>1382063</v>
       </c>
-      <c r="IU9" s="7">
+      <c r="IU9" s="6">
         <v>1392670</v>
       </c>
+      <c r="IV9" s="7">
+        <v>1394805</v>
+      </c>
     </row>
-    <row r="10" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6878,11 +6850,14 @@
       <c r="IT10" s="5">
         <v>49181</v>
       </c>
-      <c r="IU10" s="7">
+      <c r="IU10" s="6">
         <v>49692</v>
       </c>
+      <c r="IV10" s="7">
+        <v>50089</v>
+      </c>
     </row>
-    <row r="11" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7645,11 +7620,14 @@
       <c r="IT11" s="5">
         <v>69336</v>
       </c>
-      <c r="IU11" s="7">
+      <c r="IU11" s="6">
         <v>68631</v>
       </c>
+      <c r="IV11" s="7">
+        <v>70083</v>
+      </c>
     </row>
-    <row r="12" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8412,11 +8390,14 @@
       <c r="IT12" s="5">
         <v>9209</v>
       </c>
-      <c r="IU12" s="7">
+      <c r="IU12" s="6">
         <v>9198</v>
       </c>
+      <c r="IV12" s="7">
+        <v>9183</v>
+      </c>
     </row>
-    <row r="13" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9179,11 +9160,14 @@
       <c r="IT13" s="5">
         <v>21315</v>
       </c>
-      <c r="IU13" s="7">
+      <c r="IU13" s="6">
         <v>22175</v>
       </c>
+      <c r="IV13" s="7">
+        <v>21273</v>
+      </c>
     </row>
-    <row r="14" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9946,11 +9930,14 @@
       <c r="IT14" s="5">
         <v>2609</v>
       </c>
-      <c r="IU14" s="7">
+      <c r="IU14" s="6">
         <v>2455</v>
       </c>
+      <c r="IV14" s="7">
+        <v>2549</v>
+      </c>
     </row>
-    <row r="15" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10713,11 +10700,14 @@
       <c r="IT15" s="5">
         <v>19985</v>
       </c>
-      <c r="IU15" s="7">
+      <c r="IU15" s="6">
         <v>20049</v>
       </c>
+      <c r="IV15" s="7">
+        <v>20304</v>
+      </c>
     </row>
-    <row r="16" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11480,11 +11470,14 @@
       <c r="IT16" s="5">
         <v>61046</v>
       </c>
-      <c r="IU16" s="7">
+      <c r="IU16" s="6">
         <v>60607</v>
       </c>
+      <c r="IV16" s="7">
+        <v>59551</v>
+      </c>
     </row>
-    <row r="17" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12244,14 +12237,17 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="35">
+      <c r="IT17" s="32">
         <v>16027</v>
       </c>
-      <c r="IU17" s="36">
+      <c r="IU17" s="34">
         <v>15973</v>
       </c>
+      <c r="IV17" s="33">
+        <v>16116</v>
+      </c>
     </row>
-    <row r="18" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13014,11 +13010,15 @@
       <c r="IT18" s="18">
         <v>1787122</v>
       </c>
-      <c r="IU18" s="20">
+      <c r="IU18" s="19">
         <v>1800733</v>
       </c>
+      <c r="IV18" s="20">
+        <f>SUM(IV6:IV17)</f>
+        <v>1803619</v>
+      </c>
     </row>
-    <row r="19" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13272,7 +13272,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:255" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -777,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,12 +838,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -852,6 +846,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1198,11 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:IW20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC26" sqref="JC26"/>
+      <selection pane="topRight" activeCell="IU27" sqref="IU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,21 +1459,21 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="256" width="12.42578125" customWidth="1"/>
+    <col min="253" max="257" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:257" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2232,15 +2235,18 @@
       <c r="IT4" s="2">
         <v>2021</v>
       </c>
-      <c r="IU4" s="26">
+      <c r="IU4" s="3">
         <v>2021</v>
       </c>
-      <c r="IV4" s="26">
+      <c r="IV4" s="3">
         <v>2021</v>
       </c>
+      <c r="IW4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:257" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
@@ -2997,17 +3003,20 @@
       <c r="IS5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="31" t="s">
+      <c r="IT5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="IU5" s="29" t="s">
+      <c r="IU5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="IV5" s="30" t="s">
+      <c r="IV5" s="36" t="s">
         <v>18</v>
       </c>
+      <c r="IW5" s="37" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3773,11 +3782,14 @@
       <c r="IU6" s="6">
         <v>37598</v>
       </c>
-      <c r="IV6" s="7">
+      <c r="IV6" s="6">
         <v>38052</v>
       </c>
+      <c r="IW6" s="7">
+        <v>37669</v>
+      </c>
     </row>
-    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4543,11 +4555,14 @@
       <c r="IU7" s="6">
         <v>55093</v>
       </c>
-      <c r="IV7" s="7">
+      <c r="IV7" s="6">
         <v>55367</v>
       </c>
+      <c r="IW7" s="7">
+        <v>55338</v>
+      </c>
     </row>
-    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5313,11 +5328,14 @@
       <c r="IU8" s="6">
         <v>66592</v>
       </c>
-      <c r="IV8" s="7">
+      <c r="IV8" s="6">
         <v>66247</v>
       </c>
+      <c r="IW8" s="7">
+        <v>66238</v>
+      </c>
     </row>
-    <row r="9" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6083,11 +6101,14 @@
       <c r="IU9" s="6">
         <v>1392670</v>
       </c>
-      <c r="IV9" s="7">
+      <c r="IV9" s="6">
         <v>1394805</v>
       </c>
+      <c r="IW9" s="7">
+        <v>1400242</v>
+      </c>
     </row>
-    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6853,11 +6874,14 @@
       <c r="IU10" s="6">
         <v>49692</v>
       </c>
-      <c r="IV10" s="7">
+      <c r="IV10" s="6">
         <v>50089</v>
       </c>
+      <c r="IW10" s="7">
+        <v>50715</v>
+      </c>
     </row>
-    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7623,11 +7647,14 @@
       <c r="IU11" s="6">
         <v>68631</v>
       </c>
-      <c r="IV11" s="7">
+      <c r="IV11" s="6">
         <v>70083</v>
       </c>
+      <c r="IW11" s="7">
+        <v>70724</v>
+      </c>
     </row>
-    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8393,11 +8420,14 @@
       <c r="IU12" s="6">
         <v>9198</v>
       </c>
-      <c r="IV12" s="7">
+      <c r="IV12" s="6">
         <v>9183</v>
       </c>
+      <c r="IW12" s="7">
+        <v>9324</v>
+      </c>
     </row>
-    <row r="13" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9163,11 +9193,14 @@
       <c r="IU13" s="6">
         <v>22175</v>
       </c>
-      <c r="IV13" s="7">
+      <c r="IV13" s="6">
         <v>21273</v>
       </c>
+      <c r="IW13" s="7">
+        <v>22077</v>
+      </c>
     </row>
-    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9933,11 +9966,14 @@
       <c r="IU14" s="6">
         <v>2455</v>
       </c>
-      <c r="IV14" s="7">
+      <c r="IV14" s="6">
         <v>2549</v>
       </c>
+      <c r="IW14" s="7">
+        <v>2591</v>
+      </c>
     </row>
-    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10703,11 +10739,14 @@
       <c r="IU15" s="6">
         <v>20049</v>
       </c>
-      <c r="IV15" s="7">
+      <c r="IV15" s="6">
         <v>20304</v>
       </c>
+      <c r="IW15" s="7">
+        <v>20117</v>
+      </c>
     </row>
-    <row r="16" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11473,11 +11512,14 @@
       <c r="IU16" s="6">
         <v>60607</v>
       </c>
-      <c r="IV16" s="7">
+      <c r="IV16" s="6">
         <v>59551</v>
       </c>
+      <c r="IW16" s="7">
+        <v>59641</v>
+      </c>
     </row>
-    <row r="17" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12237,17 +12279,20 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="32">
+      <c r="IT17" s="30">
         <v>16027</v>
       </c>
-      <c r="IU17" s="34">
+      <c r="IU17" s="32">
         <v>15973</v>
       </c>
-      <c r="IV17" s="33">
+      <c r="IV17" s="32">
         <v>16116</v>
       </c>
+      <c r="IW17" s="31">
+        <v>16208</v>
+      </c>
     </row>
-    <row r="18" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13013,12 +13058,14 @@
       <c r="IU18" s="19">
         <v>1800733</v>
       </c>
-      <c r="IV18" s="20">
-        <f>SUM(IV6:IV17)</f>
+      <c r="IV18" s="19">
         <v>1803619</v>
       </c>
+      <c r="IW18" s="20">
+        <v>1810884</v>
+      </c>
     </row>
-    <row r="19" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13272,7 +13319,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -726,10 +726,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -777,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,24 +838,19 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1201,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW20"/>
+  <dimension ref="A1:IX20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IU27" sqref="IU27"/>
+      <selection pane="topRight" activeCell="JB28" sqref="JB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,21 +1454,21 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="257" width="12.42578125" customWidth="1"/>
+    <col min="253" max="258" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2241,12 +2236,15 @@
       <c r="IV4" s="3">
         <v>2021</v>
       </c>
-      <c r="IW4" s="26">
+      <c r="IW4" s="3">
         <v>2021</v>
       </c>
+      <c r="IX4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
@@ -3003,20 +3001,23 @@
       <c r="IS5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="35" t="s">
+      <c r="IT5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="IU5" s="36" t="s">
+      <c r="IU5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="IV5" s="36" t="s">
+      <c r="IV5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="IW5" s="37" t="s">
+      <c r="IW5" s="29" t="s">
         <v>19</v>
       </c>
+      <c r="IX5" s="33" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3776,20 +3777,23 @@
       <c r="IS6" s="6">
         <v>35603</v>
       </c>
-      <c r="IT6" s="5">
+      <c r="IT6" s="11">
         <v>36425</v>
       </c>
-      <c r="IU6" s="6">
+      <c r="IU6" s="12">
         <v>37598</v>
       </c>
-      <c r="IV6" s="6">
+      <c r="IV6" s="12">
         <v>38052</v>
       </c>
-      <c r="IW6" s="7">
+      <c r="IW6" s="12">
         <v>37669</v>
       </c>
+      <c r="IX6" s="34">
+        <v>35191</v>
+      </c>
     </row>
-    <row r="7" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4558,11 +4562,14 @@
       <c r="IV7" s="6">
         <v>55367</v>
       </c>
-      <c r="IW7" s="7">
+      <c r="IW7" s="6">
         <v>55338</v>
       </c>
+      <c r="IX7" s="7">
+        <v>55804</v>
+      </c>
     </row>
-    <row r="8" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5331,11 +5338,14 @@
       <c r="IV8" s="6">
         <v>66247</v>
       </c>
-      <c r="IW8" s="7">
+      <c r="IW8" s="6">
         <v>66238</v>
       </c>
+      <c r="IX8" s="7">
+        <v>66784</v>
+      </c>
     </row>
-    <row r="9" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6104,11 +6114,14 @@
       <c r="IV9" s="6">
         <v>1394805</v>
       </c>
-      <c r="IW9" s="7">
+      <c r="IW9" s="6">
         <v>1400242</v>
       </c>
+      <c r="IX9" s="7">
+        <v>1408212</v>
+      </c>
     </row>
-    <row r="10" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6877,11 +6890,14 @@
       <c r="IV10" s="6">
         <v>50089</v>
       </c>
-      <c r="IW10" s="7">
+      <c r="IW10" s="6">
         <v>50715</v>
       </c>
+      <c r="IX10" s="7">
+        <v>51396</v>
+      </c>
     </row>
-    <row r="11" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7650,11 +7666,14 @@
       <c r="IV11" s="6">
         <v>70083</v>
       </c>
-      <c r="IW11" s="7">
+      <c r="IW11" s="6">
         <v>70724</v>
       </c>
+      <c r="IX11" s="7">
+        <v>71529</v>
+      </c>
     </row>
-    <row r="12" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8423,11 +8442,14 @@
       <c r="IV12" s="6">
         <v>9183</v>
       </c>
-      <c r="IW12" s="7">
+      <c r="IW12" s="6">
         <v>9324</v>
       </c>
+      <c r="IX12" s="7">
+        <v>8964</v>
+      </c>
     </row>
-    <row r="13" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9196,11 +9218,14 @@
       <c r="IV13" s="6">
         <v>21273</v>
       </c>
-      <c r="IW13" s="7">
+      <c r="IW13" s="6">
         <v>22077</v>
       </c>
+      <c r="IX13" s="7">
+        <v>20584</v>
+      </c>
     </row>
-    <row r="14" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9969,11 +9994,14 @@
       <c r="IV14" s="6">
         <v>2549</v>
       </c>
-      <c r="IW14" s="7">
+      <c r="IW14" s="6">
         <v>2591</v>
       </c>
+      <c r="IX14" s="7">
+        <v>2583</v>
+      </c>
     </row>
-    <row r="15" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10742,11 +10770,14 @@
       <c r="IV15" s="6">
         <v>20304</v>
       </c>
-      <c r="IW15" s="7">
+      <c r="IW15" s="6">
         <v>20117</v>
       </c>
+      <c r="IX15" s="7">
+        <v>19788</v>
+      </c>
     </row>
-    <row r="16" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11515,11 +11546,14 @@
       <c r="IV16" s="6">
         <v>59551</v>
       </c>
-      <c r="IW16" s="7">
+      <c r="IW16" s="6">
         <v>59641</v>
       </c>
+      <c r="IX16" s="7">
+        <v>58921</v>
+      </c>
     </row>
-    <row r="17" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12279,20 +12313,23 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="30">
+      <c r="IT17" s="5">
         <v>16027</v>
       </c>
-      <c r="IU17" s="32">
+      <c r="IU17" s="6">
         <v>15973</v>
       </c>
-      <c r="IV17" s="32">
+      <c r="IV17" s="6">
         <v>16116</v>
       </c>
-      <c r="IW17" s="31">
+      <c r="IW17" s="6">
         <v>16208</v>
       </c>
+      <c r="IX17" s="7">
+        <v>15851</v>
+      </c>
     </row>
-    <row r="18" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13061,11 +13098,14 @@
       <c r="IV18" s="19">
         <v>1803619</v>
       </c>
-      <c r="IW18" s="20">
+      <c r="IW18" s="19">
         <v>1810884</v>
       </c>
+      <c r="IX18" s="20">
+        <v>1815607</v>
+      </c>
     </row>
-    <row r="19" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13319,7 +13359,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -838,12 +838,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,6 +845,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1196,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX20"/>
+  <dimension ref="A1:IY20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JB28" sqref="JB28"/>
+      <selection pane="topRight" activeCell="JE20" sqref="JE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,21 +1454,21 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="258" width="12.42578125" customWidth="1"/>
+    <col min="253" max="259" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2239,12 +2239,15 @@
       <c r="IW4" s="3">
         <v>2021</v>
       </c>
-      <c r="IX4" s="26">
+      <c r="IX4" s="3">
         <v>2021</v>
       </c>
+      <c r="IY4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
@@ -3001,7 +3004,7 @@
       <c r="IS5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="32" t="s">
+      <c r="IT5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="IU5" s="29" t="s">
@@ -3013,11 +3016,14 @@
       <c r="IW5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="IX5" s="33" t="s">
+      <c r="IX5" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="IY5" s="31" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3789,11 +3795,14 @@
       <c r="IW6" s="12">
         <v>37669</v>
       </c>
-      <c r="IX6" s="34">
+      <c r="IX6" s="12">
         <v>35191</v>
       </c>
+      <c r="IY6" s="32">
+        <v>35074</v>
+      </c>
     </row>
-    <row r="7" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4565,11 +4574,14 @@
       <c r="IW7" s="6">
         <v>55338</v>
       </c>
-      <c r="IX7" s="7">
+      <c r="IX7" s="6">
         <v>55804</v>
       </c>
+      <c r="IY7" s="7">
+        <v>56828</v>
+      </c>
     </row>
-    <row r="8" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5341,11 +5353,14 @@
       <c r="IW8" s="6">
         <v>66238</v>
       </c>
-      <c r="IX8" s="7">
+      <c r="IX8" s="6">
         <v>66784</v>
       </c>
+      <c r="IY8" s="7">
+        <v>67095</v>
+      </c>
     </row>
-    <row r="9" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6117,11 +6132,14 @@
       <c r="IW9" s="6">
         <v>1400242</v>
       </c>
-      <c r="IX9" s="7">
+      <c r="IX9" s="6">
         <v>1408212</v>
       </c>
+      <c r="IY9" s="7">
+        <v>1414649</v>
+      </c>
     </row>
-    <row r="10" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6893,11 +6911,14 @@
       <c r="IW10" s="6">
         <v>50715</v>
       </c>
-      <c r="IX10" s="7">
+      <c r="IX10" s="6">
         <v>51396</v>
       </c>
+      <c r="IY10" s="7">
+        <v>51214</v>
+      </c>
     </row>
-    <row r="11" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7669,11 +7690,14 @@
       <c r="IW11" s="6">
         <v>70724</v>
       </c>
-      <c r="IX11" s="7">
+      <c r="IX11" s="6">
         <v>71529</v>
       </c>
+      <c r="IY11" s="7">
+        <v>70670</v>
+      </c>
     </row>
-    <row r="12" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8445,11 +8469,14 @@
       <c r="IW12" s="6">
         <v>9324</v>
       </c>
-      <c r="IX12" s="7">
+      <c r="IX12" s="6">
         <v>8964</v>
       </c>
+      <c r="IY12" s="7">
+        <v>9183</v>
+      </c>
     </row>
-    <row r="13" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9221,11 +9248,14 @@
       <c r="IW13" s="6">
         <v>22077</v>
       </c>
-      <c r="IX13" s="7">
+      <c r="IX13" s="6">
         <v>20584</v>
       </c>
+      <c r="IY13" s="7">
+        <v>20487</v>
+      </c>
     </row>
-    <row r="14" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -9997,11 +10027,14 @@
       <c r="IW14" s="6">
         <v>2591</v>
       </c>
-      <c r="IX14" s="7">
+      <c r="IX14" s="6">
         <v>2583</v>
       </c>
+      <c r="IY14" s="7">
+        <v>2623</v>
+      </c>
     </row>
-    <row r="15" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10773,11 +10806,14 @@
       <c r="IW15" s="6">
         <v>20117</v>
       </c>
-      <c r="IX15" s="7">
+      <c r="IX15" s="6">
         <v>19788</v>
       </c>
+      <c r="IY15" s="7">
+        <v>20031</v>
+      </c>
     </row>
-    <row r="16" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11549,11 +11585,14 @@
       <c r="IW16" s="6">
         <v>59641</v>
       </c>
-      <c r="IX16" s="7">
+      <c r="IX16" s="6">
         <v>58921</v>
       </c>
+      <c r="IY16" s="7">
+        <v>58131</v>
+      </c>
     </row>
-    <row r="17" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12325,11 +12364,14 @@
       <c r="IW17" s="6">
         <v>16208</v>
       </c>
-      <c r="IX17" s="7">
+      <c r="IX17" s="6">
         <v>15851</v>
       </c>
+      <c r="IY17" s="7">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="18" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13101,11 +13143,15 @@
       <c r="IW18" s="19">
         <v>1810884</v>
       </c>
-      <c r="IX18" s="20">
+      <c r="IX18" s="19">
         <v>1815607</v>
       </c>
+      <c r="IY18" s="20">
+        <f>SUM(IY6:IY17)</f>
+        <v>1820785</v>
+      </c>
     </row>
-    <row r="19" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13359,7 +13405,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -1196,11 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY20"/>
+  <dimension ref="A1:IZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE20" sqref="JE20"/>
+      <selection pane="topRight" activeCell="JE14" sqref="JE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,20 +1454,20 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="259" width="12.42578125" customWidth="1"/>
+    <col min="253" max="260" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
@@ -2242,11 +2242,14 @@
       <c r="IX4" s="3">
         <v>2021</v>
       </c>
-      <c r="IY4" s="26">
+      <c r="IY4" s="3">
         <v>2021</v>
       </c>
+      <c r="IZ4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
@@ -3019,11 +3022,14 @@
       <c r="IX5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="IY5" s="31" t="s">
+      <c r="IY5" s="29" t="s">
         <v>21</v>
       </c>
+      <c r="IZ5" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3798,11 +3804,14 @@
       <c r="IX6" s="12">
         <v>35191</v>
       </c>
-      <c r="IY6" s="32">
+      <c r="IY6" s="12">
         <v>35074</v>
       </c>
+      <c r="IZ6" s="32">
+        <v>37060</v>
+      </c>
     </row>
-    <row r="7" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4577,11 +4586,14 @@
       <c r="IX7" s="6">
         <v>55804</v>
       </c>
-      <c r="IY7" s="7">
+      <c r="IY7" s="6">
         <v>56828</v>
       </c>
+      <c r="IZ7" s="7">
+        <v>58335</v>
+      </c>
     </row>
-    <row r="8" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5356,11 +5368,14 @@
       <c r="IX8" s="6">
         <v>66784</v>
       </c>
-      <c r="IY8" s="7">
+      <c r="IY8" s="6">
         <v>67095</v>
       </c>
+      <c r="IZ8" s="7">
+        <v>67605</v>
+      </c>
     </row>
-    <row r="9" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6135,11 +6150,14 @@
       <c r="IX9" s="6">
         <v>1408212</v>
       </c>
-      <c r="IY9" s="7">
+      <c r="IY9" s="6">
         <v>1414649</v>
       </c>
+      <c r="IZ9" s="7">
+        <v>1410794</v>
+      </c>
     </row>
-    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6914,11 +6932,14 @@
       <c r="IX10" s="6">
         <v>51396</v>
       </c>
-      <c r="IY10" s="7">
+      <c r="IY10" s="6">
         <v>51214</v>
       </c>
+      <c r="IZ10" s="7">
+        <v>51589</v>
+      </c>
     </row>
-    <row r="11" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7693,11 +7714,14 @@
       <c r="IX11" s="6">
         <v>71529</v>
       </c>
-      <c r="IY11" s="7">
+      <c r="IY11" s="6">
         <v>70670</v>
       </c>
+      <c r="IZ11" s="7">
+        <v>72511</v>
+      </c>
     </row>
-    <row r="12" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8472,11 +8496,14 @@
       <c r="IX12" s="6">
         <v>8964</v>
       </c>
-      <c r="IY12" s="7">
+      <c r="IY12" s="6">
         <v>9183</v>
       </c>
+      <c r="IZ12" s="7">
+        <v>9030</v>
+      </c>
     </row>
-    <row r="13" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9251,11 +9278,14 @@
       <c r="IX13" s="6">
         <v>20584</v>
       </c>
-      <c r="IY13" s="7">
+      <c r="IY13" s="6">
         <v>20487</v>
       </c>
+      <c r="IZ13" s="7">
+        <v>21396</v>
+      </c>
     </row>
-    <row r="14" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10030,11 +10060,14 @@
       <c r="IX14" s="6">
         <v>2583</v>
       </c>
-      <c r="IY14" s="7">
+      <c r="IY14" s="6">
         <v>2623</v>
       </c>
+      <c r="IZ14" s="7">
+        <v>2515</v>
+      </c>
     </row>
-    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10809,11 +10842,14 @@
       <c r="IX15" s="6">
         <v>19788</v>
       </c>
-      <c r="IY15" s="7">
+      <c r="IY15" s="6">
         <v>20031</v>
       </c>
+      <c r="IZ15" s="7">
+        <v>20292</v>
+      </c>
     </row>
-    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11588,11 +11624,14 @@
       <c r="IX16" s="6">
         <v>58921</v>
       </c>
-      <c r="IY16" s="7">
+      <c r="IY16" s="6">
         <v>58131</v>
       </c>
+      <c r="IZ16" s="7">
+        <v>60257</v>
+      </c>
     </row>
-    <row r="17" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12367,11 +12406,14 @@
       <c r="IX17" s="6">
         <v>15851</v>
       </c>
-      <c r="IY17" s="7">
+      <c r="IY17" s="6">
         <v>14800</v>
       </c>
+      <c r="IZ17" s="7">
+        <v>15191</v>
+      </c>
     </row>
-    <row r="18" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13146,12 +13188,16 @@
       <c r="IX18" s="19">
         <v>1815607</v>
       </c>
-      <c r="IY18" s="20">
+      <c r="IY18" s="19">
         <f>SUM(IY6:IY17)</f>
         <v>1820785</v>
       </c>
+      <c r="IZ18" s="20">
+        <f>SUM(IZ6:IZ17)</f>
+        <v>1826575</v>
+      </c>
     </row>
-    <row r="19" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13405,7 +13451,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -732,6 +732,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -777,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,6 +862,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1196,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IZ20"/>
+  <dimension ref="A1:JA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE14" sqref="JE14"/>
+      <selection pane="topRight" activeCell="JC10" sqref="JC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,20 +1468,20 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="260" width="12.42578125" customWidth="1"/>
+    <col min="253" max="261" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>13</v>
       </c>
@@ -2245,11 +2259,14 @@
       <c r="IY4" s="3">
         <v>2021</v>
       </c>
-      <c r="IZ4" s="26">
+      <c r="IZ4" s="3">
         <v>2021</v>
       </c>
+      <c r="JA4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
@@ -3025,11 +3042,14 @@
       <c r="IY5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="IZ5" s="31" t="s">
+      <c r="IZ5" s="29" t="s">
         <v>22</v>
       </c>
+      <c r="JA5" s="31" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3807,11 +3827,14 @@
       <c r="IY6" s="12">
         <v>35074</v>
       </c>
-      <c r="IZ6" s="32">
+      <c r="IZ6" s="12">
         <v>37060</v>
       </c>
+      <c r="JA6" s="32">
+        <v>38769</v>
+      </c>
     </row>
-    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4589,11 +4612,14 @@
       <c r="IY7" s="6">
         <v>56828</v>
       </c>
-      <c r="IZ7" s="7">
+      <c r="IZ7" s="6">
         <v>58335</v>
       </c>
+      <c r="JA7" s="7">
+        <v>57720</v>
+      </c>
     </row>
-    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5371,11 +5397,14 @@
       <c r="IY8" s="6">
         <v>67095</v>
       </c>
-      <c r="IZ8" s="7">
+      <c r="IZ8" s="6">
         <v>67605</v>
       </c>
+      <c r="JA8" s="7">
+        <v>68129</v>
+      </c>
     </row>
-    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6153,11 +6182,14 @@
       <c r="IY9" s="6">
         <v>1414649</v>
       </c>
-      <c r="IZ9" s="7">
+      <c r="IZ9" s="6">
         <v>1410794</v>
       </c>
+      <c r="JA9" s="7">
+        <v>1416144</v>
+      </c>
     </row>
-    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6935,11 +6967,14 @@
       <c r="IY10" s="6">
         <v>51214</v>
       </c>
-      <c r="IZ10" s="7">
+      <c r="IZ10" s="6">
         <v>51589</v>
       </c>
+      <c r="JA10" s="7">
+        <v>52280</v>
+      </c>
     </row>
-    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7717,11 +7752,14 @@
       <c r="IY11" s="6">
         <v>70670</v>
       </c>
-      <c r="IZ11" s="7">
+      <c r="IZ11" s="6">
         <v>72511</v>
       </c>
+      <c r="JA11" s="7">
+        <v>72873</v>
+      </c>
     </row>
-    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8499,11 +8537,14 @@
       <c r="IY12" s="6">
         <v>9183</v>
       </c>
-      <c r="IZ12" s="7">
+      <c r="IZ12" s="6">
         <v>9030</v>
       </c>
+      <c r="JA12" s="7">
+        <v>9133</v>
+      </c>
     </row>
-    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9281,11 +9322,14 @@
       <c r="IY13" s="6">
         <v>20487</v>
       </c>
-      <c r="IZ13" s="7">
+      <c r="IZ13" s="6">
         <v>21396</v>
       </c>
+      <c r="JA13" s="7">
+        <v>21181</v>
+      </c>
     </row>
-    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10063,11 +10107,14 @@
       <c r="IY14" s="6">
         <v>2623</v>
       </c>
-      <c r="IZ14" s="7">
+      <c r="IZ14" s="6">
         <v>2515</v>
       </c>
+      <c r="JA14" s="7">
+        <v>2686</v>
+      </c>
     </row>
-    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10845,11 +10892,14 @@
       <c r="IY15" s="6">
         <v>20031</v>
       </c>
-      <c r="IZ15" s="7">
+      <c r="IZ15" s="6">
         <v>20292</v>
       </c>
+      <c r="JA15" s="7">
+        <v>21490</v>
+      </c>
     </row>
-    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11627,11 +11677,14 @@
       <c r="IY16" s="6">
         <v>58131</v>
       </c>
-      <c r="IZ16" s="7">
+      <c r="IZ16" s="6">
         <v>60257</v>
       </c>
+      <c r="JA16" s="7">
+        <v>62055</v>
+      </c>
     </row>
-    <row r="17" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12391,29 +12444,32 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="5">
+      <c r="IT17" s="35">
         <v>16027</v>
       </c>
-      <c r="IU17" s="6">
+      <c r="IU17" s="36">
         <v>15973</v>
       </c>
-      <c r="IV17" s="6">
+      <c r="IV17" s="36">
         <v>16116</v>
       </c>
-      <c r="IW17" s="6">
+      <c r="IW17" s="36">
         <v>16208</v>
       </c>
-      <c r="IX17" s="6">
+      <c r="IX17" s="36">
         <v>15851</v>
       </c>
-      <c r="IY17" s="6">
+      <c r="IY17" s="36">
         <v>14800</v>
       </c>
-      <c r="IZ17" s="7">
+      <c r="IZ17" s="36">
         <v>15191</v>
       </c>
+      <c r="JA17" s="37">
+        <v>15515</v>
+      </c>
     </row>
-    <row r="18" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13192,12 +13248,16 @@
         <f>SUM(IY6:IY17)</f>
         <v>1820785</v>
       </c>
-      <c r="IZ18" s="20">
+      <c r="IZ18" s="19">
         <f>SUM(IZ6:IZ17)</f>
         <v>1826575</v>
       </c>
+      <c r="JA18" s="20">
+        <f>SUM(JA6:JA17)</f>
+        <v>1837975</v>
+      </c>
     </row>
-    <row r="19" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13451,7 +13511,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -856,15 +856,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1210,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JA20"/>
+  <dimension ref="A1:JB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC10" sqref="JC10"/>
+      <selection pane="topRight" activeCell="JF20" sqref="JF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,21 +1468,21 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="261" width="12.42578125" customWidth="1"/>
+    <col min="253" max="262" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2262,12 +2262,15 @@
       <c r="IZ4" s="3">
         <v>2021</v>
       </c>
-      <c r="JA4" s="26">
+      <c r="JA4" s="3">
         <v>2021</v>
       </c>
+      <c r="JB4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="21" t="s">
         <v>16</v>
       </c>
@@ -3045,11 +3048,14 @@
       <c r="IZ5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="JA5" s="31" t="s">
+      <c r="JA5" s="29" t="s">
         <v>23</v>
       </c>
+      <c r="JB5" s="31" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3830,11 +3836,14 @@
       <c r="IZ6" s="12">
         <v>37060</v>
       </c>
-      <c r="JA6" s="32">
+      <c r="JA6" s="12">
         <v>38769</v>
       </c>
+      <c r="JB6" s="32">
+        <v>39057</v>
+      </c>
     </row>
-    <row r="7" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4615,11 +4624,14 @@
       <c r="IZ7" s="6">
         <v>58335</v>
       </c>
-      <c r="JA7" s="7">
+      <c r="JA7" s="6">
         <v>57720</v>
       </c>
+      <c r="JB7" s="7">
+        <v>58180</v>
+      </c>
     </row>
-    <row r="8" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5400,11 +5412,14 @@
       <c r="IZ8" s="6">
         <v>67605</v>
       </c>
-      <c r="JA8" s="7">
+      <c r="JA8" s="6">
         <v>68129</v>
       </c>
+      <c r="JB8" s="7">
+        <v>68587</v>
+      </c>
     </row>
-    <row r="9" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6185,11 +6200,14 @@
       <c r="IZ9" s="6">
         <v>1410794</v>
       </c>
-      <c r="JA9" s="7">
+      <c r="JA9" s="6">
         <v>1416144</v>
       </c>
+      <c r="JB9" s="7">
+        <v>1422648</v>
+      </c>
     </row>
-    <row r="10" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6970,11 +6988,14 @@
       <c r="IZ10" s="6">
         <v>51589</v>
       </c>
-      <c r="JA10" s="7">
+      <c r="JA10" s="6">
         <v>52280</v>
       </c>
+      <c r="JB10" s="7">
+        <v>52688</v>
+      </c>
     </row>
-    <row r="11" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7755,11 +7776,14 @@
       <c r="IZ11" s="6">
         <v>72511</v>
       </c>
-      <c r="JA11" s="7">
+      <c r="JA11" s="6">
         <v>72873</v>
       </c>
+      <c r="JB11" s="7">
+        <v>72651</v>
+      </c>
     </row>
-    <row r="12" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8540,11 +8564,14 @@
       <c r="IZ12" s="6">
         <v>9030</v>
       </c>
-      <c r="JA12" s="7">
+      <c r="JA12" s="6">
         <v>9133</v>
       </c>
+      <c r="JB12" s="7">
+        <v>8934</v>
+      </c>
     </row>
-    <row r="13" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9325,11 +9352,14 @@
       <c r="IZ13" s="6">
         <v>21396</v>
       </c>
-      <c r="JA13" s="7">
+      <c r="JA13" s="6">
         <v>21181</v>
       </c>
+      <c r="JB13" s="7">
+        <v>23393</v>
+      </c>
     </row>
-    <row r="14" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10110,11 +10140,14 @@
       <c r="IZ14" s="6">
         <v>2515</v>
       </c>
-      <c r="JA14" s="7">
+      <c r="JA14" s="6">
         <v>2686</v>
       </c>
+      <c r="JB14" s="7">
+        <v>2725</v>
+      </c>
     </row>
-    <row r="15" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10895,11 +10928,14 @@
       <c r="IZ15" s="6">
         <v>20292</v>
       </c>
-      <c r="JA15" s="7">
+      <c r="JA15" s="6">
         <v>21490</v>
       </c>
+      <c r="JB15" s="7">
+        <v>21161</v>
+      </c>
     </row>
-    <row r="16" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11680,11 +11716,14 @@
       <c r="IZ16" s="6">
         <v>60257</v>
       </c>
-      <c r="JA16" s="7">
+      <c r="JA16" s="6">
         <v>62055</v>
       </c>
+      <c r="JB16" s="7">
+        <v>61817</v>
+      </c>
     </row>
-    <row r="17" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12444,32 +12483,35 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="35">
+      <c r="IT17" s="33">
         <v>16027</v>
       </c>
-      <c r="IU17" s="36">
+      <c r="IU17" s="34">
         <v>15973</v>
       </c>
-      <c r="IV17" s="36">
+      <c r="IV17" s="34">
         <v>16116</v>
       </c>
-      <c r="IW17" s="36">
+      <c r="IW17" s="34">
         <v>16208</v>
       </c>
-      <c r="IX17" s="36">
+      <c r="IX17" s="34">
         <v>15851</v>
       </c>
-      <c r="IY17" s="36">
+      <c r="IY17" s="34">
         <v>14800</v>
       </c>
-      <c r="IZ17" s="36">
+      <c r="IZ17" s="34">
         <v>15191</v>
       </c>
-      <c r="JA17" s="37">
+      <c r="JA17" s="34">
         <v>15515</v>
       </c>
+      <c r="JB17" s="35">
+        <v>15890</v>
+      </c>
     </row>
-    <row r="18" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13252,12 +13294,15 @@
         <f>SUM(IZ6:IZ17)</f>
         <v>1826575</v>
       </c>
-      <c r="JA18" s="20">
-        <f>SUM(JA6:JA17)</f>
+      <c r="JA18" s="19">
         <v>1837975</v>
       </c>
+      <c r="JB18" s="20">
+        <f>SUM(JB6:JB17)</f>
+        <v>1847731</v>
+      </c>
     </row>
-    <row r="19" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13511,7 +13556,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -726,17 +726,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -788,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,7 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,21 +837,26 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1210,11 +1203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JB20"/>
+  <dimension ref="A1:JC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JF20" sqref="JF20"/>
+      <selection pane="topRight" activeCell="JA27" sqref="JA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,21 +1461,21 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="262" width="12.42578125" customWidth="1"/>
+    <col min="253" max="263" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2265,697 +2258,700 @@
       <c r="JA4" s="3">
         <v>2021</v>
       </c>
-      <c r="JB4" s="26">
+      <c r="JB4" s="3">
         <v>2021</v>
       </c>
+      <c r="JC4" s="25">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="22" t="s">
+      <c r="AB5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" s="22" t="s">
+      <c r="AC5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="22" t="s">
+      <c r="AD5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="22" t="s">
+      <c r="AF5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="22" t="s">
+      <c r="AG5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AH5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AI5" s="22" t="s">
+      <c r="AI5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AJ5" s="22" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AK5" s="22" t="s">
+      <c r="AK5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AL5" s="21" t="s">
+      <c r="AL5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="22" t="s">
+      <c r="AM5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="22" t="s">
+      <c r="AN5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AO5" s="22" t="s">
+      <c r="AO5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="22" t="s">
+      <c r="AP5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AQ5" s="22" t="s">
+      <c r="AQ5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="22" t="s">
+      <c r="AR5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AS5" s="22" t="s">
+      <c r="AS5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AT5" s="22" t="s">
+      <c r="AT5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AU5" s="22" t="s">
+      <c r="AU5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AV5" s="22" t="s">
+      <c r="AV5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AW5" s="22" t="s">
+      <c r="AW5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AX5" s="21" t="s">
+      <c r="AX5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AY5" s="22" t="s">
+      <c r="AY5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AZ5" s="22" t="s">
+      <c r="AZ5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BA5" s="22" t="s">
+      <c r="BA5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BB5" s="22" t="s">
+      <c r="BB5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BC5" s="22" t="s">
+      <c r="BC5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="BD5" s="22" t="s">
+      <c r="BD5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BE5" s="22" t="s">
+      <c r="BE5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BF5" s="22" t="s">
+      <c r="BF5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BG5" s="22" t="s">
+      <c r="BG5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BH5" s="22" t="s">
+      <c r="BH5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BI5" s="22" t="s">
+      <c r="BI5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BJ5" s="21" t="s">
+      <c r="BJ5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="BK5" s="22" t="s">
+      <c r="BK5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="BL5" s="22" t="s">
+      <c r="BL5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BM5" s="22" t="s">
+      <c r="BM5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BN5" s="22" t="s">
+      <c r="BN5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BO5" s="22" t="s">
+      <c r="BO5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="22" t="s">
+      <c r="BP5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="22" t="s">
+      <c r="BQ5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BR5" s="22" t="s">
+      <c r="BR5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BS5" s="22" t="s">
+      <c r="BS5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BT5" s="22" t="s">
+      <c r="BT5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BU5" s="22" t="s">
+      <c r="BU5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BV5" s="21" t="s">
+      <c r="BV5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="BW5" s="22" t="s">
+      <c r="BW5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="BX5" s="22" t="s">
+      <c r="BX5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BY5" s="22" t="s">
+      <c r="BY5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="22" t="s">
+      <c r="BZ5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="22" t="s">
+      <c r="CA5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="CB5" s="22" t="s">
+      <c r="CB5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CC5" s="22" t="s">
+      <c r="CC5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="CD5" s="22" t="s">
+      <c r="CD5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="CE5" s="22" t="s">
+      <c r="CE5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="CF5" s="22" t="s">
+      <c r="CF5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="CG5" s="22" t="s">
+      <c r="CG5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CH5" s="21" t="s">
+      <c r="CH5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="CI5" s="22" t="s">
+      <c r="CI5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="CJ5" s="22" t="s">
+      <c r="CJ5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="CK5" s="22" t="s">
+      <c r="CK5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CL5" s="22" t="s">
+      <c r="CL5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CM5" s="22" t="s">
+      <c r="CM5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="CN5" s="22" t="s">
+      <c r="CN5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CO5" s="22" t="s">
+      <c r="CO5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="CP5" s="22" t="s">
+      <c r="CP5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="CQ5" s="22" t="s">
+      <c r="CQ5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="CR5" s="22" t="s">
+      <c r="CR5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="CS5" s="22" t="s">
+      <c r="CS5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CT5" s="21" t="s">
+      <c r="CT5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="CU5" s="22" t="s">
+      <c r="CU5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="CV5" s="22" t="s">
+      <c r="CV5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="CW5" s="22" t="s">
+      <c r="CW5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CX5" s="22" t="s">
+      <c r="CX5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="CY5" s="22" t="s">
+      <c r="CY5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="CZ5" s="22" t="s">
+      <c r="CZ5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="DA5" s="22" t="s">
+      <c r="DA5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="DB5" s="22" t="s">
+      <c r="DB5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="DC5" s="22" t="s">
+      <c r="DC5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="DD5" s="22" t="s">
+      <c r="DD5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="DE5" s="22" t="s">
+      <c r="DE5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="DF5" s="22" t="s">
+      <c r="DF5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="DG5" s="22" t="s">
+      <c r="DG5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="DH5" s="22" t="s">
+      <c r="DH5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="DI5" s="22" t="s">
+      <c r="DI5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="DJ5" s="22" t="s">
+      <c r="DJ5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="DK5" s="22" t="s">
+      <c r="DK5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="DL5" s="22" t="s">
+      <c r="DL5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="DM5" s="22" t="s">
+      <c r="DM5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="DN5" s="22" t="s">
+      <c r="DN5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="DO5" s="22" t="s">
+      <c r="DO5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="DP5" s="22" t="s">
+      <c r="DP5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="DQ5" s="22" t="s">
+      <c r="DQ5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="DR5" s="21" t="s">
+      <c r="DR5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="DS5" s="22" t="s">
+      <c r="DS5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="DT5" s="22" t="s">
+      <c r="DT5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="DU5" s="22" t="s">
+      <c r="DU5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="DV5" s="22" t="s">
+      <c r="DV5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="DW5" s="22" t="s">
+      <c r="DW5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="DX5" s="22" t="s">
+      <c r="DX5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="DY5" s="22" t="s">
+      <c r="DY5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="DZ5" s="22" t="s">
+      <c r="DZ5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="EA5" s="22" t="s">
+      <c r="EA5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="EB5" s="22" t="s">
+      <c r="EB5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="EC5" s="22" t="s">
+      <c r="EC5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="ED5" s="21" t="s">
+      <c r="ED5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="EE5" s="22" t="s">
+      <c r="EE5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="EF5" s="22" t="s">
+      <c r="EF5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="EG5" s="22" t="s">
+      <c r="EG5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="EH5" s="22" t="s">
+      <c r="EH5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="EI5" s="22" t="s">
+      <c r="EI5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="EJ5" s="22" t="s">
+      <c r="EJ5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="EK5" s="22" t="s">
+      <c r="EK5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="EL5" s="22" t="s">
+      <c r="EL5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="EM5" s="22" t="s">
+      <c r="EM5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="EN5" s="22" t="s">
+      <c r="EN5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="EO5" s="22" t="s">
+      <c r="EO5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="EP5" s="21" t="s">
+      <c r="EP5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="EQ5" s="22" t="s">
+      <c r="EQ5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="ER5" s="22" t="s">
+      <c r="ER5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="ES5" s="22" t="s">
+      <c r="ES5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="ET5" s="22" t="s">
+      <c r="ET5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="EU5" s="22" t="s">
+      <c r="EU5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="EV5" s="22" t="s">
+      <c r="EV5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="EW5" s="22" t="s">
+      <c r="EW5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="EX5" s="22" t="s">
+      <c r="EX5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="EY5" s="22" t="s">
+      <c r="EY5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="EZ5" s="22" t="s">
+      <c r="EZ5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="FA5" s="22" t="s">
+      <c r="FA5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="FB5" s="21" t="s">
+      <c r="FB5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="FC5" s="22" t="s">
+      <c r="FC5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="FD5" s="22" t="s">
+      <c r="FD5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="FE5" s="22" t="s">
+      <c r="FE5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="FF5" s="22" t="s">
+      <c r="FF5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="FG5" s="22" t="s">
+      <c r="FG5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="FH5" s="22" t="s">
+      <c r="FH5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="FI5" s="22" t="s">
+      <c r="FI5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="FJ5" s="22" t="s">
+      <c r="FJ5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="FK5" s="22" t="s">
+      <c r="FK5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="FL5" s="22" t="s">
+      <c r="FL5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="FM5" s="22" t="s">
+      <c r="FM5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="FN5" s="21" t="s">
+      <c r="FN5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="FO5" s="22" t="s">
+      <c r="FO5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="FP5" s="22" t="s">
+      <c r="FP5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="FQ5" s="22" t="s">
+      <c r="FQ5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="FR5" s="22" t="s">
+      <c r="FR5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="FS5" s="22" t="s">
+      <c r="FS5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="FT5" s="22" t="s">
+      <c r="FT5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="FU5" s="22" t="s">
+      <c r="FU5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="FV5" s="22" t="s">
+      <c r="FV5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="FW5" s="22" t="s">
+      <c r="FW5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="FX5" s="22" t="s">
+      <c r="FX5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="FY5" s="22" t="s">
+      <c r="FY5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="FZ5" s="21" t="s">
+      <c r="FZ5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="GA5" s="22" t="s">
+      <c r="GA5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="GB5" s="22" t="s">
+      <c r="GB5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="GC5" s="22" t="s">
+      <c r="GC5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="GD5" s="22" t="s">
+      <c r="GD5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="GE5" s="22" t="s">
+      <c r="GE5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="GF5" s="22" t="s">
+      <c r="GF5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="GG5" s="22" t="s">
+      <c r="GG5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="GH5" s="22" t="s">
+      <c r="GH5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="GI5" s="22" t="s">
+      <c r="GI5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="GJ5" s="22" t="s">
+      <c r="GJ5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="GK5" s="22" t="s">
+      <c r="GK5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="GL5" s="21" t="s">
+      <c r="GL5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="GM5" s="22" t="s">
+      <c r="GM5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="GN5" s="22" t="s">
+      <c r="GN5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="GO5" s="22" t="s">
+      <c r="GO5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="GP5" s="22" t="s">
+      <c r="GP5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="GQ5" s="22" t="s">
+      <c r="GQ5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="GR5" s="22" t="s">
+      <c r="GR5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="GS5" s="22" t="s">
+      <c r="GS5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="GT5" s="22" t="s">
+      <c r="GT5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="GU5" s="22" t="s">
+      <c r="GU5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="GV5" s="22" t="s">
+      <c r="GV5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="GW5" s="22" t="s">
+      <c r="GW5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="GX5" s="21" t="s">
+      <c r="GX5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="GY5" s="22" t="s">
+      <c r="GY5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="GZ5" s="22" t="s">
+      <c r="GZ5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="HA5" s="22" t="s">
+      <c r="HA5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="HB5" s="22" t="s">
+      <c r="HB5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="HC5" s="22" t="s">
+      <c r="HC5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="HD5" s="22" t="s">
+      <c r="HD5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="HE5" s="22" t="s">
+      <c r="HE5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="HF5" s="22" t="s">
+      <c r="HF5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="HG5" s="22" t="s">
+      <c r="HG5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="HH5" s="22" t="s">
+      <c r="HH5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="HI5" s="22" t="s">
+      <c r="HI5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="HJ5" s="23" t="s">
+      <c r="HJ5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="HK5" s="24" t="s">
+      <c r="HK5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="HL5" s="24" t="s">
+      <c r="HL5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="HM5" s="24" t="s">
+      <c r="HM5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="HN5" s="24" t="s">
+      <c r="HN5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="HO5" s="24" t="s">
+      <c r="HO5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="HP5" s="24" t="s">
+      <c r="HP5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="HQ5" s="24" t="s">
+      <c r="HQ5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="HR5" s="24" t="s">
+      <c r="HR5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="HS5" s="24" t="s">
+      <c r="HS5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="HT5" s="24" t="s">
+      <c r="HT5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="HU5" s="24" t="s">
+      <c r="HU5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="HV5" s="25" t="s">
+      <c r="HV5" s="24" t="s">
         <v>16</v>
       </c>
       <c r="HW5" s="9" t="s">
@@ -2991,71 +2987,74 @@
       <c r="IG5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="IH5" s="27" t="s">
+      <c r="IH5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="II5" s="28" t="s">
+      <c r="II5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="IJ5" s="28" t="s">
+      <c r="IJ5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="IK5" s="28" t="s">
+      <c r="IK5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="IL5" s="22" t="s">
+      <c r="IL5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="IM5" s="22" t="s">
+      <c r="IM5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="IN5" s="22" t="s">
+      <c r="IN5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="IO5" s="22" t="s">
+      <c r="IO5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="IP5" s="29" t="s">
+      <c r="IP5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="IQ5" s="29" t="s">
+      <c r="IQ5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="IR5" s="29" t="s">
+      <c r="IR5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="IS5" s="29" t="s">
+      <c r="IS5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="30" t="s">
+      <c r="IT5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="IU5" s="29" t="s">
+      <c r="IU5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="IV5" s="29" t="s">
+      <c r="IV5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="IW5" s="29" t="s">
+      <c r="IW5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="IX5" s="29" t="s">
+      <c r="IX5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="IY5" s="29" t="s">
+      <c r="IY5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="IZ5" s="29" t="s">
+      <c r="IZ5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="JA5" s="29" t="s">
+      <c r="JA5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="JB5" s="31" t="s">
+      <c r="JB5" s="38" t="s">
         <v>24</v>
       </c>
+      <c r="JC5" s="39" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3815,35 +3814,38 @@
       <c r="IS6" s="6">
         <v>35603</v>
       </c>
-      <c r="IT6" s="11">
+      <c r="IT6" s="5">
         <v>36425</v>
       </c>
-      <c r="IU6" s="12">
+      <c r="IU6" s="6">
         <v>37598</v>
       </c>
-      <c r="IV6" s="12">
+      <c r="IV6" s="6">
         <v>38052</v>
       </c>
-      <c r="IW6" s="12">
+      <c r="IW6" s="6">
         <v>37669</v>
       </c>
-      <c r="IX6" s="12">
+      <c r="IX6" s="6">
         <v>35191</v>
       </c>
-      <c r="IY6" s="12">
+      <c r="IY6" s="6">
         <v>35074</v>
       </c>
-      <c r="IZ6" s="12">
+      <c r="IZ6" s="6">
         <v>37060</v>
       </c>
-      <c r="JA6" s="12">
+      <c r="JA6" s="6">
         <v>38769</v>
       </c>
-      <c r="JB6" s="32">
+      <c r="JB6" s="6">
         <v>39057</v>
       </c>
+      <c r="JC6" s="7">
+        <v>38893</v>
+      </c>
     </row>
-    <row r="7" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4627,11 +4629,14 @@
       <c r="JA7" s="6">
         <v>57720</v>
       </c>
-      <c r="JB7" s="7">
+      <c r="JB7" s="6">
         <v>58180</v>
       </c>
+      <c r="JC7" s="7">
+        <v>58621</v>
+      </c>
     </row>
-    <row r="8" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5415,11 +5420,14 @@
       <c r="JA8" s="6">
         <v>68129</v>
       </c>
-      <c r="JB8" s="7">
+      <c r="JB8" s="6">
         <v>68587</v>
       </c>
+      <c r="JC8" s="7">
+        <v>68876</v>
+      </c>
     </row>
-    <row r="9" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6203,11 +6211,14 @@
       <c r="JA9" s="6">
         <v>1416144</v>
       </c>
-      <c r="JB9" s="7">
+      <c r="JB9" s="6">
         <v>1422648</v>
       </c>
+      <c r="JC9" s="7">
+        <v>1429703</v>
+      </c>
     </row>
-    <row r="10" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6991,11 +7002,14 @@
       <c r="JA10" s="6">
         <v>52280</v>
       </c>
-      <c r="JB10" s="7">
+      <c r="JB10" s="6">
         <v>52688</v>
       </c>
+      <c r="JC10" s="7">
+        <v>52732</v>
+      </c>
     </row>
-    <row r="11" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7779,11 +7793,14 @@
       <c r="JA11" s="6">
         <v>72873</v>
       </c>
-      <c r="JB11" s="7">
+      <c r="JB11" s="6">
         <v>72651</v>
       </c>
+      <c r="JC11" s="7">
+        <v>72584</v>
+      </c>
     </row>
-    <row r="12" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8567,11 +8584,14 @@
       <c r="JA12" s="6">
         <v>9133</v>
       </c>
-      <c r="JB12" s="7">
+      <c r="JB12" s="6">
         <v>8934</v>
       </c>
+      <c r="JC12" s="7">
+        <v>8891</v>
+      </c>
     </row>
-    <row r="13" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9355,11 +9375,14 @@
       <c r="JA13" s="6">
         <v>21181</v>
       </c>
-      <c r="JB13" s="7">
+      <c r="JB13" s="6">
         <v>23393</v>
       </c>
+      <c r="JC13" s="7">
+        <v>24052</v>
+      </c>
     </row>
-    <row r="14" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10143,11 +10166,14 @@
       <c r="JA14" s="6">
         <v>2686</v>
       </c>
-      <c r="JB14" s="7">
+      <c r="JB14" s="6">
         <v>2725</v>
       </c>
+      <c r="JC14" s="7">
+        <v>2783</v>
+      </c>
     </row>
-    <row r="15" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10931,11 +10957,14 @@
       <c r="JA15" s="6">
         <v>21490</v>
       </c>
-      <c r="JB15" s="7">
+      <c r="JB15" s="6">
         <v>21161</v>
       </c>
+      <c r="JC15" s="7">
+        <v>21480</v>
+      </c>
     </row>
-    <row r="16" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11719,11 +11748,14 @@
       <c r="JA16" s="6">
         <v>62055</v>
       </c>
-      <c r="JB16" s="7">
+      <c r="JB16" s="6">
         <v>61817</v>
       </c>
+      <c r="JC16" s="7">
+        <v>63132</v>
+      </c>
     </row>
-    <row r="17" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12483,35 +12515,38 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="33">
+      <c r="IT17" s="29">
         <v>16027</v>
       </c>
-      <c r="IU17" s="34">
+      <c r="IU17" s="30">
         <v>15973</v>
       </c>
-      <c r="IV17" s="34">
+      <c r="IV17" s="30">
         <v>16116</v>
       </c>
-      <c r="IW17" s="34">
+      <c r="IW17" s="30">
         <v>16208</v>
       </c>
-      <c r="IX17" s="34">
+      <c r="IX17" s="30">
         <v>15851</v>
       </c>
-      <c r="IY17" s="34">
+      <c r="IY17" s="30">
         <v>14800</v>
       </c>
-      <c r="IZ17" s="34">
+      <c r="IZ17" s="30">
         <v>15191</v>
       </c>
-      <c r="JA17" s="34">
+      <c r="JA17" s="30">
         <v>15515</v>
       </c>
-      <c r="JB17" s="35">
+      <c r="JB17" s="30">
         <v>15890</v>
       </c>
+      <c r="JC17" s="31">
+        <v>16488</v>
+      </c>
     </row>
-    <row r="18" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13271,38 +13306,42 @@
       <c r="IS18" s="19">
         <v>1780367</v>
       </c>
-      <c r="IT18" s="18">
+      <c r="IT18" s="34">
         <v>1787122</v>
       </c>
-      <c r="IU18" s="19">
+      <c r="IU18" s="35">
         <v>1800733</v>
       </c>
-      <c r="IV18" s="19">
+      <c r="IV18" s="35">
         <v>1803619</v>
       </c>
-      <c r="IW18" s="19">
+      <c r="IW18" s="35">
         <v>1810884</v>
       </c>
-      <c r="IX18" s="19">
+      <c r="IX18" s="35">
         <v>1815607</v>
       </c>
-      <c r="IY18" s="19">
+      <c r="IY18" s="35">
         <f>SUM(IY6:IY17)</f>
         <v>1820785</v>
       </c>
-      <c r="IZ18" s="19">
+      <c r="IZ18" s="35">
         <f>SUM(IZ6:IZ17)</f>
         <v>1826575</v>
       </c>
-      <c r="JA18" s="19">
+      <c r="JA18" s="35">
         <v>1837975</v>
       </c>
-      <c r="JB18" s="20">
+      <c r="JB18" s="35">
         <f>SUM(JB6:JB17)</f>
         <v>1847731</v>
       </c>
+      <c r="JC18" s="36">
+        <f>SUM(JC6:JC17)</f>
+        <v>1858235</v>
+      </c>
     </row>
-    <row r="19" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13556,7 +13595,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -840,12 +840,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -857,6 +851,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1203,11 +1203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JC20"/>
+  <dimension ref="A1:JD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JA27" sqref="JA27"/>
+      <selection pane="topRight" activeCell="JF24" sqref="JF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,21 +1461,21 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="263" width="12.42578125" customWidth="1"/>
+    <col min="253" max="264" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
@@ -2261,12 +2261,15 @@
       <c r="JB4" s="3">
         <v>2021</v>
       </c>
-      <c r="JC4" s="25">
+      <c r="JC4" s="3">
         <v>2021</v>
       </c>
+      <c r="JD4" s="25">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -3023,38 +3026,41 @@
       <c r="IS5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="IT5" s="37" t="s">
+      <c r="IT5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="IU5" s="38" t="s">
+      <c r="IU5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="IV5" s="38" t="s">
+      <c r="IV5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="IW5" s="38" t="s">
+      <c r="IW5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="IX5" s="38" t="s">
+      <c r="IX5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="IY5" s="38" t="s">
+      <c r="IY5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="IZ5" s="38" t="s">
+      <c r="IZ5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="JA5" s="38" t="s">
+      <c r="JA5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="JB5" s="38" t="s">
+      <c r="JB5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="JC5" s="39" t="s">
+      <c r="JC5" s="36" t="s">
         <v>25</v>
       </c>
+      <c r="JD5" s="37" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3841,11 +3847,14 @@
       <c r="JB6" s="6">
         <v>39057</v>
       </c>
-      <c r="JC6" s="7">
+      <c r="JC6" s="6">
         <v>38893</v>
       </c>
+      <c r="JD6" s="7">
+        <v>39286</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4632,11 +4641,14 @@
       <c r="JB7" s="6">
         <v>58180</v>
       </c>
-      <c r="JC7" s="7">
+      <c r="JC7" s="6">
         <v>58621</v>
       </c>
+      <c r="JD7" s="7">
+        <v>58527</v>
+      </c>
     </row>
-    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5423,11 +5435,14 @@
       <c r="JB8" s="6">
         <v>68587</v>
       </c>
-      <c r="JC8" s="7">
+      <c r="JC8" s="6">
         <v>68876</v>
       </c>
+      <c r="JD8" s="7">
+        <v>69395</v>
+      </c>
     </row>
-    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6214,11 +6229,14 @@
       <c r="JB9" s="6">
         <v>1422648</v>
       </c>
-      <c r="JC9" s="7">
+      <c r="JC9" s="6">
         <v>1429703</v>
       </c>
+      <c r="JD9" s="7">
+        <v>1440345</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -7005,11 +7023,14 @@
       <c r="JB10" s="6">
         <v>52688</v>
       </c>
-      <c r="JC10" s="7">
+      <c r="JC10" s="6">
         <v>52732</v>
       </c>
+      <c r="JD10" s="7">
+        <v>53294</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7796,11 +7817,14 @@
       <c r="JB11" s="6">
         <v>72651</v>
       </c>
-      <c r="JC11" s="7">
+      <c r="JC11" s="6">
         <v>72584</v>
       </c>
+      <c r="JD11" s="7">
+        <v>73547</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8587,11 +8611,14 @@
       <c r="JB12" s="6">
         <v>8934</v>
       </c>
-      <c r="JC12" s="7">
+      <c r="JC12" s="6">
         <v>8891</v>
       </c>
+      <c r="JD12" s="7">
+        <v>64167</v>
+      </c>
     </row>
-    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9378,11 +9405,14 @@
       <c r="JB13" s="6">
         <v>23393</v>
       </c>
-      <c r="JC13" s="7">
+      <c r="JC13" s="6">
         <v>24052</v>
       </c>
+      <c r="JD13" s="7">
+        <v>24717</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10169,11 +10199,14 @@
       <c r="JB14" s="6">
         <v>2725</v>
       </c>
-      <c r="JC14" s="7">
+      <c r="JC14" s="6">
         <v>2783</v>
       </c>
+      <c r="JD14" s="7">
+        <v>2759</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10960,11 +10993,14 @@
       <c r="JB15" s="6">
         <v>21161</v>
       </c>
-      <c r="JC15" s="7">
+      <c r="JC15" s="6">
         <v>21480</v>
       </c>
+      <c r="JD15" s="7">
+        <v>21432</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11751,11 +11787,14 @@
       <c r="JB16" s="6">
         <v>61817</v>
       </c>
-      <c r="JC16" s="7">
+      <c r="JC16" s="6">
         <v>63132</v>
       </c>
+      <c r="JD16" s="7">
+        <v>9065</v>
+      </c>
     </row>
-    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12542,11 +12581,14 @@
       <c r="JB17" s="30">
         <v>15890</v>
       </c>
-      <c r="JC17" s="31">
+      <c r="JC17" s="30">
         <v>16488</v>
       </c>
+      <c r="JD17" s="31">
+        <v>16942</v>
+      </c>
     </row>
-    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13306,42 +13348,45 @@
       <c r="IS18" s="19">
         <v>1780367</v>
       </c>
-      <c r="IT18" s="34">
+      <c r="IT18" s="32">
         <v>1787122</v>
       </c>
-      <c r="IU18" s="35">
+      <c r="IU18" s="33">
         <v>1800733</v>
       </c>
-      <c r="IV18" s="35">
+      <c r="IV18" s="33">
         <v>1803619</v>
       </c>
-      <c r="IW18" s="35">
+      <c r="IW18" s="33">
         <v>1810884</v>
       </c>
-      <c r="IX18" s="35">
+      <c r="IX18" s="33">
         <v>1815607</v>
       </c>
-      <c r="IY18" s="35">
+      <c r="IY18" s="33">
         <f>SUM(IY6:IY17)</f>
         <v>1820785</v>
       </c>
-      <c r="IZ18" s="35">
+      <c r="IZ18" s="33">
         <f>SUM(IZ6:IZ17)</f>
         <v>1826575</v>
       </c>
-      <c r="JA18" s="35">
+      <c r="JA18" s="33">
         <v>1837975</v>
       </c>
-      <c r="JB18" s="35">
+      <c r="JB18" s="33">
         <f>SUM(JB6:JB17)</f>
         <v>1847731</v>
       </c>
-      <c r="JC18" s="36">
-        <f>SUM(JC6:JC17)</f>
+      <c r="JC18" s="33">
         <v>1858235</v>
       </c>
+      <c r="JD18" s="34">
+        <f>SUM(JD6:JD17)</f>
+        <v>1873476</v>
+      </c>
     </row>
-    <row r="19" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13595,7 +13640,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D5328C-CE26-47AA-8DB4-EF066FC017EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,6 +993,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1027,6 +1045,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1202,12 +1237,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JD20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JF24" sqref="JF24"/>
+      <pane xSplit="1" topLeftCell="IT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JF13" sqref="JF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,17 +1499,17 @@
     <col min="253" max="264" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
@@ -2268,7 +2303,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>16</v>
@@ -3060,7 +3095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3889,7 @@
         <v>39286</v>
       </c>
     </row>
-    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4683,7 @@
         <v>58527</v>
       </c>
     </row>
-    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5442,7 +5477,7 @@
         <v>69395</v>
       </c>
     </row>
-    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6236,7 +6271,7 @@
         <v>1440345</v>
       </c>
     </row>
-    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -7030,7 +7065,7 @@
         <v>53294</v>
       </c>
     </row>
-    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7824,7 +7859,7 @@
         <v>73547</v>
       </c>
     </row>
-    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8615,10 +8650,11 @@
         <v>8891</v>
       </c>
       <c r="JD12" s="7">
-        <v>64167</v>
-      </c>
+        <v>9065</v>
+      </c>
+      <c r="JE12" s="7"/>
     </row>
-    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9411,8 +9447,9 @@
       <c r="JD13" s="7">
         <v>24717</v>
       </c>
+      <c r="JE13" s="7"/>
     </row>
-    <row r="14" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10206,7 +10243,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="15" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -11000,7 +11037,7 @@
         <v>21432</v>
       </c>
     </row>
-    <row r="16" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11791,7 +11828,7 @@
         <v>63132</v>
       </c>
       <c r="JD16" s="7">
-        <v>9065</v>
+        <v>64167</v>
       </c>
     </row>
     <row r="17" spans="1:264" x14ac:dyDescent="0.25">

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
   <si>
     <t xml:space="preserve"> Valles</t>
   </si>
@@ -1203,11 +1203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JD20"/>
+  <dimension ref="A1:JE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JF24" sqref="JF24"/>
+      <selection pane="topRight" activeCell="JI21" sqref="JI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,20 +1461,20 @@
     <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="264" width="12.42578125" customWidth="1"/>
+    <col min="253" max="265" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>13</v>
       </c>
@@ -2264,11 +2264,14 @@
       <c r="JC4" s="3">
         <v>2021</v>
       </c>
-      <c r="JD4" s="25">
+      <c r="JD4" s="3">
         <v>2021</v>
       </c>
+      <c r="JE4" s="25">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>16</v>
@@ -3056,11 +3059,14 @@
       <c r="JC5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="JD5" s="37" t="s">
+      <c r="JD5" s="36" t="s">
         <v>26</v>
       </c>
+      <c r="JE5" s="37" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3850,11 +3856,14 @@
       <c r="JC6" s="6">
         <v>38893</v>
       </c>
-      <c r="JD6" s="7">
+      <c r="JD6" s="6">
         <v>39286</v>
       </c>
+      <c r="JE6" s="7">
+        <v>40625</v>
+      </c>
     </row>
-    <row r="7" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -4644,11 +4653,14 @@
       <c r="JC7" s="6">
         <v>58621</v>
       </c>
-      <c r="JD7" s="7">
+      <c r="JD7" s="6">
         <v>58527</v>
       </c>
+      <c r="JE7" s="7">
+        <v>57802</v>
+      </c>
     </row>
-    <row r="8" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5438,11 +5450,14 @@
       <c r="JC8" s="6">
         <v>68876</v>
       </c>
-      <c r="JD8" s="7">
+      <c r="JD8" s="6">
         <v>69395</v>
       </c>
+      <c r="JE8" s="7">
+        <v>68691</v>
+      </c>
     </row>
-    <row r="9" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6232,11 +6247,14 @@
       <c r="JC9" s="6">
         <v>1429703</v>
       </c>
-      <c r="JD9" s="7">
+      <c r="JD9" s="6">
         <v>1440345</v>
       </c>
+      <c r="JE9" s="7">
+        <v>1421829</v>
+      </c>
     </row>
-    <row r="10" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -7026,11 +7044,14 @@
       <c r="JC10" s="6">
         <v>52732</v>
       </c>
-      <c r="JD10" s="7">
+      <c r="JD10" s="6">
         <v>53294</v>
       </c>
+      <c r="JE10" s="7">
+        <v>53318</v>
+      </c>
     </row>
-    <row r="11" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7820,11 +7841,14 @@
       <c r="JC11" s="6">
         <v>72584</v>
       </c>
-      <c r="JD11" s="7">
+      <c r="JD11" s="6">
         <v>73547</v>
       </c>
+      <c r="JE11" s="7">
+        <v>72383</v>
+      </c>
     </row>
-    <row r="12" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8614,11 +8638,14 @@
       <c r="JC12" s="6">
         <v>8891</v>
       </c>
-      <c r="JD12" s="7">
-        <v>64167</v>
+      <c r="JD12" s="6">
+        <v>9065</v>
+      </c>
+      <c r="JE12" s="7">
+        <v>9238</v>
       </c>
     </row>
-    <row r="13" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -9408,11 +9435,14 @@
       <c r="JC13" s="6">
         <v>24052</v>
       </c>
-      <c r="JD13" s="7">
+      <c r="JD13" s="6">
         <v>24717</v>
       </c>
+      <c r="JE13" s="7">
+        <v>24854</v>
+      </c>
     </row>
-    <row r="14" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -10202,11 +10232,14 @@
       <c r="JC14" s="6">
         <v>2783</v>
       </c>
-      <c r="JD14" s="7">
+      <c r="JD14" s="6">
         <v>2759</v>
       </c>
+      <c r="JE14" s="7">
+        <v>2779</v>
+      </c>
     </row>
-    <row r="15" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -10996,11 +11029,14 @@
       <c r="JC15" s="6">
         <v>21480</v>
       </c>
-      <c r="JD15" s="7">
+      <c r="JD15" s="6">
         <v>21432</v>
       </c>
+      <c r="JE15" s="7">
+        <v>20254</v>
+      </c>
     </row>
-    <row r="16" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -11790,11 +11826,14 @@
       <c r="JC16" s="6">
         <v>63132</v>
       </c>
-      <c r="JD16" s="7">
-        <v>9065</v>
+      <c r="JD16" s="6">
+        <v>64167</v>
+      </c>
+      <c r="JE16" s="7">
+        <v>61458</v>
       </c>
     </row>
-    <row r="17" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -12584,11 +12623,14 @@
       <c r="JC17" s="30">
         <v>16488</v>
       </c>
-      <c r="JD17" s="31">
+      <c r="JD17" s="30">
         <v>16942</v>
       </c>
+      <c r="JE17" s="31">
+        <v>16768</v>
+      </c>
     </row>
-    <row r="18" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -13381,12 +13423,16 @@
       <c r="JC18" s="33">
         <v>1858235</v>
       </c>
-      <c r="JD18" s="34">
+      <c r="JD18" s="33">
         <f>SUM(JD6:JD17)</f>
         <v>1873476</v>
       </c>
+      <c r="JE18" s="34">
+        <f>SUM(JE6:JE17)</f>
+        <v>1849999</v>
+      </c>
     </row>
-    <row r="19" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13640,7 +13686,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
-  <si>
-    <t xml:space="preserve"> Valles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -125,7 +122,10 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>2000-2021</t>
+    <t>Valles</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -732,6 +732,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -777,7 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +867,15 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,16 +1227,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE20"/>
+  <dimension ref="A1:JF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI21" sqref="JI21"/>
+      <selection pane="topRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -1464,19 +1488,19 @@
     <col min="253" max="265" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>13</v>
+    <row r="4" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>2000</v>
@@ -2270,805 +2294,811 @@
       <c r="JE4" s="25">
         <v>2021</v>
       </c>
+      <c r="JF4" s="38">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
       <c r="B5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="L5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="M5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="N5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="BP5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BZ5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="CE5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="CG5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="CK5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="CL5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="CM5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="CU5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="CW5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="CY5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="CZ5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="DC5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="DD5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="DE5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="DG5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="DH5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="DI5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="DJ5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="DK5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="DL5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="DM5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="DN5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="DO5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="DP5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="DQ5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="DR5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="DU5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="DV5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="DW5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="DX5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="DY5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="DZ5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="EA5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="EB5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="EC5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="ED5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="EE5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="EF5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="EG5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="EH5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="EI5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="EJ5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="EK5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="EL5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="EM5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="EN5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="EO5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="EP5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="EQ5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="ER5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="ES5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="ET5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="EU5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="EV5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="EW5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="EX5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="EY5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="EZ5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="FA5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="FB5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="FC5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="FD5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="FE5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="FF5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="FG5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="FH5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="FI5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="FJ5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="FK5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="FL5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="FM5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="FN5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="FO5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="FP5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="FQ5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="FR5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="FS5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="FT5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="FU5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="FV5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="FW5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="FX5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="FY5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="FZ5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="GA5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="GB5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="GC5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="GD5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="GE5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="GF5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="GG5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="GH5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="GI5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="GJ5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="GK5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="GL5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="GM5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="GN5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="GO5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="GP5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="GQ5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="GR5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="GS5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="GT5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="GU5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="GV5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="GW5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="GX5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="GY5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="GZ5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="HB5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="HC5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="HD5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="HE5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="HF5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="HG5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="HH5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="HI5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="HJ5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="HK5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="HL5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="HM5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="HN5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="HO5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="HP5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="HQ5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="HR5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="HS5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="HT5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="HU5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="HV5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="HW5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="HX5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="HY5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="HZ5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="IA5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="IB5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="IC5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="ID5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="IE5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="IF5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="IG5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="IH5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="II5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="IJ5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="IK5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="IL5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="IM5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="IN5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="IO5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="IP5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="IQ5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="IR5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="IS5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="IT5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="IU5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="IV5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="IW5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="IX5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="IY5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="IZ5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="JA5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="JB5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="JC5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="JD5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="JE5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="JF5" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="BI5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BJ5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="BN5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="BO5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="BT5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BV5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="BW5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="BX5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="BY5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="BZ5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="CA5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="CC5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="CD5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="CE5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="CF5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="CH5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="CI5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="CJ5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="CK5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="CL5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="CM5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="CN5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="CO5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="CP5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="CQ5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="CR5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="CS5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="CT5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="CU5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="CV5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="CW5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="CX5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="CY5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="CZ5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="DA5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="DB5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="DC5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="DD5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="DE5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="DF5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="DG5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="DH5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="DI5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="DJ5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="DK5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="DL5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="DM5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="DO5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="DP5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="DQ5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="DR5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="DS5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="DT5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="DU5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="DV5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="DW5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="DX5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="DY5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="DZ5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="EA5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="EB5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="EC5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="ED5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="EE5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="EF5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="EG5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="EH5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="EI5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="EJ5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="EK5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="EL5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="EM5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="EN5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="EO5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="EP5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="EQ5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="ER5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="ES5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="ET5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="EU5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="EV5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="EW5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="EX5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="EY5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="EZ5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="FA5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="FB5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="FC5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="FD5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="FE5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="FF5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="FG5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="FH5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="FI5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="FJ5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="FK5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="FL5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="FM5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="FN5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="FO5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="FP5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="FQ5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="FR5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="FS5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="FT5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="FU5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="FV5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="FW5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="FX5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="FY5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="FZ5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="GA5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="GB5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="GC5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="GD5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="GE5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="GF5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="GG5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="GH5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="GI5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="GJ5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="GK5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="GL5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="GM5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="GN5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="GO5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="GP5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="GQ5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="GR5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="GS5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="GT5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="GU5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="GV5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="GW5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="GX5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="GY5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="GZ5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="HA5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="HB5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="HC5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="HD5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="HE5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="HF5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="HG5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="HH5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="HI5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="HJ5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="HK5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="HL5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="HM5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="HN5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="HO5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="HP5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="HQ5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="HR5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="HS5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="HT5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="HU5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="HV5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="HW5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="HX5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="HY5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="HZ5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="IA5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="IB5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="IC5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="ID5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="IE5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="IF5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="IG5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="IH5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="II5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="IJ5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="IK5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="IL5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="IM5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="IN5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="IO5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="IP5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="IQ5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="IR5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="IS5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="IT5" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="IU5" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="IV5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="IW5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="IX5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="IY5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="IZ5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="JA5" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="JB5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="JC5" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="JD5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="JE5" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B6" s="5">
         <v>24217</v>
@@ -3862,10 +3892,13 @@
       <c r="JE6" s="7">
         <v>40625</v>
       </c>
+      <c r="JF6" s="40">
+        <v>42664</v>
+      </c>
     </row>
-    <row r="7" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5">
         <v>25180</v>
@@ -4659,10 +4692,13 @@
       <c r="JE7" s="7">
         <v>57802</v>
       </c>
+      <c r="JF7" s="40">
+        <v>58780</v>
+      </c>
     </row>
-    <row r="8" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
         <v>31076</v>
@@ -5456,10 +5492,13 @@
       <c r="JE8" s="7">
         <v>68691</v>
       </c>
+      <c r="JF8" s="40">
+        <v>68685</v>
+      </c>
     </row>
-    <row r="9" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
         <v>783804</v>
@@ -6253,10 +6292,13 @@
       <c r="JE9" s="7">
         <v>1421829</v>
       </c>
+      <c r="JF9" s="40">
+        <v>1426939</v>
+      </c>
     </row>
-    <row r="10" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5">
         <v>26943</v>
@@ -7050,10 +7092,13 @@
       <c r="JE10" s="7">
         <v>53318</v>
       </c>
+      <c r="JF10" s="40">
+        <v>53514</v>
+      </c>
     </row>
-    <row r="11" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5">
         <v>38481</v>
@@ -7847,10 +7892,13 @@
       <c r="JE11" s="7">
         <v>72383</v>
       </c>
+      <c r="JF11" s="40">
+        <v>72786</v>
+      </c>
     </row>
-    <row r="12" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5">
         <v>7522</v>
@@ -8644,10 +8692,13 @@
       <c r="JE12" s="7">
         <v>9238</v>
       </c>
+      <c r="JF12" s="40">
+        <v>9104</v>
+      </c>
     </row>
-    <row r="13" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5">
         <v>8816</v>
@@ -9441,10 +9492,13 @@
       <c r="JE13" s="7">
         <v>24854</v>
       </c>
+      <c r="JF13" s="40">
+        <v>25688</v>
+      </c>
     </row>
-    <row r="14" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5">
         <v>1180</v>
@@ -10238,10 +10292,13 @@
       <c r="JE14" s="7">
         <v>2779</v>
       </c>
+      <c r="JF14" s="40">
+        <v>2788</v>
+      </c>
     </row>
-    <row r="15" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5">
         <v>9677</v>
@@ -11035,10 +11092,13 @@
       <c r="JE15" s="7">
         <v>20254</v>
       </c>
+      <c r="JF15" s="40">
+        <v>20528</v>
+      </c>
     </row>
-    <row r="16" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5">
         <v>24199</v>
@@ -11832,10 +11892,13 @@
       <c r="JE16" s="7">
         <v>61458</v>
       </c>
+      <c r="JF16" s="40">
+        <v>62771</v>
+      </c>
     </row>
-    <row r="17" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="5">
         <v>5714</v>
@@ -12629,10 +12692,13 @@
       <c r="JE17" s="31">
         <v>16768</v>
       </c>
+      <c r="JF17" s="41">
+        <v>16912</v>
+      </c>
     </row>
-    <row r="18" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="15">
         <v>986809</v>
@@ -13431,8 +13497,12 @@
         <f>SUM(JE6:JE17)</f>
         <v>1849999</v>
       </c>
+      <c r="JF18" s="42">
+        <f>SUM(JF6:JF17)</f>
+        <v>1861159</v>
+      </c>
     </row>
-    <row r="19" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13686,9 +13756,9 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -721,32 +721,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -792,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,34 +828,27 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1227,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JF20"/>
+  <dimension ref="A1:JG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K29" sqref="K29"/>
+      <selection pane="topRight" activeCell="JE25" sqref="JE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,18 +1455,18 @@
     <col min="253" max="265" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -2291,15 +2258,18 @@
       <c r="JD4" s="3">
         <v>2021</v>
       </c>
-      <c r="JE4" s="25">
+      <c r="JE4" s="3">
         <v>2021</v>
       </c>
-      <c r="JF4" s="38">
+      <c r="JF4" s="2">
         <v>2022</v>
       </c>
+      <c r="JG4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3056,47 +3026,50 @@
       <c r="IS5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="IT5" s="35" t="s">
+      <c r="IT5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="IU5" s="36" t="s">
+      <c r="IU5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="IV5" s="36" t="s">
+      <c r="IV5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="IW5" s="36" t="s">
+      <c r="IW5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="IX5" s="36" t="s">
+      <c r="IX5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="IY5" s="36" t="s">
+      <c r="IY5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="IZ5" s="36" t="s">
+      <c r="IZ5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="JA5" s="36" t="s">
+      <c r="JA5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="JB5" s="36" t="s">
+      <c r="JB5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="JC5" s="36" t="s">
+      <c r="JC5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="JD5" s="36" t="s">
+      <c r="JD5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="JE5" s="37" t="s">
+      <c r="JE5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="JF5" s="39" t="s">
+      <c r="JF5" s="37" t="s">
         <v>15</v>
       </c>
+      <c r="JG5" s="38" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3889,14 +3862,17 @@
       <c r="JD6" s="6">
         <v>39286</v>
       </c>
-      <c r="JE6" s="7">
+      <c r="JE6" s="6">
         <v>40625</v>
       </c>
-      <c r="JF6" s="40">
+      <c r="JF6" s="5">
         <v>42664</v>
       </c>
+      <c r="JG6" s="7">
+        <v>43938</v>
+      </c>
     </row>
-    <row r="7" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4689,14 +4665,17 @@
       <c r="JD7" s="6">
         <v>58527</v>
       </c>
-      <c r="JE7" s="7">
+      <c r="JE7" s="6">
         <v>57802</v>
       </c>
-      <c r="JF7" s="40">
+      <c r="JF7" s="5">
         <v>58780</v>
       </c>
+      <c r="JG7" s="7">
+        <v>58872</v>
+      </c>
     </row>
-    <row r="8" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5489,14 +5468,17 @@
       <c r="JD8" s="6">
         <v>69395</v>
       </c>
-      <c r="JE8" s="7">
+      <c r="JE8" s="6">
         <v>68691</v>
       </c>
-      <c r="JF8" s="40">
+      <c r="JF8" s="5">
         <v>68685</v>
       </c>
+      <c r="JG8" s="7">
+        <v>69229</v>
+      </c>
     </row>
-    <row r="9" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6289,14 +6271,17 @@
       <c r="JD9" s="6">
         <v>1440345</v>
       </c>
-      <c r="JE9" s="7">
+      <c r="JE9" s="6">
         <v>1421829</v>
       </c>
-      <c r="JF9" s="40">
+      <c r="JF9" s="5">
         <v>1426939</v>
       </c>
+      <c r="JG9" s="7">
+        <v>1436276</v>
+      </c>
     </row>
-    <row r="10" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7089,14 +7074,17 @@
       <c r="JD10" s="6">
         <v>53294</v>
       </c>
-      <c r="JE10" s="7">
+      <c r="JE10" s="6">
         <v>53318</v>
       </c>
-      <c r="JF10" s="40">
+      <c r="JF10" s="5">
         <v>53514</v>
       </c>
+      <c r="JG10" s="7">
+        <v>53810</v>
+      </c>
     </row>
-    <row r="11" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7889,14 +7877,17 @@
       <c r="JD11" s="6">
         <v>73547</v>
       </c>
-      <c r="JE11" s="7">
+      <c r="JE11" s="6">
         <v>72383</v>
       </c>
-      <c r="JF11" s="40">
+      <c r="JF11" s="5">
         <v>72786</v>
       </c>
+      <c r="JG11" s="7">
+        <v>73650</v>
+      </c>
     </row>
-    <row r="12" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8689,14 +8680,17 @@
       <c r="JD12" s="6">
         <v>9065</v>
       </c>
-      <c r="JE12" s="7">
+      <c r="JE12" s="6">
         <v>9238</v>
       </c>
-      <c r="JF12" s="40">
+      <c r="JF12" s="5">
         <v>9104</v>
       </c>
+      <c r="JG12" s="7">
+        <v>9136</v>
+      </c>
     </row>
-    <row r="13" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9489,14 +9483,17 @@
       <c r="JD13" s="6">
         <v>24717</v>
       </c>
-      <c r="JE13" s="7">
+      <c r="JE13" s="6">
         <v>24854</v>
       </c>
-      <c r="JF13" s="40">
+      <c r="JF13" s="5">
         <v>25688</v>
       </c>
+      <c r="JG13" s="7">
+        <v>25471</v>
+      </c>
     </row>
-    <row r="14" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10289,14 +10286,17 @@
       <c r="JD14" s="6">
         <v>2759</v>
       </c>
-      <c r="JE14" s="7">
+      <c r="JE14" s="6">
         <v>2779</v>
       </c>
-      <c r="JF14" s="40">
+      <c r="JF14" s="5">
         <v>2788</v>
       </c>
+      <c r="JG14" s="7">
+        <v>2870</v>
+      </c>
     </row>
-    <row r="15" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11089,14 +11089,17 @@
       <c r="JD15" s="6">
         <v>21432</v>
       </c>
-      <c r="JE15" s="7">
+      <c r="JE15" s="6">
         <v>20254</v>
       </c>
-      <c r="JF15" s="40">
+      <c r="JF15" s="5">
         <v>20528</v>
       </c>
+      <c r="JG15" s="7">
+        <v>20921</v>
+      </c>
     </row>
-    <row r="16" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11889,14 +11892,17 @@
       <c r="JD16" s="6">
         <v>64167</v>
       </c>
-      <c r="JE16" s="7">
+      <c r="JE16" s="6">
         <v>61458</v>
       </c>
-      <c r="JF16" s="40">
+      <c r="JF16" s="5">
         <v>62771</v>
       </c>
+      <c r="JG16" s="7">
+        <v>63564</v>
+      </c>
     </row>
-    <row r="17" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12689,14 +12695,17 @@
       <c r="JD17" s="30">
         <v>16942</v>
       </c>
-      <c r="JE17" s="31">
+      <c r="JE17" s="30">
         <v>16768</v>
       </c>
-      <c r="JF17" s="41">
+      <c r="JF17" s="5">
         <v>16912</v>
       </c>
+      <c r="JG17" s="7">
+        <v>16885</v>
+      </c>
     </row>
-    <row r="18" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13456,53 +13465,57 @@
       <c r="IS18" s="19">
         <v>1780367</v>
       </c>
-      <c r="IT18" s="32">
+      <c r="IT18" s="31">
         <v>1787122</v>
       </c>
-      <c r="IU18" s="33">
+      <c r="IU18" s="32">
         <v>1800733</v>
       </c>
-      <c r="IV18" s="33">
+      <c r="IV18" s="32">
         <v>1803619</v>
       </c>
-      <c r="IW18" s="33">
+      <c r="IW18" s="32">
         <v>1810884</v>
       </c>
-      <c r="IX18" s="33">
+      <c r="IX18" s="32">
         <v>1815607</v>
       </c>
-      <c r="IY18" s="33">
+      <c r="IY18" s="32">
         <f>SUM(IY6:IY17)</f>
         <v>1820785</v>
       </c>
-      <c r="IZ18" s="33">
+      <c r="IZ18" s="32">
         <f>SUM(IZ6:IZ17)</f>
         <v>1826575</v>
       </c>
-      <c r="JA18" s="33">
+      <c r="JA18" s="32">
         <v>1837975</v>
       </c>
-      <c r="JB18" s="33">
+      <c r="JB18" s="32">
         <f>SUM(JB6:JB17)</f>
         <v>1847731</v>
       </c>
-      <c r="JC18" s="33">
+      <c r="JC18" s="32">
         <v>1858235</v>
       </c>
-      <c r="JD18" s="33">
+      <c r="JD18" s="32">
         <f>SUM(JD6:JD17)</f>
         <v>1873476</v>
       </c>
-      <c r="JE18" s="34">
+      <c r="JE18" s="32">
         <f>SUM(JE6:JE17)</f>
         <v>1849999</v>
       </c>
-      <c r="JF18" s="42">
+      <c r="JF18" s="18">
         <f>SUM(JF6:JF17)</f>
         <v>1861159</v>
       </c>
+      <c r="JG18" s="39">
+        <f>SUM(JG6:JG17)</f>
+        <v>1874622</v>
+      </c>
     </row>
-    <row r="19" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13756,7 +13769,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -836,12 +836,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,6 +843,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1194,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG20"/>
+  <dimension ref="A1:JH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE25" sqref="JE25"/>
+      <pane xSplit="1" topLeftCell="IP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="IY24" sqref="IY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,18 +1455,18 @@
     <col min="253" max="265" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -2264,12 +2264,15 @@
       <c r="JF4" s="2">
         <v>2022</v>
       </c>
-      <c r="JG4" s="25">
+      <c r="JG4" s="3">
         <v>2022</v>
       </c>
+      <c r="JH4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3062,14 +3065,17 @@
       <c r="JE5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="JF5" s="37" t="s">
+      <c r="JF5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="JG5" s="38" t="s">
+      <c r="JG5" s="28" t="s">
         <v>16</v>
       </c>
+      <c r="JH5" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3868,11 +3874,14 @@
       <c r="JF6" s="5">
         <v>42664</v>
       </c>
-      <c r="JG6" s="7">
+      <c r="JG6" s="6">
         <v>43938</v>
       </c>
+      <c r="JH6" s="7">
+        <v>44643</v>
+      </c>
     </row>
-    <row r="7" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4671,11 +4680,14 @@
       <c r="JF7" s="5">
         <v>58780</v>
       </c>
-      <c r="JG7" s="7">
+      <c r="JG7" s="6">
         <v>58872</v>
       </c>
+      <c r="JH7" s="7">
+        <v>59363</v>
+      </c>
     </row>
-    <row r="8" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5474,11 +5486,14 @@
       <c r="JF8" s="5">
         <v>68685</v>
       </c>
-      <c r="JG8" s="7">
+      <c r="JG8" s="6">
         <v>69229</v>
       </c>
+      <c r="JH8" s="7">
+        <v>69273</v>
+      </c>
     </row>
-    <row r="9" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6277,11 +6292,14 @@
       <c r="JF9" s="5">
         <v>1426939</v>
       </c>
-      <c r="JG9" s="7">
+      <c r="JG9" s="6">
         <v>1436276</v>
       </c>
+      <c r="JH9" s="7">
+        <v>1444702</v>
+      </c>
     </row>
-    <row r="10" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7080,11 +7098,14 @@
       <c r="JF10" s="5">
         <v>53514</v>
       </c>
-      <c r="JG10" s="7">
+      <c r="JG10" s="6">
         <v>53810</v>
       </c>
+      <c r="JH10" s="7">
+        <v>54027</v>
+      </c>
     </row>
-    <row r="11" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7883,11 +7904,14 @@
       <c r="JF11" s="5">
         <v>72786</v>
       </c>
-      <c r="JG11" s="7">
+      <c r="JG11" s="6">
         <v>73650</v>
       </c>
+      <c r="JH11" s="7">
+        <v>74827</v>
+      </c>
     </row>
-    <row r="12" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8686,11 +8710,14 @@
       <c r="JF12" s="5">
         <v>9104</v>
       </c>
-      <c r="JG12" s="7">
+      <c r="JG12" s="6">
         <v>9136</v>
       </c>
+      <c r="JH12" s="7">
+        <v>9123</v>
+      </c>
     </row>
-    <row r="13" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9489,11 +9516,14 @@
       <c r="JF13" s="5">
         <v>25688</v>
       </c>
-      <c r="JG13" s="7">
+      <c r="JG13" s="6">
         <v>25471</v>
       </c>
+      <c r="JH13" s="7">
+        <v>26734</v>
+      </c>
     </row>
-    <row r="14" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10292,11 +10322,14 @@
       <c r="JF14" s="5">
         <v>2788</v>
       </c>
-      <c r="JG14" s="7">
+      <c r="JG14" s="6">
         <v>2870</v>
       </c>
+      <c r="JH14" s="7">
+        <v>2877</v>
+      </c>
     </row>
-    <row r="15" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11095,11 +11128,14 @@
       <c r="JF15" s="5">
         <v>20528</v>
       </c>
-      <c r="JG15" s="7">
+      <c r="JG15" s="6">
         <v>20921</v>
       </c>
+      <c r="JH15" s="7">
+        <v>20895</v>
+      </c>
     </row>
-    <row r="16" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11898,11 +11934,14 @@
       <c r="JF16" s="5">
         <v>62771</v>
       </c>
-      <c r="JG16" s="7">
+      <c r="JG16" s="6">
         <v>63564</v>
       </c>
+      <c r="JH16" s="7">
+        <v>63562</v>
+      </c>
     </row>
-    <row r="17" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12701,11 +12740,14 @@
       <c r="JF17" s="5">
         <v>16912</v>
       </c>
-      <c r="JG17" s="7">
+      <c r="JG17" s="6">
         <v>16885</v>
       </c>
+      <c r="JH17" s="7">
+        <v>16750</v>
+      </c>
     </row>
-    <row r="18" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13510,12 +13552,15 @@
         <f>SUM(JF6:JF17)</f>
         <v>1861159</v>
       </c>
-      <c r="JG18" s="39">
-        <f>SUM(JG6:JG17)</f>
+      <c r="JG18" s="19">
         <v>1874622</v>
       </c>
+      <c r="JH18" s="37">
+        <f>SUM(JH6:JH17)</f>
+        <v>1886776</v>
+      </c>
     </row>
-    <row r="19" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13769,7 +13814,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1194,278 +1194,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH20"/>
+  <dimension ref="A1:JI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IY24" sqref="IY24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JH25" sqref="JH25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.125" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.375" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.375" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.125" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.375" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.125" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.125" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.375" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.125" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.375" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.125" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.375" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.125" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.375" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.125" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.375" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.125" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.375" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.125" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.375" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.125" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.375" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.125" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.375" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.125" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.375" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.125" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.375" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="265" width="12.42578125" customWidth="1"/>
+    <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
@@ -2267,11 +2267,14 @@
       <c r="JG4" s="3">
         <v>2022</v>
       </c>
-      <c r="JH4" s="25">
+      <c r="JH4" s="3">
         <v>2022</v>
       </c>
+      <c r="JI4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -3071,11 +3074,14 @@
       <c r="JG5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JH5" s="36" t="s">
+      <c r="JH5" s="28" t="s">
         <v>17</v>
       </c>
+      <c r="JI5" s="36" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3877,11 +3883,14 @@
       <c r="JG6" s="6">
         <v>43938</v>
       </c>
-      <c r="JH6" s="7">
+      <c r="JH6" s="6">
         <v>44643</v>
       </c>
+      <c r="JI6" s="7">
+        <v>44336</v>
+      </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4683,11 +4692,14 @@
       <c r="JG7" s="6">
         <v>58872</v>
       </c>
-      <c r="JH7" s="7">
+      <c r="JH7" s="6">
         <v>59363</v>
       </c>
+      <c r="JI7" s="7">
+        <v>59222</v>
+      </c>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5489,11 +5501,14 @@
       <c r="JG8" s="6">
         <v>69229</v>
       </c>
-      <c r="JH8" s="7">
+      <c r="JH8" s="6">
         <v>69273</v>
       </c>
+      <c r="JI8" s="7">
+        <v>69365</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6295,11 +6310,14 @@
       <c r="JG9" s="6">
         <v>1436276</v>
       </c>
-      <c r="JH9" s="7">
+      <c r="JH9" s="6">
         <v>1444702</v>
       </c>
+      <c r="JI9" s="7">
+        <v>1444588</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7101,11 +7119,14 @@
       <c r="JG10" s="6">
         <v>53810</v>
       </c>
-      <c r="JH10" s="7">
+      <c r="JH10" s="6">
         <v>54027</v>
       </c>
+      <c r="JI10" s="7">
+        <v>54137</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7907,11 +7928,14 @@
       <c r="JG11" s="6">
         <v>73650</v>
       </c>
-      <c r="JH11" s="7">
+      <c r="JH11" s="6">
         <v>74827</v>
       </c>
+      <c r="JI11" s="7">
+        <v>74915</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8713,11 +8737,14 @@
       <c r="JG12" s="6">
         <v>9136</v>
       </c>
-      <c r="JH12" s="7">
+      <c r="JH12" s="6">
         <v>9123</v>
       </c>
+      <c r="JI12" s="7">
+        <v>8993</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9519,11 +9546,14 @@
       <c r="JG13" s="6">
         <v>25471</v>
       </c>
-      <c r="JH13" s="7">
+      <c r="JH13" s="6">
         <v>26734</v>
       </c>
+      <c r="JI13" s="7">
+        <v>25480</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10325,11 +10355,14 @@
       <c r="JG14" s="6">
         <v>2870</v>
       </c>
-      <c r="JH14" s="7">
+      <c r="JH14" s="6">
         <v>2877</v>
       </c>
+      <c r="JI14" s="7">
+        <v>3120</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11131,11 +11164,14 @@
       <c r="JG15" s="6">
         <v>20921</v>
       </c>
-      <c r="JH15" s="7">
+      <c r="JH15" s="6">
         <v>20895</v>
       </c>
+      <c r="JI15" s="7">
+        <v>21284</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11937,11 +11973,14 @@
       <c r="JG16" s="6">
         <v>63564</v>
       </c>
-      <c r="JH16" s="7">
+      <c r="JH16" s="6">
         <v>63562</v>
       </c>
+      <c r="JI16" s="7">
+        <v>62695</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12743,11 +12782,14 @@
       <c r="JG17" s="6">
         <v>16885</v>
       </c>
-      <c r="JH17" s="7">
+      <c r="JH17" s="6">
         <v>16750</v>
       </c>
+      <c r="JI17" s="7">
+        <v>16580</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13555,12 +13597,14 @@
       <c r="JG18" s="19">
         <v>1874622</v>
       </c>
-      <c r="JH18" s="37">
-        <f>SUM(JH6:JH17)</f>
+      <c r="JH18" s="19">
         <v>1886776</v>
       </c>
+      <c r="JI18" s="37">
+        <v>1884715</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13814,7 +13858,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1194,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI20"/>
+  <dimension ref="A1:JJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH25" sqref="JH25"/>
+      <selection pane="topRight" activeCell="JN19" sqref="JN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1455,17 +1455,17 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
@@ -2270,11 +2270,14 @@
       <c r="JH4" s="3">
         <v>2022</v>
       </c>
-      <c r="JI4" s="25">
+      <c r="JI4" s="3">
         <v>2022</v>
       </c>
+      <c r="JJ4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -3077,11 +3080,14 @@
       <c r="JH5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JI5" s="36" t="s">
+      <c r="JI5" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="JJ5" s="36" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3886,11 +3892,14 @@
       <c r="JH6" s="6">
         <v>44643</v>
       </c>
-      <c r="JI6" s="7">
+      <c r="JI6" s="6">
         <v>44336</v>
       </c>
+      <c r="JJ6" s="7">
+        <v>41246</v>
+      </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4695,11 +4704,14 @@
       <c r="JH7" s="6">
         <v>59363</v>
       </c>
-      <c r="JI7" s="7">
+      <c r="JI7" s="6">
         <v>59222</v>
       </c>
+      <c r="JJ7" s="7">
+        <v>59210</v>
+      </c>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5504,11 +5516,14 @@
       <c r="JH8" s="6">
         <v>69273</v>
       </c>
-      <c r="JI8" s="7">
+      <c r="JI8" s="6">
         <v>69365</v>
       </c>
+      <c r="JJ8" s="7">
+        <v>68933</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6313,11 +6328,14 @@
       <c r="JH9" s="6">
         <v>1444702</v>
       </c>
-      <c r="JI9" s="7">
+      <c r="JI9" s="6">
         <v>1444588</v>
       </c>
+      <c r="JJ9" s="7">
+        <v>1453348</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7122,11 +7140,14 @@
       <c r="JH10" s="6">
         <v>54027</v>
       </c>
-      <c r="JI10" s="7">
+      <c r="JI10" s="6">
         <v>54137</v>
       </c>
+      <c r="JJ10" s="7">
+        <v>54293</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7931,11 +7952,14 @@
       <c r="JH11" s="6">
         <v>74827</v>
       </c>
-      <c r="JI11" s="7">
+      <c r="JI11" s="6">
         <v>74915</v>
       </c>
+      <c r="JJ11" s="7">
+        <v>75589</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8740,11 +8764,14 @@
       <c r="JH12" s="6">
         <v>9123</v>
       </c>
-      <c r="JI12" s="7">
+      <c r="JI12" s="6">
         <v>8993</v>
       </c>
+      <c r="JJ12" s="7">
+        <v>8550</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9549,11 +9576,14 @@
       <c r="JH13" s="6">
         <v>26734</v>
       </c>
-      <c r="JI13" s="7">
+      <c r="JI13" s="6">
         <v>25480</v>
       </c>
+      <c r="JJ13" s="7">
+        <v>25702</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10358,11 +10388,14 @@
       <c r="JH14" s="6">
         <v>2877</v>
       </c>
-      <c r="JI14" s="7">
+      <c r="JI14" s="6">
         <v>3120</v>
       </c>
+      <c r="JJ14" s="7">
+        <v>3001</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11167,11 +11200,14 @@
       <c r="JH15" s="6">
         <v>20895</v>
       </c>
-      <c r="JI15" s="7">
+      <c r="JI15" s="6">
         <v>21284</v>
       </c>
+      <c r="JJ15" s="7">
+        <v>20488</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -11976,11 +12012,14 @@
       <c r="JH16" s="6">
         <v>63562</v>
       </c>
-      <c r="JI16" s="7">
+      <c r="JI16" s="6">
         <v>62695</v>
       </c>
+      <c r="JJ16" s="7">
+        <v>62129</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12785,11 +12824,14 @@
       <c r="JH17" s="6">
         <v>16750</v>
       </c>
-      <c r="JI17" s="7">
+      <c r="JI17" s="6">
         <v>16580</v>
       </c>
+      <c r="JJ17" s="7">
+        <v>15743</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13600,11 +13642,14 @@
       <c r="JH18" s="19">
         <v>1886776</v>
       </c>
-      <c r="JI18" s="37">
+      <c r="JI18" s="19">
         <v>1884715</v>
       </c>
+      <c r="JJ18" s="37">
+        <v>1888232</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13858,7 +13903,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1194,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ20"/>
+  <dimension ref="A1:JK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JN19" sqref="JN19"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1455,17 +1455,17 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
@@ -2273,11 +2273,14 @@
       <c r="JI4" s="3">
         <v>2022</v>
       </c>
-      <c r="JJ4" s="25">
+      <c r="JJ4" s="3">
         <v>2022</v>
       </c>
+      <c r="JK4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -3083,11 +3086,14 @@
       <c r="JI5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="JJ5" s="36" t="s">
+      <c r="JJ5" s="28" t="s">
         <v>19</v>
       </c>
+      <c r="JK5" s="36" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3895,11 +3901,14 @@
       <c r="JI6" s="6">
         <v>44336</v>
       </c>
-      <c r="JJ6" s="7">
+      <c r="JJ6" s="6">
         <v>41246</v>
       </c>
+      <c r="JK6" s="7">
+        <v>40822</v>
+      </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4707,11 +4716,14 @@
       <c r="JI7" s="6">
         <v>59222</v>
       </c>
-      <c r="JJ7" s="7">
+      <c r="JJ7" s="6">
         <v>59210</v>
       </c>
+      <c r="JK7" s="7">
+        <v>59404</v>
+      </c>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5519,11 +5531,14 @@
       <c r="JI8" s="6">
         <v>69365</v>
       </c>
-      <c r="JJ8" s="7">
+      <c r="JJ8" s="6">
         <v>68933</v>
       </c>
+      <c r="JK8" s="7">
+        <v>68556</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6331,11 +6346,14 @@
       <c r="JI9" s="6">
         <v>1444588</v>
       </c>
-      <c r="JJ9" s="7">
+      <c r="JJ9" s="6">
         <v>1453348</v>
       </c>
+      <c r="JK9" s="7">
+        <v>1462471</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7143,11 +7161,14 @@
       <c r="JI10" s="6">
         <v>54137</v>
       </c>
-      <c r="JJ10" s="7">
+      <c r="JJ10" s="6">
         <v>54293</v>
       </c>
+      <c r="JK10" s="7">
+        <v>54924</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7955,11 +7976,14 @@
       <c r="JI11" s="6">
         <v>74915</v>
       </c>
-      <c r="JJ11" s="7">
+      <c r="JJ11" s="6">
         <v>75589</v>
       </c>
+      <c r="JK11" s="7">
+        <v>76235</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8767,11 +8791,14 @@
       <c r="JI12" s="6">
         <v>8993</v>
       </c>
-      <c r="JJ12" s="7">
+      <c r="JJ12" s="6">
         <v>8550</v>
       </c>
+      <c r="JK12" s="7">
+        <v>8611</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9579,11 +9606,14 @@
       <c r="JI13" s="6">
         <v>25480</v>
       </c>
-      <c r="JJ13" s="7">
+      <c r="JJ13" s="6">
         <v>25702</v>
       </c>
+      <c r="JK13" s="7">
+        <v>24264</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10391,11 +10421,14 @@
       <c r="JI14" s="6">
         <v>3120</v>
       </c>
-      <c r="JJ14" s="7">
+      <c r="JJ14" s="6">
         <v>3001</v>
       </c>
+      <c r="JK14" s="7">
+        <v>3258</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11203,11 +11236,14 @@
       <c r="JI15" s="6">
         <v>21284</v>
       </c>
-      <c r="JJ15" s="7">
+      <c r="JJ15" s="6">
         <v>20488</v>
       </c>
+      <c r="JK15" s="7">
+        <v>21282</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -12015,11 +12051,14 @@
       <c r="JI16" s="6">
         <v>62695</v>
       </c>
-      <c r="JJ16" s="7">
+      <c r="JJ16" s="6">
         <v>62129</v>
       </c>
+      <c r="JK16" s="7">
+        <v>61543</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12827,11 +12866,14 @@
       <c r="JI17" s="6">
         <v>16580</v>
       </c>
-      <c r="JJ17" s="7">
+      <c r="JJ17" s="6">
         <v>15743</v>
       </c>
+      <c r="JK17" s="7">
+        <v>15385</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13645,11 +13687,14 @@
       <c r="JI18" s="19">
         <v>1884715</v>
       </c>
-      <c r="JJ18" s="37">
+      <c r="JJ18" s="19">
         <v>1888232</v>
       </c>
+      <c r="JK18" s="37">
+        <v>1896755</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13903,7 +13948,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -721,6 +721,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -766,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,9 +836,6 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,6 +862,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JK20"/>
+  <dimension ref="A1:JL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
+      <selection pane="topRight" activeCell="JF29" sqref="JF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1455,18 +1479,18 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -2261,27 +2285,30 @@
       <c r="JE4" s="3">
         <v>2021</v>
       </c>
-      <c r="JF4" s="2">
+      <c r="JF4" s="8">
         <v>2022</v>
       </c>
-      <c r="JG4" s="3">
+      <c r="JG4" s="13">
         <v>2022</v>
       </c>
-      <c r="JH4" s="3">
+      <c r="JH4" s="13">
         <v>2022</v>
       </c>
-      <c r="JI4" s="3">
+      <c r="JI4" s="13">
         <v>2022</v>
       </c>
-      <c r="JJ4" s="3">
+      <c r="JJ4" s="13">
         <v>2022</v>
       </c>
-      <c r="JK4" s="25">
+      <c r="JK4" s="13">
         <v>2022</v>
       </c>
+      <c r="JL4" s="37">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3002,16 +3029,16 @@
       <c r="IG5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="IH5" s="26" t="s">
+      <c r="IH5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="II5" s="27" t="s">
+      <c r="II5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="IJ5" s="27" t="s">
+      <c r="IJ5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="IK5" s="27" t="s">
+      <c r="IK5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="IL5" s="21" t="s">
@@ -3026,74 +3053,77 @@
       <c r="IO5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="IP5" s="28" t="s">
+      <c r="IP5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="IQ5" s="28" t="s">
+      <c r="IQ5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="IR5" s="28" t="s">
+      <c r="IR5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="IS5" s="28" t="s">
+      <c r="IS5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="IT5" s="33" t="s">
+      <c r="IT5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="IU5" s="34" t="s">
+      <c r="IU5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="IV5" s="34" t="s">
+      <c r="IV5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="IW5" s="34" t="s">
+      <c r="IW5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="IX5" s="34" t="s">
+      <c r="IX5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="IY5" s="34" t="s">
+      <c r="IY5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="IZ5" s="34" t="s">
+      <c r="IZ5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="JA5" s="34" t="s">
+      <c r="JA5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="JB5" s="34" t="s">
+      <c r="JB5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="JC5" s="34" t="s">
+      <c r="JC5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="JD5" s="34" t="s">
+      <c r="JD5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="JE5" s="34" t="s">
+      <c r="JE5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="JF5" s="35" t="s">
+      <c r="JF5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="JG5" s="28" t="s">
+      <c r="JG5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="JH5" s="28" t="s">
+      <c r="JH5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="JI5" s="28" t="s">
+      <c r="JI5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="JJ5" s="28" t="s">
+      <c r="JJ5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="JK5" s="36" t="s">
+      <c r="JK5" s="27" t="s">
         <v>20</v>
       </c>
+      <c r="JL5" s="35" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3889,26 +3919,29 @@
       <c r="JE6" s="6">
         <v>40625</v>
       </c>
-      <c r="JF6" s="5">
+      <c r="JF6" s="11">
         <v>42664</v>
       </c>
-      <c r="JG6" s="6">
+      <c r="JG6" s="12">
         <v>43938</v>
       </c>
-      <c r="JH6" s="6">
+      <c r="JH6" s="12">
         <v>44643</v>
       </c>
-      <c r="JI6" s="6">
+      <c r="JI6" s="12">
         <v>44336</v>
       </c>
-      <c r="JJ6" s="6">
+      <c r="JJ6" s="12">
         <v>41246</v>
       </c>
-      <c r="JK6" s="7">
+      <c r="JK6" s="12">
         <v>40822</v>
       </c>
+      <c r="JL6" s="38">
+        <v>39838</v>
+      </c>
     </row>
-    <row r="7" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4719,11 +4752,14 @@
       <c r="JJ7" s="6">
         <v>59210</v>
       </c>
-      <c r="JK7" s="7">
+      <c r="JK7" s="6">
         <v>59404</v>
       </c>
+      <c r="JL7" s="7">
+        <v>59621</v>
+      </c>
     </row>
-    <row r="8" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5534,11 +5570,14 @@
       <c r="JJ8" s="6">
         <v>68933</v>
       </c>
-      <c r="JK8" s="7">
+      <c r="JK8" s="6">
         <v>68556</v>
       </c>
+      <c r="JL8" s="7">
+        <v>68854</v>
+      </c>
     </row>
-    <row r="9" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6349,11 +6388,14 @@
       <c r="JJ9" s="6">
         <v>1453348</v>
       </c>
-      <c r="JK9" s="7">
+      <c r="JK9" s="6">
         <v>1462471</v>
       </c>
+      <c r="JL9" s="7">
+        <v>1464899</v>
+      </c>
     </row>
-    <row r="10" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7164,11 +7206,14 @@
       <c r="JJ10" s="6">
         <v>54293</v>
       </c>
-      <c r="JK10" s="7">
+      <c r="JK10" s="6">
         <v>54924</v>
       </c>
+      <c r="JL10" s="7">
+        <v>54567</v>
+      </c>
     </row>
-    <row r="11" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -7979,11 +8024,14 @@
       <c r="JJ11" s="6">
         <v>75589</v>
       </c>
-      <c r="JK11" s="7">
+      <c r="JK11" s="6">
         <v>76235</v>
       </c>
+      <c r="JL11" s="7">
+        <v>77287</v>
+      </c>
     </row>
-    <row r="12" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8794,11 +8842,14 @@
       <c r="JJ12" s="6">
         <v>8550</v>
       </c>
-      <c r="JK12" s="7">
+      <c r="JK12" s="6">
         <v>8611</v>
       </c>
+      <c r="JL12" s="7">
+        <v>8645</v>
+      </c>
     </row>
-    <row r="13" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9609,11 +9660,14 @@
       <c r="JJ13" s="6">
         <v>25702</v>
       </c>
-      <c r="JK13" s="7">
+      <c r="JK13" s="6">
         <v>24264</v>
       </c>
+      <c r="JL13" s="7">
+        <v>23660</v>
+      </c>
     </row>
-    <row r="14" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10424,11 +10478,14 @@
       <c r="JJ14" s="6">
         <v>3001</v>
       </c>
-      <c r="JK14" s="7">
+      <c r="JK14" s="6">
         <v>3258</v>
       </c>
+      <c r="JL14" s="7">
+        <v>2985</v>
+      </c>
     </row>
-    <row r="15" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11239,11 +11296,14 @@
       <c r="JJ15" s="6">
         <v>20488</v>
       </c>
-      <c r="JK15" s="7">
+      <c r="JK15" s="6">
         <v>21282</v>
       </c>
+      <c r="JL15" s="7">
+        <v>20445</v>
+      </c>
     </row>
-    <row r="16" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -12054,11 +12114,14 @@
       <c r="JJ16" s="6">
         <v>62129</v>
       </c>
-      <c r="JK16" s="7">
+      <c r="JK16" s="6">
         <v>61543</v>
       </c>
+      <c r="JL16" s="7">
+        <v>60392</v>
+      </c>
     </row>
-    <row r="17" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12818,62 +12881,65 @@
       <c r="IS17" s="6">
         <v>16389</v>
       </c>
-      <c r="IT17" s="29">
+      <c r="IT17" s="28">
         <v>16027</v>
       </c>
-      <c r="IU17" s="30">
+      <c r="IU17" s="29">
         <v>15973</v>
       </c>
-      <c r="IV17" s="30">
+      <c r="IV17" s="29">
         <v>16116</v>
       </c>
-      <c r="IW17" s="30">
+      <c r="IW17" s="29">
         <v>16208</v>
       </c>
-      <c r="IX17" s="30">
+      <c r="IX17" s="29">
         <v>15851</v>
       </c>
-      <c r="IY17" s="30">
+      <c r="IY17" s="29">
         <v>14800</v>
       </c>
-      <c r="IZ17" s="30">
+      <c r="IZ17" s="29">
         <v>15191</v>
       </c>
-      <c r="JA17" s="30">
+      <c r="JA17" s="29">
         <v>15515</v>
       </c>
-      <c r="JB17" s="30">
+      <c r="JB17" s="29">
         <v>15890</v>
       </c>
-      <c r="JC17" s="30">
+      <c r="JC17" s="29">
         <v>16488</v>
       </c>
-      <c r="JD17" s="30">
+      <c r="JD17" s="29">
         <v>16942</v>
       </c>
-      <c r="JE17" s="30">
+      <c r="JE17" s="29">
         <v>16768</v>
       </c>
-      <c r="JF17" s="5">
+      <c r="JF17" s="28">
         <v>16912</v>
       </c>
-      <c r="JG17" s="6">
+      <c r="JG17" s="29">
         <v>16885</v>
       </c>
-      <c r="JH17" s="6">
+      <c r="JH17" s="29">
         <v>16750</v>
       </c>
-      <c r="JI17" s="6">
+      <c r="JI17" s="29">
         <v>16580</v>
       </c>
-      <c r="JJ17" s="6">
+      <c r="JJ17" s="29">
         <v>15743</v>
       </c>
-      <c r="JK17" s="7">
+      <c r="JK17" s="29">
         <v>15385</v>
       </c>
+      <c r="JL17" s="39">
+        <v>15324</v>
+      </c>
     </row>
-    <row r="18" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13633,44 +13699,44 @@
       <c r="IS18" s="19">
         <v>1780367</v>
       </c>
-      <c r="IT18" s="31">
+      <c r="IT18" s="30">
         <v>1787122</v>
       </c>
-      <c r="IU18" s="32">
+      <c r="IU18" s="31">
         <v>1800733</v>
       </c>
-      <c r="IV18" s="32">
+      <c r="IV18" s="31">
         <v>1803619</v>
       </c>
-      <c r="IW18" s="32">
+      <c r="IW18" s="31">
         <v>1810884</v>
       </c>
-      <c r="IX18" s="32">
+      <c r="IX18" s="31">
         <v>1815607</v>
       </c>
-      <c r="IY18" s="32">
+      <c r="IY18" s="31">
         <f>SUM(IY6:IY17)</f>
         <v>1820785</v>
       </c>
-      <c r="IZ18" s="32">
+      <c r="IZ18" s="31">
         <f>SUM(IZ6:IZ17)</f>
         <v>1826575</v>
       </c>
-      <c r="JA18" s="32">
+      <c r="JA18" s="31">
         <v>1837975</v>
       </c>
-      <c r="JB18" s="32">
+      <c r="JB18" s="31">
         <f>SUM(JB6:JB17)</f>
         <v>1847731</v>
       </c>
-      <c r="JC18" s="32">
+      <c r="JC18" s="31">
         <v>1858235</v>
       </c>
-      <c r="JD18" s="32">
+      <c r="JD18" s="31">
         <f>SUM(JD6:JD17)</f>
         <v>1873476</v>
       </c>
-      <c r="JE18" s="32">
+      <c r="JE18" s="31">
         <f>SUM(JE6:JE17)</f>
         <v>1849999</v>
       </c>
@@ -13690,11 +13756,14 @@
       <c r="JJ18" s="19">
         <v>1888232</v>
       </c>
-      <c r="JK18" s="37">
+      <c r="JK18" s="19">
         <v>1896755</v>
       </c>
+      <c r="JL18" s="36">
+        <v>1896517</v>
+      </c>
     </row>
-    <row r="19" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -13948,7 +14017,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1218,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JL20"/>
+  <dimension ref="A1:JM20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JF29" sqref="JF29"/>
+      <selection pane="topRight" activeCell="JK24" sqref="JK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1479,17 +1479,17 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
@@ -2303,11 +2303,14 @@
       <c r="JK4" s="13">
         <v>2022</v>
       </c>
-      <c r="JL4" s="37">
+      <c r="JL4" s="13">
         <v>2022</v>
       </c>
+      <c r="JM4" s="37">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
@@ -3119,11 +3122,14 @@
       <c r="JK5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="JL5" s="35" t="s">
+      <c r="JL5" s="27" t="s">
         <v>21</v>
       </c>
+      <c r="JM5" s="35" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3937,11 +3943,14 @@
       <c r="JK6" s="12">
         <v>40822</v>
       </c>
-      <c r="JL6" s="38">
+      <c r="JL6" s="12">
         <v>39838</v>
       </c>
+      <c r="JM6" s="38">
+        <v>40904</v>
+      </c>
     </row>
-    <row r="7" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4755,11 +4764,14 @@
       <c r="JK7" s="6">
         <v>59404</v>
       </c>
-      <c r="JL7" s="7">
+      <c r="JL7" s="6">
         <v>59621</v>
       </c>
+      <c r="JM7" s="7">
+        <v>60162</v>
+      </c>
     </row>
-    <row r="8" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -5573,11 +5585,14 @@
       <c r="JK8" s="6">
         <v>68556</v>
       </c>
-      <c r="JL8" s="7">
+      <c r="JL8" s="6">
         <v>68854</v>
       </c>
+      <c r="JM8" s="7">
+        <v>68976</v>
+      </c>
     </row>
-    <row r="9" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -6391,11 +6406,14 @@
       <c r="JK9" s="6">
         <v>1462471</v>
       </c>
-      <c r="JL9" s="7">
+      <c r="JL9" s="6">
         <v>1464899</v>
       </c>
+      <c r="JM9" s="7">
+        <v>1472649</v>
+      </c>
     </row>
-    <row r="10" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -7209,11 +7227,14 @@
       <c r="JK10" s="6">
         <v>54924</v>
       </c>
-      <c r="JL10" s="7">
+      <c r="JL10" s="6">
         <v>54567</v>
       </c>
+      <c r="JM10" s="7">
+        <v>54716</v>
+      </c>
     </row>
-    <row r="11" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8027,11 +8048,14 @@
       <c r="JK11" s="6">
         <v>76235</v>
       </c>
-      <c r="JL11" s="7">
+      <c r="JL11" s="6">
         <v>77287</v>
       </c>
+      <c r="JM11" s="7">
+        <v>77751</v>
+      </c>
     </row>
-    <row r="12" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8845,11 +8869,14 @@
       <c r="JK12" s="6">
         <v>8611</v>
       </c>
-      <c r="JL12" s="7">
+      <c r="JL12" s="6">
         <v>8645</v>
       </c>
+      <c r="JM12" s="7">
+        <v>8675</v>
+      </c>
     </row>
-    <row r="13" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -9663,11 +9690,14 @@
       <c r="JK13" s="6">
         <v>24264</v>
       </c>
-      <c r="JL13" s="7">
+      <c r="JL13" s="6">
         <v>23660</v>
       </c>
+      <c r="JM13" s="7">
+        <v>24720</v>
+      </c>
     </row>
-    <row r="14" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -10481,11 +10511,14 @@
       <c r="JK14" s="6">
         <v>3258</v>
       </c>
-      <c r="JL14" s="7">
+      <c r="JL14" s="6">
         <v>2985</v>
       </c>
+      <c r="JM14" s="7">
+        <v>3179</v>
+      </c>
     </row>
-    <row r="15" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -11299,11 +11332,14 @@
       <c r="JK15" s="6">
         <v>21282</v>
       </c>
-      <c r="JL15" s="7">
+      <c r="JL15" s="6">
         <v>20445</v>
       </c>
+      <c r="JM15" s="7">
+        <v>20519</v>
+      </c>
     </row>
-    <row r="16" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -12117,11 +12153,14 @@
       <c r="JK16" s="6">
         <v>61543</v>
       </c>
-      <c r="JL16" s="7">
+      <c r="JL16" s="6">
         <v>60392</v>
       </c>
+      <c r="JM16" s="7">
+        <v>61990</v>
+      </c>
     </row>
-    <row r="17" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -12935,11 +12974,14 @@
       <c r="JK17" s="29">
         <v>15385</v>
       </c>
-      <c r="JL17" s="39">
+      <c r="JL17" s="29">
         <v>15324</v>
       </c>
+      <c r="JM17" s="39">
+        <v>16386</v>
+      </c>
     </row>
-    <row r="18" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
@@ -13759,11 +13801,14 @@
       <c r="JK18" s="19">
         <v>1896755</v>
       </c>
-      <c r="JL18" s="36">
+      <c r="JL18" s="19">
         <v>1896517</v>
       </c>
+      <c r="JM18" s="36">
+        <v>1910627</v>
+      </c>
     </row>
-    <row r="19" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -14017,7 +14062,7 @@
       <c r="IQ19" s="6"/>
       <c r="IR19" s="6"/>
     </row>
-    <row r="20" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -710,7 +715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -753,6 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -788,12 +794,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,8 +809,14 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -845,6 +851,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="42"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1154,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JN20"/>
+  <dimension ref="A1:JO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N24" sqref="N24"/>
+      <pane xSplit="1" topLeftCell="IX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1415,18 +1422,18 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2245,12 +2252,15 @@
       <c r="JM4" s="6">
         <v>2022</v>
       </c>
-      <c r="JN4" s="14">
+      <c r="JN4" s="6">
         <v>2022</v>
       </c>
+      <c r="JO4" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2284,7 +2294,7 @@
       <c r="L5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="9" t="s">
@@ -2320,7 +2330,7 @@
       <c r="X5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="9" t="s">
@@ -2356,7 +2366,7 @@
       <c r="AJ5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="23" t="s">
+      <c r="AK5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="AL5" s="9" t="s">
@@ -2392,7 +2402,7 @@
       <c r="AV5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="23" t="s">
+      <c r="AW5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="AX5" s="9" t="s">
@@ -2428,7 +2438,7 @@
       <c r="BH5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="23" t="s">
+      <c r="BI5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="BJ5" s="9" t="s">
@@ -2464,7 +2474,7 @@
       <c r="BT5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="23" t="s">
+      <c r="BU5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="BV5" s="9" t="s">
@@ -2500,7 +2510,7 @@
       <c r="CF5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="CG5" s="23" t="s">
+      <c r="CG5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="CH5" s="9" t="s">
@@ -2536,7 +2546,7 @@
       <c r="CR5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="CS5" s="23" t="s">
+      <c r="CS5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="CT5" s="9" t="s">
@@ -2572,7 +2582,7 @@
       <c r="DD5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="DE5" s="23" t="s">
+      <c r="DE5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="DF5" s="9" t="s">
@@ -2608,7 +2618,7 @@
       <c r="DP5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="DQ5" s="23" t="s">
+      <c r="DQ5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="DR5" s="9" t="s">
@@ -2644,7 +2654,7 @@
       <c r="EB5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="EC5" s="23" t="s">
+      <c r="EC5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="ED5" s="9" t="s">
@@ -2680,7 +2690,7 @@
       <c r="EN5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="EO5" s="23" t="s">
+      <c r="EO5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="EP5" s="9" t="s">
@@ -2716,7 +2726,7 @@
       <c r="EZ5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="FA5" s="23" t="s">
+      <c r="FA5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="FB5" s="9" t="s">
@@ -2752,7 +2762,7 @@
       <c r="FL5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="FM5" s="23" t="s">
+      <c r="FM5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="FN5" s="9" t="s">
@@ -2788,7 +2798,7 @@
       <c r="FX5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="FY5" s="23" t="s">
+      <c r="FY5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="FZ5" s="9" t="s">
@@ -2824,7 +2834,7 @@
       <c r="GJ5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="GK5" s="23" t="s">
+      <c r="GK5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="GL5" s="9" t="s">
@@ -2860,7 +2870,7 @@
       <c r="GV5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="GW5" s="23" t="s">
+      <c r="GW5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="GX5" s="9" t="s">
@@ -2896,7 +2906,7 @@
       <c r="HH5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="HI5" s="23" t="s">
+      <c r="HI5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="HJ5" s="9" t="s">
@@ -2932,7 +2942,7 @@
       <c r="HT5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="HU5" s="23" t="s">
+      <c r="HU5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="HV5" s="9" t="s">
@@ -2971,16 +2981,16 @@
       <c r="IG5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="IH5" s="24" t="s">
+      <c r="IH5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="II5" s="19" t="s">
+      <c r="II5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="IJ5" s="19" t="s">
+      <c r="IJ5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="IK5" s="19" t="s">
+      <c r="IK5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="IL5" s="10" t="s">
@@ -3067,12 +3077,15 @@
       <c r="JM5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="JN5" s="16" t="s">
+      <c r="JN5" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="JO5" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
@@ -3891,12 +3904,15 @@
       <c r="JM6" s="3">
         <v>3179</v>
       </c>
-      <c r="JN6" s="4">
+      <c r="JN6" s="3">
         <v>3180</v>
       </c>
+      <c r="JO6" s="4">
+        <v>3065</v>
+      </c>
     </row>
-    <row r="7" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2">
@@ -4715,12 +4731,15 @@
       <c r="JM7" s="3">
         <v>60162</v>
       </c>
-      <c r="JN7" s="4">
+      <c r="JN7" s="3">
         <v>61205</v>
       </c>
+      <c r="JO7" s="4">
+        <v>61653</v>
+      </c>
     </row>
-    <row r="8" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2">
@@ -5539,12 +5558,15 @@
       <c r="JM8" s="3">
         <v>68976</v>
       </c>
-      <c r="JN8" s="4">
+      <c r="JN8" s="3">
         <v>69436</v>
       </c>
+      <c r="JO8" s="4">
+        <v>70025</v>
+      </c>
     </row>
-    <row r="9" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
@@ -6363,12 +6385,15 @@
       <c r="JM9" s="3">
         <v>54716</v>
       </c>
-      <c r="JN9" s="4">
+      <c r="JN9" s="3">
         <v>55183</v>
       </c>
+      <c r="JO9" s="4">
+        <v>55492</v>
+      </c>
     </row>
-    <row r="10" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -7187,12 +7212,15 @@
       <c r="JM10" s="3">
         <v>16386</v>
       </c>
-      <c r="JN10" s="4">
+      <c r="JN10" s="3">
         <v>17577</v>
       </c>
+      <c r="JO10" s="4">
+        <v>18152</v>
+      </c>
     </row>
-    <row r="11" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -8011,12 +8039,15 @@
       <c r="JM11" s="3">
         <v>61990</v>
       </c>
-      <c r="JN11" s="4">
+      <c r="JN11" s="3">
         <v>64312</v>
       </c>
+      <c r="JO11" s="4">
+        <v>64608</v>
+      </c>
     </row>
-    <row r="12" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -8835,12 +8866,15 @@
       <c r="JM12" s="3">
         <v>20519</v>
       </c>
-      <c r="JN12" s="4">
+      <c r="JN12" s="3">
         <v>20113</v>
       </c>
+      <c r="JO12" s="4">
+        <v>20258</v>
+      </c>
     </row>
-    <row r="13" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -9659,12 +9693,15 @@
       <c r="JM13" s="3">
         <v>8675</v>
       </c>
-      <c r="JN13" s="4">
+      <c r="JN13" s="3">
         <v>8853</v>
       </c>
+      <c r="JO13" s="4">
+        <v>8983</v>
+      </c>
     </row>
-    <row r="14" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2">
@@ -10483,12 +10520,15 @@
       <c r="JM14" s="3">
         <v>77751</v>
       </c>
-      <c r="JN14" s="4">
+      <c r="JN14" s="3">
         <v>78263</v>
       </c>
+      <c r="JO14" s="4">
+        <v>79762</v>
+      </c>
     </row>
-    <row r="15" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2">
@@ -11307,12 +11347,15 @@
       <c r="JM15" s="3">
         <v>40904</v>
       </c>
-      <c r="JN15" s="4">
+      <c r="JN15" s="3">
         <v>40870</v>
       </c>
+      <c r="JO15" s="4">
+        <v>42229</v>
+      </c>
     </row>
-    <row r="16" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2">
@@ -12131,12 +12174,15 @@
       <c r="JM16" s="3">
         <v>24720</v>
       </c>
-      <c r="JN16" s="4">
+      <c r="JN16" s="3">
         <v>26305</v>
       </c>
+      <c r="JO16" s="4">
+        <v>27173</v>
+      </c>
     </row>
-    <row r="17" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2">
@@ -12955,1113 +13001,1120 @@
       <c r="JM17" s="3">
         <v>1472649</v>
       </c>
-      <c r="JN17" s="4">
+      <c r="JN17" s="3">
         <v>1482350</v>
       </c>
+      <c r="JO17" s="4">
+        <v>1499541</v>
+      </c>
     </row>
-    <row r="18" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
-        <f>SUM(B6:B17)</f>
+        <f t="shared" ref="B18:BM18" si="0">SUM(B6:B17)</f>
         <v>986809</v>
       </c>
       <c r="C18" s="8">
-        <f>SUM(C6:C17)</f>
+        <f t="shared" si="0"/>
         <v>995832</v>
       </c>
       <c r="D18" s="8">
-        <f>SUM(D6:D17)</f>
+        <f t="shared" si="0"/>
         <v>1001069</v>
       </c>
       <c r="E18" s="8">
-        <f>SUM(E6:E17)</f>
+        <f t="shared" si="0"/>
         <v>999403</v>
       </c>
       <c r="F18" s="8">
-        <f>SUM(F6:F17)</f>
+        <f t="shared" si="0"/>
         <v>1002441</v>
       </c>
       <c r="G18" s="8">
-        <f>SUM(G6:G17)</f>
+        <f t="shared" si="0"/>
         <v>1006280</v>
       </c>
       <c r="H18" s="8">
-        <f>SUM(H6:H17)</f>
+        <f t="shared" si="0"/>
         <v>1019506</v>
       </c>
       <c r="I18" s="8">
-        <f>SUM(I6:I17)</f>
+        <f t="shared" si="0"/>
         <v>1028391</v>
       </c>
       <c r="J18" s="8">
-        <f>SUM(J6:J17)</f>
+        <f t="shared" si="0"/>
         <v>1035137</v>
       </c>
       <c r="K18" s="8">
-        <f>SUM(K6:K17)</f>
+        <f t="shared" si="0"/>
         <v>1046247</v>
       </c>
       <c r="L18" s="8">
-        <f>SUM(L6:L17)</f>
+        <f t="shared" si="0"/>
         <v>1054346</v>
       </c>
       <c r="M18" s="13">
-        <f>SUM(M6:M17)</f>
+        <f t="shared" si="0"/>
         <v>1034215</v>
       </c>
       <c r="N18" s="7">
-        <f>SUM(N6:N17)</f>
+        <f t="shared" si="0"/>
         <v>1034052</v>
       </c>
       <c r="O18" s="8">
-        <f>SUM(O6:O17)</f>
+        <f t="shared" si="0"/>
         <v>1033583</v>
       </c>
       <c r="P18" s="8">
-        <f>SUM(P6:P17)</f>
+        <f t="shared" si="0"/>
         <v>1026253</v>
       </c>
       <c r="Q18" s="8">
-        <f>SUM(Q6:Q17)</f>
+        <f t="shared" si="0"/>
         <v>1021573</v>
       </c>
       <c r="R18" s="8">
-        <f>SUM(R6:R17)</f>
+        <f t="shared" si="0"/>
         <v>1017168</v>
       </c>
       <c r="S18" s="8">
-        <f>SUM(S6:S17)</f>
+        <f t="shared" si="0"/>
         <v>1012668</v>
       </c>
       <c r="T18" s="8">
-        <f>SUM(T6:T17)</f>
+        <f t="shared" si="0"/>
         <v>1015524</v>
       </c>
       <c r="U18" s="8">
-        <f>SUM(U6:U17)</f>
+        <f t="shared" si="0"/>
         <v>1017448</v>
       </c>
       <c r="V18" s="8">
-        <f>SUM(V6:V17)</f>
+        <f t="shared" si="0"/>
         <v>1015693</v>
       </c>
       <c r="W18" s="8">
-        <f>SUM(W6:W17)</f>
+        <f t="shared" si="0"/>
         <v>1023232</v>
       </c>
       <c r="X18" s="8">
-        <f>SUM(X6:X17)</f>
+        <f t="shared" si="0"/>
         <v>1028481</v>
       </c>
       <c r="Y18" s="13">
-        <f>SUM(Y6:Y17)</f>
+        <f t="shared" si="0"/>
         <v>1011723</v>
       </c>
       <c r="Z18" s="7">
-        <f>SUM(Z6:Z17)</f>
+        <f t="shared" si="0"/>
         <v>1011211</v>
       </c>
       <c r="AA18" s="8">
-        <f>SUM(AA6:AA17)</f>
+        <f t="shared" si="0"/>
         <v>1021306</v>
       </c>
       <c r="AB18" s="8">
-        <f>SUM(AB6:AB17)</f>
+        <f t="shared" si="0"/>
         <v>1017902</v>
       </c>
       <c r="AC18" s="8">
-        <f>SUM(AC6:AC17)</f>
+        <f t="shared" si="0"/>
         <v>1025252</v>
       </c>
       <c r="AD18" s="8">
-        <f>SUM(AD6:AD17)</f>
+        <f t="shared" si="0"/>
         <v>1020616</v>
       </c>
       <c r="AE18" s="8">
-        <f>SUM(AE6:AE17)</f>
+        <f t="shared" si="0"/>
         <v>1017493</v>
       </c>
       <c r="AF18" s="8">
-        <f>SUM(AF6:AF17)</f>
+        <f t="shared" si="0"/>
         <v>1023783</v>
       </c>
       <c r="AG18" s="8">
-        <f>SUM(AG6:AG17)</f>
+        <f t="shared" si="0"/>
         <v>1022753</v>
       </c>
       <c r="AH18" s="8">
-        <f>SUM(AH6:AH17)</f>
+        <f t="shared" si="0"/>
         <v>1029827</v>
       </c>
       <c r="AI18" s="8">
-        <f>SUM(AI6:AI17)</f>
+        <f t="shared" si="0"/>
         <v>1038774</v>
       </c>
       <c r="AJ18" s="8">
-        <f>SUM(AJ6:AJ17)</f>
+        <f t="shared" si="0"/>
         <v>1046838</v>
       </c>
       <c r="AK18" s="13">
-        <f>SUM(AK6:AK17)</f>
+        <f t="shared" si="0"/>
         <v>1029691</v>
       </c>
       <c r="AL18" s="7">
-        <f>SUM(AL6:AL17)</f>
+        <f t="shared" si="0"/>
         <v>1031082</v>
       </c>
       <c r="AM18" s="8">
-        <f>SUM(AM6:AM17)</f>
+        <f t="shared" si="0"/>
         <v>1034757</v>
       </c>
       <c r="AN18" s="8">
-        <f>SUM(AN6:AN17)</f>
+        <f t="shared" si="0"/>
         <v>1034228</v>
       </c>
       <c r="AO18" s="8">
-        <f>SUM(AO6:AO17)</f>
+        <f t="shared" si="0"/>
         <v>1034680</v>
       </c>
       <c r="AP18" s="8">
-        <f>SUM(AP6:AP17)</f>
+        <f t="shared" si="0"/>
         <v>1026751</v>
       </c>
       <c r="AQ18" s="8">
-        <f>SUM(AQ6:AQ17)</f>
+        <f t="shared" si="0"/>
         <v>1025662</v>
       </c>
       <c r="AR18" s="8">
-        <f>SUM(AR6:AR17)</f>
+        <f t="shared" si="0"/>
         <v>1028176</v>
       </c>
       <c r="AS18" s="8">
-        <f>SUM(AS6:AS17)</f>
+        <f t="shared" si="0"/>
         <v>1027412</v>
       </c>
       <c r="AT18" s="8">
-        <f>SUM(AT6:AT17)</f>
+        <f t="shared" si="0"/>
         <v>1035397</v>
       </c>
       <c r="AU18" s="8">
-        <f>SUM(AU6:AU17)</f>
+        <f t="shared" si="0"/>
         <v>1044767</v>
       </c>
       <c r="AV18" s="8">
-        <f>SUM(AV6:AV17)</f>
+        <f t="shared" si="0"/>
         <v>1047273</v>
       </c>
       <c r="AW18" s="13">
-        <f>SUM(AW6:AW17)</f>
+        <f t="shared" si="0"/>
         <v>1041281</v>
       </c>
       <c r="AX18" s="7">
-        <f>SUM(AX6:AX17)</f>
+        <f t="shared" si="0"/>
         <v>1040993</v>
       </c>
       <c r="AY18" s="8">
-        <f>SUM(AY6:AY17)</f>
+        <f t="shared" si="0"/>
         <v>1045612</v>
       </c>
       <c r="AZ18" s="8">
-        <f>SUM(AZ6:AZ17)</f>
+        <f t="shared" si="0"/>
         <v>1056463</v>
       </c>
       <c r="BA18" s="8">
-        <f>SUM(BA6:BA17)</f>
+        <f t="shared" si="0"/>
         <v>1058029</v>
       </c>
       <c r="BB18" s="8">
-        <f>SUM(BB6:BB17)</f>
+        <f t="shared" si="0"/>
         <v>1053918</v>
       </c>
       <c r="BC18" s="8">
-        <f>SUM(BC6:BC17)</f>
+        <f t="shared" si="0"/>
         <v>1052893</v>
       </c>
       <c r="BD18" s="8">
-        <f>SUM(BD6:BD17)</f>
+        <f t="shared" si="0"/>
         <v>1056562</v>
       </c>
       <c r="BE18" s="8">
-        <f>SUM(BE6:BE17)</f>
+        <f t="shared" si="0"/>
         <v>1056251</v>
       </c>
       <c r="BF18" s="8">
-        <f>SUM(BF6:BF17)</f>
+        <f t="shared" si="0"/>
         <v>1060955</v>
       </c>
       <c r="BG18" s="8">
-        <f>SUM(BG6:BG17)</f>
+        <f t="shared" si="0"/>
         <v>1064156</v>
       </c>
       <c r="BH18" s="8">
-        <f>SUM(BH6:BH17)</f>
+        <f t="shared" si="0"/>
         <v>1075523</v>
       </c>
       <c r="BI18" s="13">
-        <f>SUM(BI6:BI17)</f>
+        <f t="shared" si="0"/>
         <v>1062895</v>
       </c>
       <c r="BJ18" s="7">
-        <f>SUM(BJ6:BJ17)</f>
+        <f t="shared" si="0"/>
         <v>1067563</v>
       </c>
       <c r="BK18" s="8">
-        <f>SUM(BK6:BK17)</f>
+        <f t="shared" si="0"/>
         <v>1073734</v>
       </c>
       <c r="BL18" s="8">
-        <f>SUM(BL6:BL17)</f>
+        <f t="shared" si="0"/>
         <v>1074159</v>
       </c>
       <c r="BM18" s="8">
-        <f>SUM(BM6:BM17)</f>
+        <f t="shared" si="0"/>
         <v>1074608</v>
       </c>
       <c r="BN18" s="8">
-        <f>SUM(BN6:BN17)</f>
+        <f t="shared" ref="BN18:DY18" si="1">SUM(BN6:BN17)</f>
         <v>1076803</v>
       </c>
       <c r="BO18" s="8">
-        <f>SUM(BO6:BO17)</f>
+        <f t="shared" si="1"/>
         <v>1077808</v>
       </c>
       <c r="BP18" s="8">
-        <f>SUM(BP6:BP17)</f>
+        <f t="shared" si="1"/>
         <v>1077279</v>
       </c>
       <c r="BQ18" s="8">
-        <f>SUM(BQ6:BQ17)</f>
+        <f t="shared" si="1"/>
         <v>1079119</v>
       </c>
       <c r="BR18" s="8">
-        <f>SUM(BR6:BR17)</f>
+        <f t="shared" si="1"/>
         <v>1088567</v>
       </c>
       <c r="BS18" s="8">
-        <f>SUM(BS6:BS17)</f>
+        <f t="shared" si="1"/>
         <v>1099330</v>
       </c>
       <c r="BT18" s="8">
-        <f>SUM(BT6:BT17)</f>
+        <f t="shared" si="1"/>
         <v>1113239</v>
       </c>
       <c r="BU18" s="13">
-        <f>SUM(BU6:BU17)</f>
+        <f t="shared" si="1"/>
         <v>1095746</v>
       </c>
       <c r="BV18" s="7">
-        <f>SUM(BV6:BV17)</f>
+        <f t="shared" si="1"/>
         <v>1101257</v>
       </c>
       <c r="BW18" s="8">
-        <f>SUM(BW6:BW17)</f>
+        <f t="shared" si="1"/>
         <v>1109025</v>
       </c>
       <c r="BX18" s="8">
-        <f>SUM(BX6:BX17)</f>
+        <f t="shared" si="1"/>
         <v>1119209</v>
       </c>
       <c r="BY18" s="8">
-        <f>SUM(BY6:BY17)</f>
+        <f t="shared" si="1"/>
         <v>1116487</v>
       </c>
       <c r="BZ18" s="8">
-        <f>SUM(BZ6:BZ17)</f>
+        <f t="shared" si="1"/>
         <v>1121279</v>
       </c>
       <c r="CA18" s="8">
-        <f>SUM(CA6:CA17)</f>
+        <f t="shared" si="1"/>
         <v>1129262</v>
       </c>
       <c r="CB18" s="8">
-        <f>SUM(CB6:CB17)</f>
+        <f t="shared" si="1"/>
         <v>1132219</v>
       </c>
       <c r="CC18" s="8">
-        <f>SUM(CC6:CC17)</f>
+        <f t="shared" si="1"/>
         <v>1138666</v>
       </c>
       <c r="CD18" s="8">
-        <f>SUM(CD6:CD17)</f>
+        <f t="shared" si="1"/>
         <v>1147420</v>
       </c>
       <c r="CE18" s="8">
-        <f>SUM(CE6:CE17)</f>
+        <f t="shared" si="1"/>
         <v>1157739</v>
       </c>
       <c r="CF18" s="8">
-        <f>SUM(CF6:CF17)</f>
+        <f t="shared" si="1"/>
         <v>1168371</v>
       </c>
       <c r="CG18" s="13">
-        <f>SUM(CG6:CG17)</f>
+        <f t="shared" si="1"/>
         <v>1147143</v>
       </c>
       <c r="CH18" s="7">
-        <f>SUM(CH6:CH17)</f>
+        <f t="shared" si="1"/>
         <v>1159470</v>
       </c>
       <c r="CI18" s="8">
-        <f>SUM(CI6:CI17)</f>
+        <f t="shared" si="1"/>
         <v>1167071</v>
       </c>
       <c r="CJ18" s="8">
-        <f>SUM(CJ6:CJ17)</f>
+        <f t="shared" si="1"/>
         <v>1173248</v>
       </c>
       <c r="CK18" s="8">
-        <f>SUM(CK6:CK17)</f>
+        <f t="shared" si="1"/>
         <v>1175642</v>
       </c>
       <c r="CL18" s="8">
-        <f>SUM(CL6:CL17)</f>
+        <f t="shared" si="1"/>
         <v>1177550</v>
       </c>
       <c r="CM18" s="8">
-        <f>SUM(CM6:CM17)</f>
+        <f t="shared" si="1"/>
         <v>1181306</v>
       </c>
       <c r="CN18" s="8">
-        <f>SUM(CN6:CN17)</f>
+        <f t="shared" si="1"/>
         <v>1186605</v>
       </c>
       <c r="CO18" s="8">
-        <f>SUM(CO6:CO17)</f>
+        <f t="shared" si="1"/>
         <v>1191437</v>
       </c>
       <c r="CP18" s="8">
-        <f>SUM(CP6:CP17)</f>
+        <f t="shared" si="1"/>
         <v>1196379</v>
       </c>
       <c r="CQ18" s="8">
-        <f>SUM(CQ6:CQ17)</f>
+        <f t="shared" si="1"/>
         <v>1210081</v>
       </c>
       <c r="CR18" s="8">
-        <f>SUM(CR6:CR17)</f>
+        <f t="shared" si="1"/>
         <v>1219614</v>
       </c>
       <c r="CS18" s="13">
-        <f>SUM(CS6:CS17)</f>
+        <f t="shared" si="1"/>
         <v>1194386</v>
       </c>
       <c r="CT18" s="7">
-        <f>SUM(CT6:CT17)</f>
+        <f t="shared" si="1"/>
         <v>1206391</v>
       </c>
       <c r="CU18" s="8">
-        <f>SUM(CU6:CU17)</f>
+        <f t="shared" si="1"/>
         <v>1214066</v>
       </c>
       <c r="CV18" s="8">
-        <f>SUM(CV6:CV17)</f>
+        <f t="shared" si="1"/>
         <v>1214015</v>
       </c>
       <c r="CW18" s="8">
-        <f>SUM(CW6:CW17)</f>
+        <f t="shared" si="1"/>
         <v>1218746</v>
       </c>
       <c r="CX18" s="8">
-        <f>SUM(CX6:CX17)</f>
+        <f t="shared" si="1"/>
         <v>1216016</v>
       </c>
       <c r="CY18" s="8">
-        <f>SUM(CY6:CY17)</f>
+        <f t="shared" si="1"/>
         <v>1219272</v>
       </c>
       <c r="CZ18" s="8">
-        <f>SUM(CZ6:CZ17)</f>
+        <f t="shared" si="1"/>
         <v>1220144</v>
       </c>
       <c r="DA18" s="8">
-        <f>SUM(DA6:DA17)</f>
+        <f t="shared" si="1"/>
         <v>1222971</v>
       </c>
       <c r="DB18" s="8">
-        <f>SUM(DB6:DB17)</f>
+        <f t="shared" si="1"/>
         <v>1226715</v>
       </c>
       <c r="DC18" s="8">
-        <f>SUM(DC6:DC17)</f>
+        <f t="shared" si="1"/>
         <v>1228030</v>
       </c>
       <c r="DD18" s="8">
-        <f>SUM(DD6:DD17)</f>
+        <f t="shared" si="1"/>
         <v>1225338</v>
       </c>
       <c r="DE18" s="13">
-        <f>SUM(DE6:DE17)</f>
+        <f t="shared" si="1"/>
         <v>1204590</v>
       </c>
       <c r="DF18" s="7">
-        <f>SUM(DF6:DF17)</f>
+        <f t="shared" si="1"/>
         <v>1200192</v>
       </c>
       <c r="DG18" s="8">
-        <f>SUM(DG6:DG17)</f>
+        <f t="shared" si="1"/>
         <v>1194715</v>
       </c>
       <c r="DH18" s="8">
-        <f>SUM(DH6:DH17)</f>
+        <f t="shared" si="1"/>
         <v>1198805</v>
       </c>
       <c r="DI18" s="8">
-        <f>SUM(DI6:DI17)</f>
+        <f t="shared" si="1"/>
         <v>1193947</v>
       </c>
       <c r="DJ18" s="8">
-        <f>SUM(DJ6:DJ17)</f>
+        <f t="shared" si="1"/>
         <v>1190262</v>
       </c>
       <c r="DK18" s="8">
-        <f>SUM(DK6:DK17)</f>
+        <f t="shared" si="1"/>
         <v>1194763</v>
       </c>
       <c r="DL18" s="8">
-        <f>SUM(DL6:DL17)</f>
+        <f t="shared" si="1"/>
         <v>1198518</v>
       </c>
       <c r="DM18" s="8">
-        <f>SUM(DM6:DM17)</f>
+        <f t="shared" si="1"/>
         <v>1198986</v>
       </c>
       <c r="DN18" s="8">
-        <f>SUM(DN6:DN17)</f>
+        <f t="shared" si="1"/>
         <v>1197731</v>
       </c>
       <c r="DO18" s="8">
-        <f>SUM(DO6:DO17)</f>
+        <f t="shared" si="1"/>
         <v>1210664</v>
       </c>
       <c r="DP18" s="8">
-        <f>SUM(DP6:DP17)</f>
+        <f t="shared" si="1"/>
         <v>1221907</v>
       </c>
       <c r="DQ18" s="13">
-        <f>SUM(DQ6:DQ17)</f>
+        <f t="shared" si="1"/>
         <v>1208019</v>
       </c>
       <c r="DR18" s="7">
-        <f>SUM(DR6:DR17)</f>
+        <f t="shared" si="1"/>
         <v>1207686</v>
       </c>
       <c r="DS18" s="8">
-        <f>SUM(DS6:DS17)</f>
+        <f t="shared" si="1"/>
         <v>1215559</v>
       </c>
       <c r="DT18" s="8">
-        <f>SUM(DT6:DT17)</f>
+        <f t="shared" si="1"/>
         <v>1226178</v>
       </c>
       <c r="DU18" s="8">
-        <f>SUM(DU6:DU17)</f>
+        <f t="shared" si="1"/>
         <v>1232200</v>
       </c>
       <c r="DV18" s="8">
-        <f>SUM(DV6:DV17)</f>
+        <f t="shared" si="1"/>
         <v>1233199</v>
       </c>
       <c r="DW18" s="8">
-        <f>SUM(DW6:DW17)</f>
+        <f t="shared" si="1"/>
         <v>1236525</v>
       </c>
       <c r="DX18" s="8">
-        <f>SUM(DX6:DX17)</f>
+        <f t="shared" si="1"/>
         <v>1243416</v>
       </c>
       <c r="DY18" s="8">
-        <f>SUM(DY6:DY17)</f>
+        <f t="shared" si="1"/>
         <v>1251516</v>
       </c>
       <c r="DZ18" s="8">
-        <f>SUM(DZ6:DZ17)</f>
+        <f t="shared" ref="DZ18:GK18" si="2">SUM(DZ6:DZ17)</f>
         <v>1256598</v>
       </c>
       <c r="EA18" s="8">
-        <f>SUM(EA6:EA17)</f>
+        <f t="shared" si="2"/>
         <v>1268034</v>
       </c>
       <c r="EB18" s="8">
-        <f>SUM(EB6:EB17)</f>
+        <f t="shared" si="2"/>
         <v>1277314</v>
       </c>
       <c r="EC18" s="13">
-        <f>SUM(EC6:EC17)</f>
+        <f t="shared" si="2"/>
         <v>1263487</v>
       </c>
       <c r="ED18" s="7">
-        <f>SUM(ED6:ED17)</f>
+        <f t="shared" si="2"/>
         <v>1264788</v>
       </c>
       <c r="EE18" s="8">
-        <f>SUM(EE6:EE17)</f>
+        <f t="shared" si="2"/>
         <v>1274313</v>
       </c>
       <c r="EF18" s="8">
-        <f>SUM(EF6:EF17)</f>
+        <f t="shared" si="2"/>
         <v>1282251</v>
       </c>
       <c r="EG18" s="8">
-        <f>SUM(EG6:EG17)</f>
+        <f t="shared" si="2"/>
         <v>1284045</v>
       </c>
       <c r="EH18" s="8">
-        <f>SUM(EH6:EH17)</f>
+        <f t="shared" si="2"/>
         <v>1285810</v>
       </c>
       <c r="EI18" s="8">
-        <f>SUM(EI6:EI17)</f>
+        <f t="shared" si="2"/>
         <v>1288822</v>
       </c>
       <c r="EJ18" s="8">
-        <f>SUM(EJ6:EJ17)</f>
+        <f t="shared" si="2"/>
         <v>1294392</v>
       </c>
       <c r="EK18" s="8">
-        <f>SUM(EK6:EK17)</f>
+        <f t="shared" si="2"/>
         <v>1299060</v>
       </c>
       <c r="EL18" s="8">
-        <f>SUM(EL6:EL17)</f>
+        <f t="shared" si="2"/>
         <v>1307965</v>
       </c>
       <c r="EM18" s="8">
-        <f>SUM(EM6:EM17)</f>
+        <f t="shared" si="2"/>
         <v>1317875</v>
       </c>
       <c r="EN18" s="8">
-        <f>SUM(EN6:EN17)</f>
+        <f t="shared" si="2"/>
         <v>1325584</v>
       </c>
       <c r="EO18" s="13">
-        <f>SUM(EO6:EO17)</f>
+        <f t="shared" si="2"/>
         <v>1308282</v>
       </c>
       <c r="EP18" s="7">
-        <f>SUM(EP6:EP17)</f>
+        <f t="shared" si="2"/>
         <v>1307399</v>
       </c>
       <c r="EQ18" s="8">
-        <f>SUM(EQ6:EQ17)</f>
+        <f t="shared" si="2"/>
         <v>1316368</v>
       </c>
       <c r="ER18" s="8">
-        <f>SUM(ER6:ER17)</f>
+        <f t="shared" si="2"/>
         <v>1327266</v>
       </c>
       <c r="ES18" s="8">
-        <f>SUM(ES6:ES17)</f>
+        <f t="shared" si="2"/>
         <v>1325979</v>
       </c>
       <c r="ET18" s="8">
-        <f>SUM(ET6:ET17)</f>
+        <f t="shared" si="2"/>
         <v>1325783</v>
       </c>
       <c r="EU18" s="8">
-        <f>SUM(EU6:EU17)</f>
+        <f t="shared" si="2"/>
         <v>1328013</v>
       </c>
       <c r="EV18" s="8">
-        <f>SUM(EV6:EV17)</f>
+        <f t="shared" si="2"/>
         <v>1334119</v>
       </c>
       <c r="EW18" s="8">
-        <f>SUM(EW6:EW17)</f>
+        <f t="shared" si="2"/>
         <v>1335671</v>
       </c>
       <c r="EX18" s="8">
-        <f>SUM(EX6:EX17)</f>
+        <f t="shared" si="2"/>
         <v>1340225</v>
       </c>
       <c r="EY18" s="8">
-        <f>SUM(EY6:EY17)</f>
+        <f t="shared" si="2"/>
         <v>1349654</v>
       </c>
       <c r="EZ18" s="8">
-        <f>SUM(EZ6:EZ17)</f>
+        <f t="shared" si="2"/>
         <v>1358570</v>
       </c>
       <c r="FA18" s="13">
-        <f>SUM(FA6:FA17)</f>
+        <f t="shared" si="2"/>
         <v>1349657</v>
       </c>
       <c r="FB18" s="7">
-        <f>SUM(FB6:FB17)</f>
+        <f t="shared" si="2"/>
         <v>1353365</v>
       </c>
       <c r="FC18" s="8">
-        <f>SUM(FC6:FC17)</f>
+        <f t="shared" si="2"/>
         <v>1361492</v>
       </c>
       <c r="FD18" s="8">
-        <f>SUM(FD6:FD17)</f>
+        <f t="shared" si="2"/>
         <v>1368619</v>
       </c>
       <c r="FE18" s="8">
-        <f>SUM(FE6:FE17)</f>
+        <f t="shared" si="2"/>
         <v>1374487</v>
       </c>
       <c r="FF18" s="8">
-        <f>SUM(FF6:FF17)</f>
+        <f t="shared" si="2"/>
         <v>1378318</v>
       </c>
       <c r="FG18" s="8">
-        <f>SUM(FG6:FG17)</f>
+        <f t="shared" si="2"/>
         <v>1380069</v>
       </c>
       <c r="FH18" s="8">
-        <f>SUM(FH6:FH17)</f>
+        <f t="shared" si="2"/>
         <v>1383564</v>
       </c>
       <c r="FI18" s="8">
-        <f>SUM(FI6:FI17)</f>
+        <f t="shared" si="2"/>
         <v>1387421</v>
       </c>
       <c r="FJ18" s="8">
-        <f>SUM(FJ6:FJ17)</f>
+        <f t="shared" si="2"/>
         <v>1391042</v>
       </c>
       <c r="FK18" s="8">
-        <f>SUM(FK6:FK17)</f>
+        <f t="shared" si="2"/>
         <v>1403518</v>
       </c>
       <c r="FL18" s="8">
-        <f>SUM(FL6:FL17)</f>
+        <f t="shared" si="2"/>
         <v>1410118</v>
       </c>
       <c r="FM18" s="13">
-        <f>SUM(FM6:FM17)</f>
+        <f t="shared" si="2"/>
         <v>1397248</v>
       </c>
       <c r="FN18" s="7">
-        <f>SUM(FN6:FN17)</f>
+        <f t="shared" si="2"/>
         <v>1396563</v>
       </c>
       <c r="FO18" s="8">
-        <f>SUM(FO6:FO17)</f>
+        <f t="shared" si="2"/>
         <v>1402503</v>
       </c>
       <c r="FP18" s="8">
-        <f>SUM(FP6:FP17)</f>
+        <f t="shared" si="2"/>
         <v>1413343</v>
       </c>
       <c r="FQ18" s="8">
-        <f>SUM(FQ6:FQ17)</f>
+        <f t="shared" si="2"/>
         <v>1415615</v>
       </c>
       <c r="FR18" s="8">
-        <f>SUM(FR6:FR17)</f>
+        <f t="shared" si="2"/>
         <v>1421309</v>
       </c>
       <c r="FS18" s="8">
-        <f>SUM(FS6:FS17)</f>
+        <f t="shared" si="2"/>
         <v>1423620</v>
       </c>
       <c r="FT18" s="8">
-        <f>SUM(FT6:FT17)</f>
+        <f t="shared" si="2"/>
         <v>1433741</v>
       </c>
       <c r="FU18" s="8">
-        <f>SUM(FU6:FU17)</f>
+        <f t="shared" si="2"/>
         <v>1435303</v>
       </c>
       <c r="FV18" s="8">
-        <f>SUM(FV6:FV17)</f>
+        <f t="shared" si="2"/>
         <v>1447119</v>
       </c>
       <c r="FW18" s="8">
-        <f>SUM(FW6:FW17)</f>
+        <f t="shared" si="2"/>
         <v>1463050</v>
       </c>
       <c r="FX18" s="8">
-        <f>SUM(FX6:FX17)</f>
+        <f t="shared" si="2"/>
         <v>1477172</v>
       </c>
       <c r="FY18" s="13">
-        <f>SUM(FY6:FY17)</f>
+        <f t="shared" si="2"/>
         <v>1463340</v>
       </c>
       <c r="FZ18" s="7">
-        <f>SUM(FZ6:FZ17)</f>
+        <f t="shared" si="2"/>
         <v>1466848</v>
       </c>
       <c r="GA18" s="8">
-        <f>SUM(GA6:GA17)</f>
+        <f t="shared" si="2"/>
         <v>1479593</v>
       </c>
       <c r="GB18" s="8">
-        <f>SUM(GB6:GB17)</f>
+        <f t="shared" si="2"/>
         <v>1493885</v>
       </c>
       <c r="GC18" s="8">
-        <f>SUM(GC6:GC17)</f>
+        <f t="shared" si="2"/>
         <v>1496860</v>
       </c>
       <c r="GD18" s="8">
-        <f>SUM(GD6:GD17)</f>
+        <f t="shared" si="2"/>
         <v>1496590</v>
       </c>
       <c r="GE18" s="8">
-        <f>SUM(GE6:GE17)</f>
+        <f t="shared" si="2"/>
         <v>1494289</v>
       </c>
       <c r="GF18" s="8">
-        <f>SUM(GF6:GF17)</f>
+        <f t="shared" si="2"/>
         <v>1498787</v>
       </c>
       <c r="GG18" s="8">
-        <f>SUM(GG6:GG17)</f>
+        <f t="shared" si="2"/>
         <v>1505250</v>
       </c>
       <c r="GH18" s="8">
-        <f>SUM(GH6:GH17)</f>
+        <f t="shared" si="2"/>
         <v>1517710</v>
       </c>
       <c r="GI18" s="8">
-        <f>SUM(GI6:GI17)</f>
+        <f t="shared" si="2"/>
         <v>1530447</v>
       </c>
       <c r="GJ18" s="8">
-        <f>SUM(GJ6:GJ17)</f>
+        <f t="shared" si="2"/>
         <v>1548821</v>
       </c>
       <c r="GK18" s="13">
-        <f>SUM(GK6:GK17)</f>
+        <f t="shared" si="2"/>
         <v>1535255</v>
       </c>
       <c r="GL18" s="7">
-        <f>SUM(GL6:GL17)</f>
+        <f t="shared" ref="GL18:IW18" si="3">SUM(GL6:GL17)</f>
         <v>1539143</v>
       </c>
       <c r="GM18" s="8">
-        <f>SUM(GM6:GM17)</f>
+        <f t="shared" si="3"/>
         <v>1552349</v>
       </c>
       <c r="GN18" s="8">
-        <f>SUM(GN6:GN17)</f>
+        <f t="shared" si="3"/>
         <v>1559149</v>
       </c>
       <c r="GO18" s="8">
-        <f>SUM(GO6:GO17)</f>
+        <f t="shared" si="3"/>
         <v>1569657</v>
       </c>
       <c r="GP18" s="8">
-        <f>SUM(GP6:GP17)</f>
+        <f t="shared" si="3"/>
         <v>1571236</v>
       </c>
       <c r="GQ18" s="8">
-        <f>SUM(GQ6:GQ17)</f>
+        <f t="shared" si="3"/>
         <v>1576839</v>
       </c>
       <c r="GR18" s="8">
-        <f>SUM(GR6:GR17)</f>
+        <f t="shared" si="3"/>
         <v>1582329</v>
       </c>
       <c r="GS18" s="8">
-        <f>SUM(GS6:GS17)</f>
+        <f t="shared" si="3"/>
         <v>1592063</v>
       </c>
       <c r="GT18" s="8">
-        <f>SUM(GT6:GT17)</f>
+        <f t="shared" si="3"/>
         <v>1608623</v>
       </c>
       <c r="GU18" s="8">
-        <f>SUM(GU6:GU17)</f>
+        <f t="shared" si="3"/>
         <v>1627392</v>
       </c>
       <c r="GV18" s="8">
-        <f>SUM(GV6:GV17)</f>
+        <f t="shared" si="3"/>
         <v>1643345</v>
       </c>
       <c r="GW18" s="13">
-        <f>SUM(GW6:GW17)</f>
+        <f t="shared" si="3"/>
         <v>1624237</v>
       </c>
       <c r="GX18" s="7">
-        <f>SUM(GX6:GX17)</f>
+        <f t="shared" si="3"/>
         <v>1635012</v>
       </c>
       <c r="GY18" s="8">
-        <f>SUM(GY6:GY17)</f>
+        <f t="shared" si="3"/>
         <v>1640265</v>
       </c>
       <c r="GZ18" s="8">
-        <f>SUM(GZ6:GZ17)</f>
+        <f t="shared" si="3"/>
         <v>1661636</v>
       </c>
       <c r="HA18" s="8">
-        <f>SUM(HA6:HA17)</f>
+        <f t="shared" si="3"/>
         <v>1662463</v>
       </c>
       <c r="HB18" s="8">
-        <f>SUM(HB6:HB17)</f>
+        <f t="shared" si="3"/>
         <v>1664615</v>
       </c>
       <c r="HC18" s="8">
-        <f>SUM(HC6:HC17)</f>
+        <f t="shared" si="3"/>
         <v>1672581</v>
       </c>
       <c r="HD18" s="8">
-        <f>SUM(HD6:HD17)</f>
+        <f t="shared" si="3"/>
         <v>1675221</v>
       </c>
       <c r="HE18" s="8">
-        <f>SUM(HE6:HE17)</f>
+        <f t="shared" si="3"/>
         <v>1694618</v>
       </c>
       <c r="HF18" s="8">
-        <f>SUM(HF6:HF17)</f>
+        <f t="shared" si="3"/>
         <v>1708982</v>
       </c>
       <c r="HG18" s="8">
-        <f>SUM(HG6:HG17)</f>
+        <f t="shared" si="3"/>
         <v>1728026</v>
       </c>
       <c r="HH18" s="8">
-        <f>SUM(HH6:HH17)</f>
+        <f t="shared" si="3"/>
         <v>1740013</v>
       </c>
       <c r="HI18" s="13">
-        <f>SUM(HI6:HI17)</f>
+        <f t="shared" si="3"/>
         <v>1717868</v>
       </c>
       <c r="HJ18" s="7">
-        <f>SUM(HJ6:HJ17)</f>
+        <f t="shared" si="3"/>
         <v>1723991</v>
       </c>
       <c r="HK18" s="8">
-        <f>SUM(HK6:HK17)</f>
+        <f t="shared" si="3"/>
         <v>1738722</v>
       </c>
       <c r="HL18" s="8">
-        <f>SUM(HL6:HL17)</f>
+        <f t="shared" si="3"/>
         <v>1743804</v>
       </c>
       <c r="HM18" s="8">
-        <f>SUM(HM6:HM17)</f>
+        <f t="shared" si="3"/>
         <v>1749012</v>
       </c>
       <c r="HN18" s="8">
-        <f>SUM(HN6:HN17)</f>
+        <f t="shared" si="3"/>
         <v>1752923</v>
       </c>
       <c r="HO18" s="8">
-        <f>SUM(HO6:HO17)</f>
+        <f t="shared" si="3"/>
         <v>1755753</v>
       </c>
       <c r="HP18" s="8">
-        <f>SUM(HP6:HP17)</f>
+        <f t="shared" si="3"/>
         <v>1750450</v>
       </c>
       <c r="HQ18" s="8">
-        <f>SUM(HQ6:HQ17)</f>
+        <f t="shared" si="3"/>
         <v>1766168</v>
       </c>
       <c r="HR18" s="8">
-        <f>SUM(HR6:HR17)</f>
+        <f t="shared" si="3"/>
         <v>1774072</v>
       </c>
       <c r="HS18" s="8">
-        <f>SUM(HS6:HS17)</f>
+        <f t="shared" si="3"/>
         <v>1782918</v>
       </c>
       <c r="HT18" s="8">
-        <f>SUM(HT6:HT17)</f>
+        <f t="shared" si="3"/>
         <v>1792036</v>
       </c>
       <c r="HU18" s="13">
-        <f>SUM(HU6:HU17)</f>
+        <f t="shared" si="3"/>
         <v>1761000</v>
       </c>
       <c r="HV18" s="7">
-        <f>SUM(HV6:HV17)</f>
+        <f t="shared" si="3"/>
         <v>1778570</v>
       </c>
       <c r="HW18" s="8">
-        <f>SUM(HW6:HW17)</f>
+        <f t="shared" si="3"/>
         <v>1792233</v>
       </c>
       <c r="HX18" s="8">
-        <f>SUM(HX6:HX17)</f>
+        <f t="shared" si="3"/>
         <v>1796144</v>
       </c>
       <c r="HY18" s="8">
-        <f>SUM(HY6:HY17)</f>
+        <f t="shared" si="3"/>
         <v>1798713</v>
       </c>
       <c r="HZ18" s="8">
-        <f>SUM(HZ6:HZ17)</f>
+        <f t="shared" si="3"/>
         <v>1798861</v>
       </c>
       <c r="IA18" s="8">
-        <f>SUM(IA6:IA17)</f>
+        <f t="shared" si="3"/>
         <v>1796535</v>
       </c>
       <c r="IB18" s="8">
-        <f>SUM(IB6:IB17)</f>
+        <f t="shared" si="3"/>
         <v>1792119</v>
       </c>
       <c r="IC18" s="8">
-        <f>SUM(IC6:IC17)</f>
+        <f t="shared" si="3"/>
         <v>1800138</v>
       </c>
       <c r="ID18" s="8">
-        <f>SUM(ID6:ID17)</f>
+        <f t="shared" si="3"/>
         <v>1815615</v>
       </c>
       <c r="IE18" s="8">
-        <f>SUM(IE6:IE17)</f>
+        <f t="shared" si="3"/>
         <v>1828691</v>
       </c>
       <c r="IF18" s="8">
-        <f>SUM(IF6:IF17)</f>
+        <f t="shared" si="3"/>
         <v>1840150</v>
       </c>
       <c r="IG18" s="13">
-        <f>SUM(IG6:IG17)</f>
+        <f t="shared" si="3"/>
         <v>1812699</v>
       </c>
       <c r="IH18" s="7">
-        <f>SUM(IH6:IH17)</f>
+        <f t="shared" si="3"/>
         <v>1822293</v>
       </c>
       <c r="II18" s="8">
-        <f>SUM(II6:II17)</f>
+        <f t="shared" si="3"/>
         <v>1837966</v>
       </c>
       <c r="IJ18" s="8">
-        <f>SUM(IJ6:IJ17)</f>
+        <f t="shared" si="3"/>
         <v>1831940</v>
       </c>
       <c r="IK18" s="8">
-        <f>SUM(IK6:IK17)</f>
+        <f t="shared" si="3"/>
         <v>1793795</v>
       </c>
       <c r="IL18" s="8">
-        <f>SUM(IL6:IL17)</f>
+        <f t="shared" si="3"/>
         <v>1770324</v>
       </c>
       <c r="IM18" s="8">
-        <f>SUM(IM6:IM17)</f>
+        <f t="shared" si="3"/>
         <v>1755765</v>
       </c>
       <c r="IN18" s="8">
-        <f>SUM(IN6:IN17)</f>
+        <f t="shared" si="3"/>
         <v>1742635</v>
       </c>
       <c r="IO18" s="8">
-        <f>SUM(IO6:IO17)</f>
+        <f t="shared" si="3"/>
         <v>1758496</v>
       </c>
       <c r="IP18" s="8">
-        <f>SUM(IP6:IP17)</f>
+        <f t="shared" si="3"/>
         <v>1769661</v>
       </c>
       <c r="IQ18" s="8">
-        <f>SUM(IQ6:IQ17)</f>
+        <f t="shared" si="3"/>
         <v>1788334</v>
       </c>
       <c r="IR18" s="8">
-        <f>SUM(IR6:IR17)</f>
+        <f t="shared" si="3"/>
         <v>1805269</v>
       </c>
       <c r="IS18" s="13">
-        <f>SUM(IS6:IS17)</f>
+        <f t="shared" si="3"/>
         <v>1780367</v>
       </c>
       <c r="IT18" s="7">
-        <f>SUM(IT6:IT17)</f>
+        <f t="shared" si="3"/>
         <v>1787122</v>
       </c>
       <c r="IU18" s="8">
-        <f>SUM(IU6:IU17)</f>
+        <f t="shared" si="3"/>
         <v>1800733</v>
       </c>
       <c r="IV18" s="8">
-        <f>SUM(IV6:IV17)</f>
+        <f t="shared" si="3"/>
         <v>1803619</v>
       </c>
       <c r="IW18" s="8">
-        <f>SUM(IW6:IW17)</f>
+        <f t="shared" si="3"/>
         <v>1810884</v>
       </c>
       <c r="IX18" s="8">
-        <f>SUM(IX6:IX17)</f>
+        <f t="shared" ref="IX18:LJ18" si="4">SUM(IX6:IX17)</f>
         <v>1815607</v>
       </c>
       <c r="IY18" s="8">
-        <f>SUM(IY6:IY17)</f>
+        <f t="shared" si="4"/>
         <v>1820785</v>
       </c>
       <c r="IZ18" s="8">
-        <f>SUM(IZ6:IZ17)</f>
+        <f t="shared" si="4"/>
         <v>1826575</v>
       </c>
       <c r="JA18" s="8">
-        <f>SUM(JA6:JA17)</f>
+        <f t="shared" si="4"/>
         <v>1837975</v>
       </c>
       <c r="JB18" s="8">
-        <f>SUM(JB6:JB17)</f>
+        <f t="shared" si="4"/>
         <v>1847731</v>
       </c>
       <c r="JC18" s="8">
-        <f>SUM(JC6:JC17)</f>
+        <f t="shared" si="4"/>
         <v>1858235</v>
       </c>
       <c r="JD18" s="8">
-        <f>SUM(JD6:JD17)</f>
+        <f t="shared" si="4"/>
         <v>1873476</v>
       </c>
       <c r="JE18" s="13">
-        <f>SUM(JE6:JE17)</f>
+        <f t="shared" si="4"/>
         <v>1849999</v>
       </c>
       <c r="JF18" s="7">
-        <f>SUM(JF6:JF17)</f>
+        <f t="shared" si="4"/>
         <v>1861159</v>
       </c>
       <c r="JG18" s="8">
-        <f>SUM(JG6:JG17)</f>
+        <f t="shared" si="4"/>
         <v>1874622</v>
       </c>
       <c r="JH18" s="8">
-        <f>SUM(JH6:JH17)</f>
+        <f t="shared" si="4"/>
         <v>1886776</v>
       </c>
       <c r="JI18" s="8">
-        <f>SUM(JI6:JI17)</f>
+        <f t="shared" si="4"/>
         <v>1884715</v>
       </c>
       <c r="JJ18" s="8">
-        <f>SUM(JJ6:JJ17)</f>
+        <f t="shared" si="4"/>
         <v>1888232</v>
       </c>
       <c r="JK18" s="8">
-        <f>SUM(JK6:JK17)</f>
+        <f t="shared" si="4"/>
         <v>1896755</v>
       </c>
       <c r="JL18" s="8">
-        <f>SUM(JL6:JL17)</f>
+        <f t="shared" si="4"/>
         <v>1896517</v>
       </c>
       <c r="JM18" s="8">
-        <f>SUM(JM6:JM17)</f>
+        <f t="shared" si="4"/>
         <v>1910627</v>
       </c>
-      <c r="JN18" s="13">
+      <c r="JN18" s="8">
         <f>SUM(JN6:JN17)</f>
         <v>1927647</v>
       </c>
+      <c r="JO18" s="13">
+        <f t="shared" si="4"/>
+        <v>1950941</v>
+      </c>
     </row>
-    <row r="19" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -14083,14 +14136,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="27"/>
+      <c r="Y19" s="25"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="27"/>
+      <c r="AF19" s="25"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
@@ -14218,7 +14271,7 @@
       <c r="FA19" s="3"/>
       <c r="FB19" s="3"/>
       <c r="FC19" s="3"/>
-      <c r="FD19" s="26"/>
+      <c r="FD19" s="24"/>
       <c r="FE19" s="3"/>
       <c r="FF19" s="3"/>
       <c r="FG19" s="3"/>
@@ -14324,7 +14377,7 @@
       <c r="JC19" s="3"/>
       <c r="JD19" s="3"/>
       <c r="JE19" s="3"/>
-      <c r="JF19" s="25"/>
+      <c r="JF19" s="23"/>
       <c r="JG19" s="3"/>
       <c r="JH19" s="3"/>
       <c r="JI19" s="3"/>
@@ -14333,8 +14386,9 @@
       <c r="JL19" s="3"/>
       <c r="JM19" s="3"/>
       <c r="JN19" s="3"/>
+      <c r="JO19" s="3"/>
     </row>
-    <row r="20" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1161,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JO20"/>
+  <dimension ref="A1:JP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H37" sqref="H37"/>
+      <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JG28" sqref="JG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1422,17 +1422,17 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -2255,11 +2255,14 @@
       <c r="JN4" s="6">
         <v>2022</v>
       </c>
-      <c r="JO4" s="14">
+      <c r="JO4" s="6">
         <v>2022</v>
       </c>
+      <c r="JP4" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -3080,11 +3083,14 @@
       <c r="JN5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="JO5" s="16" t="s">
+      <c r="JO5" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="JP5" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -3907,11 +3913,14 @@
       <c r="JN6" s="3">
         <v>3180</v>
       </c>
-      <c r="JO6" s="4">
+      <c r="JO6" s="3">
         <v>3065</v>
       </c>
+      <c r="JP6" s="4">
+        <v>3085</v>
+      </c>
     </row>
-    <row r="7" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -4734,11 +4743,14 @@
       <c r="JN7" s="3">
         <v>61205</v>
       </c>
-      <c r="JO7" s="4">
+      <c r="JO7" s="3">
         <v>61653</v>
       </c>
+      <c r="JP7" s="4">
+        <v>61019</v>
+      </c>
     </row>
-    <row r="8" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -5561,11 +5573,14 @@
       <c r="JN8" s="3">
         <v>69436</v>
       </c>
-      <c r="JO8" s="4">
+      <c r="JO8" s="3">
         <v>70025</v>
       </c>
+      <c r="JP8" s="4">
+        <v>70240</v>
+      </c>
     </row>
-    <row r="9" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -6388,11 +6403,14 @@
       <c r="JN9" s="3">
         <v>55183</v>
       </c>
-      <c r="JO9" s="4">
+      <c r="JO9" s="3">
         <v>55492</v>
       </c>
+      <c r="JP9" s="4">
+        <v>56019</v>
+      </c>
     </row>
-    <row r="10" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
@@ -7215,11 +7233,14 @@
       <c r="JN10" s="3">
         <v>17577</v>
       </c>
-      <c r="JO10" s="4">
+      <c r="JO10" s="3">
         <v>18152</v>
       </c>
+      <c r="JP10" s="4">
+        <v>18752</v>
+      </c>
     </row>
-    <row r="11" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -8042,11 +8063,14 @@
       <c r="JN11" s="3">
         <v>64312</v>
       </c>
-      <c r="JO11" s="4">
+      <c r="JO11" s="3">
         <v>64608</v>
       </c>
+      <c r="JP11" s="4">
+        <v>64490</v>
+      </c>
     </row>
-    <row r="12" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8869,11 +8893,14 @@
       <c r="JN12" s="3">
         <v>20113</v>
       </c>
-      <c r="JO12" s="4">
+      <c r="JO12" s="3">
         <v>20258</v>
       </c>
+      <c r="JP12" s="4">
+        <v>20830</v>
+      </c>
     </row>
-    <row r="13" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -9696,11 +9723,14 @@
       <c r="JN13" s="3">
         <v>8853</v>
       </c>
-      <c r="JO13" s="4">
+      <c r="JO13" s="3">
         <v>8983</v>
       </c>
+      <c r="JP13" s="4">
+        <v>9122</v>
+      </c>
     </row>
-    <row r="14" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
@@ -10523,11 +10553,14 @@
       <c r="JN14" s="3">
         <v>78263</v>
       </c>
-      <c r="JO14" s="4">
+      <c r="JO14" s="3">
         <v>79762</v>
       </c>
+      <c r="JP14" s="4">
+        <v>79983</v>
+      </c>
     </row>
-    <row r="15" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -11350,11 +11383,14 @@
       <c r="JN15" s="3">
         <v>40870</v>
       </c>
-      <c r="JO15" s="4">
+      <c r="JO15" s="3">
         <v>42229</v>
       </c>
+      <c r="JP15" s="4">
+        <v>43940</v>
+      </c>
     </row>
-    <row r="16" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
@@ -12177,11 +12213,14 @@
       <c r="JN16" s="3">
         <v>26305</v>
       </c>
-      <c r="JO16" s="4">
+      <c r="JO16" s="3">
         <v>27173</v>
       </c>
+      <c r="JP16" s="4">
+        <v>27589</v>
+      </c>
     </row>
-    <row r="17" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
@@ -13004,11 +13043,14 @@
       <c r="JN17" s="3">
         <v>1482350</v>
       </c>
-      <c r="JO17" s="4">
+      <c r="JO17" s="3">
         <v>1499541</v>
       </c>
+      <c r="JP17" s="4">
+        <v>1505441</v>
+      </c>
     </row>
-    <row r="18" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -14037,7 +14079,7 @@
         <v>1810884</v>
       </c>
       <c r="IX18" s="8">
-        <f t="shared" ref="IX18:LJ18" si="4">SUM(IX6:IX17)</f>
+        <f t="shared" ref="IX18:JP18" si="4">SUM(IX6:IX17)</f>
         <v>1815607</v>
       </c>
       <c r="IY18" s="8">
@@ -14104,12 +14146,16 @@
         <f>SUM(JN6:JN17)</f>
         <v>1927647</v>
       </c>
-      <c r="JO18" s="13">
+      <c r="JO18" s="8">
+        <f>SUM(JO6:JO17)</f>
+        <v>1950941</v>
+      </c>
+      <c r="JP18" s="13">
         <f t="shared" si="4"/>
-        <v>1950941</v>
+        <v>1960510</v>
       </c>
     </row>
-    <row r="19" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
@@ -14387,8 +14433,9 @@
       <c r="JM19" s="3"/>
       <c r="JN19" s="3"/>
       <c r="JO19" s="3"/>
+      <c r="JP19" s="3"/>
     </row>
-    <row r="20" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1161,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JP20"/>
+  <dimension ref="A1:JQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JG28" sqref="JG28"/>
+      <selection pane="topRight" activeCell="JL24" sqref="JL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1422,17 +1422,17 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -2258,11 +2258,14 @@
       <c r="JO4" s="6">
         <v>2022</v>
       </c>
-      <c r="JP4" s="14">
+      <c r="JP4" s="6">
         <v>2022</v>
       </c>
+      <c r="JQ4" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -3086,11 +3089,14 @@
       <c r="JO5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="JP5" s="16" t="s">
+      <c r="JP5" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="JQ5" s="16" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -3916,11 +3922,14 @@
       <c r="JO6" s="3">
         <v>3065</v>
       </c>
-      <c r="JP6" s="4">
+      <c r="JP6" s="3">
         <v>3085</v>
       </c>
+      <c r="JQ6" s="4">
+        <v>2836</v>
+      </c>
     </row>
-    <row r="7" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -4746,11 +4755,14 @@
       <c r="JO7" s="3">
         <v>61653</v>
       </c>
-      <c r="JP7" s="4">
+      <c r="JP7" s="3">
         <v>61019</v>
       </c>
+      <c r="JQ7" s="4">
+        <v>60367</v>
+      </c>
     </row>
-    <row r="8" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -5576,11 +5588,14 @@
       <c r="JO8" s="3">
         <v>70025</v>
       </c>
-      <c r="JP8" s="4">
+      <c r="JP8" s="3">
         <v>70240</v>
       </c>
+      <c r="JQ8" s="4">
+        <v>69991</v>
+      </c>
     </row>
-    <row r="9" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -6406,11 +6421,14 @@
       <c r="JO9" s="3">
         <v>55492</v>
       </c>
-      <c r="JP9" s="4">
+      <c r="JP9" s="3">
         <v>56019</v>
       </c>
+      <c r="JQ9" s="4">
+        <v>55463</v>
+      </c>
     </row>
-    <row r="10" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
@@ -7236,11 +7254,14 @@
       <c r="JO10" s="3">
         <v>18152</v>
       </c>
-      <c r="JP10" s="4">
+      <c r="JP10" s="3">
         <v>18752</v>
       </c>
+      <c r="JQ10" s="4">
+        <v>18359</v>
+      </c>
     </row>
-    <row r="11" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -8066,11 +8087,14 @@
       <c r="JO11" s="3">
         <v>64608</v>
       </c>
-      <c r="JP11" s="4">
+      <c r="JP11" s="3">
         <v>64490</v>
       </c>
+      <c r="JQ11" s="4">
+        <v>62103</v>
+      </c>
     </row>
-    <row r="12" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8896,11 +8920,14 @@
       <c r="JO12" s="3">
         <v>20258</v>
       </c>
-      <c r="JP12" s="4">
+      <c r="JP12" s="3">
         <v>20830</v>
       </c>
+      <c r="JQ12" s="4">
+        <v>20212</v>
+      </c>
     </row>
-    <row r="13" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -9726,11 +9753,14 @@
       <c r="JO13" s="3">
         <v>8983</v>
       </c>
-      <c r="JP13" s="4">
+      <c r="JP13" s="3">
         <v>9122</v>
       </c>
+      <c r="JQ13" s="4">
+        <v>9355</v>
+      </c>
     </row>
-    <row r="14" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
@@ -10556,11 +10586,14 @@
       <c r="JO14" s="3">
         <v>79762</v>
       </c>
-      <c r="JP14" s="4">
+      <c r="JP14" s="3">
         <v>79983</v>
       </c>
+      <c r="JQ14" s="4">
+        <v>78468</v>
+      </c>
     </row>
-    <row r="15" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -11386,11 +11419,14 @@
       <c r="JO15" s="3">
         <v>42229</v>
       </c>
-      <c r="JP15" s="4">
+      <c r="JP15" s="3">
         <v>43940</v>
       </c>
+      <c r="JQ15" s="4">
+        <v>43953</v>
+      </c>
     </row>
-    <row r="16" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
@@ -12216,11 +12252,14 @@
       <c r="JO16" s="3">
         <v>27173</v>
       </c>
-      <c r="JP16" s="4">
+      <c r="JP16" s="3">
         <v>27589</v>
       </c>
+      <c r="JQ16" s="4">
+        <v>27127</v>
+      </c>
     </row>
-    <row r="17" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
@@ -13046,11 +13085,14 @@
       <c r="JO17" s="3">
         <v>1499541</v>
       </c>
-      <c r="JP17" s="4">
+      <c r="JP17" s="3">
         <v>1505441</v>
       </c>
+      <c r="JQ17" s="4">
+        <v>1484728</v>
+      </c>
     </row>
-    <row r="18" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -14079,7 +14121,7 @@
         <v>1810884</v>
       </c>
       <c r="IX18" s="8">
-        <f t="shared" ref="IX18:JP18" si="4">SUM(IX6:IX17)</f>
+        <f t="shared" ref="IX18:JQ18" si="4">SUM(IX6:IX17)</f>
         <v>1815607</v>
       </c>
       <c r="IY18" s="8">
@@ -14150,12 +14192,16 @@
         <f>SUM(JO6:JO17)</f>
         <v>1950941</v>
       </c>
-      <c r="JP18" s="13">
+      <c r="JP18" s="8">
+        <f>SUM(JP6:JP17)</f>
+        <v>1960510</v>
+      </c>
+      <c r="JQ18" s="13">
         <f t="shared" si="4"/>
-        <v>1960510</v>
+        <v>1932962</v>
       </c>
     </row>
-    <row r="19" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>29</v>
       </c>
@@ -14434,8 +14480,9 @@
       <c r="JN19" s="3"/>
       <c r="JO19" s="3"/>
       <c r="JP19" s="3"/>
+      <c r="JQ19" s="3"/>
     </row>
-    <row r="20" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -125,10 +125,10 @@
     <t>Valles</t>
   </si>
   <si>
-    <t>2000-2022</t>
+    <t>JALISCO</t>
   </si>
   <si>
-    <t>JALISCO</t>
+    <t>2000-2023</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -714,6 +714,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -760,7 +812,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -809,6 +861,14 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JQ20"/>
+  <dimension ref="A1:JR20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JL24" sqref="JL24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JU1" sqref="JU1:JW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1422,18 +1482,18 @@
     <col min="253" max="265" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:277" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:278" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2264,9 +2324,12 @@
       <c r="JQ4" s="14">
         <v>2022</v>
       </c>
+      <c r="JR4" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:277" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:278" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3095,8 +3158,11 @@
       <c r="JQ5" s="16" t="s">
         <v>26</v>
       </c>
+      <c r="JR5" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -3928,8 +3994,11 @@
       <c r="JQ6" s="4">
         <v>2836</v>
       </c>
+      <c r="JR6" s="28">
+        <v>3052</v>
+      </c>
     </row>
-    <row r="7" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -4761,8 +4830,11 @@
       <c r="JQ7" s="4">
         <v>60367</v>
       </c>
+      <c r="JR7" s="28">
+        <v>60563</v>
+      </c>
     </row>
-    <row r="8" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -5594,8 +5666,11 @@
       <c r="JQ8" s="4">
         <v>69991</v>
       </c>
+      <c r="JR8" s="28">
+        <v>70399</v>
+      </c>
     </row>
-    <row r="9" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -6427,8 +6502,11 @@
       <c r="JQ9" s="4">
         <v>55463</v>
       </c>
+      <c r="JR9" s="28">
+        <v>55962</v>
+      </c>
     </row>
-    <row r="10" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
@@ -7260,8 +7338,11 @@
       <c r="JQ10" s="4">
         <v>18359</v>
       </c>
+      <c r="JR10" s="28">
+        <v>18341</v>
+      </c>
     </row>
-    <row r="11" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -8093,8 +8174,11 @@
       <c r="JQ11" s="4">
         <v>62103</v>
       </c>
+      <c r="JR11" s="28">
+        <v>65231</v>
+      </c>
     </row>
-    <row r="12" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -8926,8 +9010,11 @@
       <c r="JQ12" s="4">
         <v>20212</v>
       </c>
+      <c r="JR12" s="28">
+        <v>20806</v>
+      </c>
     </row>
-    <row r="13" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -9759,8 +9846,11 @@
       <c r="JQ13" s="4">
         <v>9355</v>
       </c>
+      <c r="JR13" s="28">
+        <v>9444</v>
+      </c>
     </row>
-    <row r="14" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
@@ -10592,8 +10682,11 @@
       <c r="JQ14" s="4">
         <v>78468</v>
       </c>
+      <c r="JR14" s="28">
+        <v>79267</v>
+      </c>
     </row>
-    <row r="15" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -11425,8 +11518,11 @@
       <c r="JQ15" s="4">
         <v>43953</v>
       </c>
+      <c r="JR15" s="28">
+        <v>44970</v>
+      </c>
     </row>
-    <row r="16" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
@@ -12258,8 +12354,11 @@
       <c r="JQ16" s="4">
         <v>27127</v>
       </c>
+      <c r="JR16" s="28">
+        <v>28758</v>
+      </c>
     </row>
-    <row r="17" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
@@ -13091,8 +13190,11 @@
       <c r="JQ17" s="4">
         <v>1484728</v>
       </c>
+      <c r="JR17" s="28">
+        <v>1494463</v>
+      </c>
     </row>
-    <row r="18" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -14200,10 +14302,14 @@
         <f t="shared" si="4"/>
         <v>1932962</v>
       </c>
+      <c r="JR18" s="29">
+        <f t="shared" ref="JR18" si="5">SUM(JR6:JR17)</f>
+        <v>1951256</v>
+      </c>
     </row>
-    <row r="19" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="25"/>
@@ -14481,8 +14587,9 @@
       <c r="JO19" s="3"/>
       <c r="JP19" s="3"/>
       <c r="JQ19" s="3"/>
+      <c r="JR19" s="23"/>
     </row>
-    <row r="20" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B9592-922B-4110-878A-E5777E3E6900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,7 +813,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -875,6 +876,12 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,7 +918,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="42"/>
+    <cellStyle name="Normal 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1010,6 +1017,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1045,6 +1069,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,279 +1261,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JR20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JU1" sqref="JU1:JW1048576"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="265" width="12.375" customWidth="1"/>
+    <col min="253" max="265" width="12.42578125" customWidth="1"/>
+    <col min="279" max="279" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2327,8 +2369,11 @@
       <c r="JR4" s="26">
         <v>2023</v>
       </c>
+      <c r="JS4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -3161,8 +3206,11 @@
       <c r="JR5" s="27" t="s">
         <v>15</v>
       </c>
+      <c r="JS5" s="33" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -3997,8 +4045,11 @@
       <c r="JR6" s="28">
         <v>3052</v>
       </c>
+      <c r="JS6" s="28">
+        <v>3104</v>
+      </c>
     </row>
-    <row r="7" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -4833,8 +4884,11 @@
       <c r="JR7" s="28">
         <v>60563</v>
       </c>
+      <c r="JS7" s="28">
+        <v>60889</v>
+      </c>
     </row>
-    <row r="8" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -5669,8 +5723,11 @@
       <c r="JR8" s="28">
         <v>70399</v>
       </c>
+      <c r="JS8" s="28">
+        <v>71150</v>
+      </c>
     </row>
-    <row r="9" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -6505,8 +6562,11 @@
       <c r="JR9" s="28">
         <v>55962</v>
       </c>
+      <c r="JS9" s="28">
+        <v>56845</v>
+      </c>
     </row>
-    <row r="10" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
@@ -7341,8 +7401,11 @@
       <c r="JR10" s="28">
         <v>18341</v>
       </c>
+      <c r="JS10" s="28">
+        <v>18099</v>
+      </c>
     </row>
-    <row r="11" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -8177,8 +8240,11 @@
       <c r="JR11" s="28">
         <v>65231</v>
       </c>
+      <c r="JS11" s="28">
+        <v>64576</v>
+      </c>
     </row>
-    <row r="12" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -9013,8 +9079,11 @@
       <c r="JR12" s="28">
         <v>20806</v>
       </c>
+      <c r="JS12" s="28">
+        <v>21090</v>
+      </c>
     </row>
-    <row r="13" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -9849,8 +9918,11 @@
       <c r="JR13" s="28">
         <v>9444</v>
       </c>
+      <c r="JS13" s="28">
+        <v>9486</v>
+      </c>
     </row>
-    <row r="14" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
@@ -10685,8 +10757,11 @@
       <c r="JR14" s="28">
         <v>79267</v>
       </c>
+      <c r="JS14" s="28">
+        <v>79982</v>
+      </c>
     </row>
-    <row r="15" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -11521,8 +11596,11 @@
       <c r="JR15" s="28">
         <v>44970</v>
       </c>
+      <c r="JS15" s="28">
+        <v>45748</v>
+      </c>
     </row>
-    <row r="16" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
@@ -12357,8 +12435,11 @@
       <c r="JR16" s="28">
         <v>28758</v>
       </c>
+      <c r="JS16" s="28">
+        <v>29079</v>
+      </c>
     </row>
-    <row r="17" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
@@ -13193,8 +13274,11 @@
       <c r="JR17" s="28">
         <v>1494463</v>
       </c>
+      <c r="JS17" s="28">
+        <v>1504471</v>
+      </c>
     </row>
-    <row r="18" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -14303,11 +14387,15 @@
         <v>1932962</v>
       </c>
       <c r="JR18" s="29">
-        <f t="shared" ref="JR18" si="5">SUM(JR6:JR17)</f>
+        <f t="shared" ref="JR18:JS18" si="5">SUM(JR6:JR17)</f>
         <v>1951256</v>
       </c>
+      <c r="JS18" s="29">
+        <f t="shared" si="5"/>
+        <v>1964519</v>
+      </c>
     </row>
-    <row r="19" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -14589,7 +14677,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="23"/>
     </row>
-    <row r="20" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B9592-922B-4110-878A-E5777E3E6900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -135,7 +134,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,7 +771,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -812,8 +815,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -870,20 +874,21 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -916,9 +921,10 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="43" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 2" xfId="42"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1017,23 +1023,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1069,23 +1058,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1261,12 +1233,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JS20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:JT20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <pane xSplit="1" topLeftCell="JE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JQ19" sqref="JQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,20 +1494,21 @@
     <col min="252" max="252" width="13" customWidth="1"/>
     <col min="253" max="265" width="12.42578125" customWidth="1"/>
     <col min="279" max="279" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2369,12 +2342,15 @@
       <c r="JR4" s="26">
         <v>2023</v>
       </c>
-      <c r="JS4" s="32">
+      <c r="JS4" s="30">
         <v>2023</v>
       </c>
+      <c r="JT4" s="30">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3206,11 +3182,14 @@
       <c r="JR5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="JS5" s="33" t="s">
+      <c r="JS5" s="31" t="s">
         <v>16</v>
       </c>
+      <c r="JT5" s="31" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -4048,8 +4027,11 @@
       <c r="JS6" s="28">
         <v>3104</v>
       </c>
+      <c r="JT6" s="34">
+        <v>3163</v>
+      </c>
     </row>
-    <row r="7" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -4887,8 +4869,11 @@
       <c r="JS7" s="28">
         <v>60889</v>
       </c>
+      <c r="JT7" s="34">
+        <v>61646</v>
+      </c>
     </row>
-    <row r="8" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -5726,8 +5711,11 @@
       <c r="JS8" s="28">
         <v>71150</v>
       </c>
+      <c r="JT8" s="34">
+        <v>71673</v>
+      </c>
     </row>
-    <row r="9" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -6565,8 +6553,11 @@
       <c r="JS9" s="28">
         <v>56845</v>
       </c>
+      <c r="JT9" s="34">
+        <v>57162</v>
+      </c>
     </row>
-    <row r="10" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
@@ -7404,8 +7395,11 @@
       <c r="JS10" s="28">
         <v>18099</v>
       </c>
+      <c r="JT10" s="34">
+        <v>17942</v>
+      </c>
     </row>
-    <row r="11" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -8243,8 +8237,11 @@
       <c r="JS11" s="28">
         <v>64576</v>
       </c>
+      <c r="JT11" s="34">
+        <v>64148</v>
+      </c>
     </row>
-    <row r="12" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -9082,8 +9079,11 @@
       <c r="JS12" s="28">
         <v>21090</v>
       </c>
+      <c r="JT12" s="34">
+        <v>21058</v>
+      </c>
     </row>
-    <row r="13" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -9921,8 +9921,11 @@
       <c r="JS13" s="28">
         <v>9486</v>
       </c>
+      <c r="JT13" s="34">
+        <v>9448</v>
+      </c>
     </row>
-    <row r="14" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
@@ -10760,8 +10763,11 @@
       <c r="JS14" s="28">
         <v>79982</v>
       </c>
+      <c r="JT14" s="34">
+        <v>80010</v>
+      </c>
     </row>
-    <row r="15" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -11599,8 +11605,11 @@
       <c r="JS15" s="28">
         <v>45748</v>
       </c>
+      <c r="JT15" s="34">
+        <v>46375</v>
+      </c>
     </row>
-    <row r="16" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
@@ -12438,8 +12447,11 @@
       <c r="JS16" s="28">
         <v>29079</v>
       </c>
+      <c r="JT16" s="34">
+        <v>28647</v>
+      </c>
     </row>
-    <row r="17" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
@@ -13277,8 +13289,11 @@
       <c r="JS17" s="28">
         <v>1504471</v>
       </c>
+      <c r="JT17" s="34">
+        <v>1511443</v>
+      </c>
     </row>
-    <row r="18" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -14387,15 +14402,19 @@
         <v>1932962</v>
       </c>
       <c r="JR18" s="29">
-        <f t="shared" ref="JR18:JS18" si="5">SUM(JR6:JR17)</f>
+        <f t="shared" ref="JR18:JT18" si="5">SUM(JR6:JR17)</f>
         <v>1951256</v>
       </c>
       <c r="JS18" s="29">
         <f t="shared" si="5"/>
         <v>1964519</v>
       </c>
+      <c r="JT18" s="29">
+        <f t="shared" si="5"/>
+        <v>1972715</v>
+      </c>
     </row>
-    <row r="19" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -14677,7 +14696,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="23"/>
     </row>
-    <row r="20" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -135,10 +135,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -718,60 +714,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -815,9 +759,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -866,18 +809,13 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,9 +824,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -921,7 +870,6 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="43" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="42"/>
@@ -1234,281 +1182,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JT20"/>
+  <dimension ref="A1:JX20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JQ19" sqref="JQ19"/>
+      <pane xSplit="1" topLeftCell="JG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW11" sqref="JW11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="265" width="12.42578125" customWidth="1"/>
-    <col min="279" max="279" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="253" max="265" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:280" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:284" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2336,21 +2282,24 @@
       <c r="JP4" s="6">
         <v>2022</v>
       </c>
-      <c r="JQ4" s="14">
+      <c r="JQ4" s="6">
         <v>2022</v>
       </c>
-      <c r="JR4" s="26">
+      <c r="JR4" s="5">
         <v>2023</v>
       </c>
-      <c r="JS4" s="30">
+      <c r="JS4" s="6">
         <v>2023</v>
       </c>
-      <c r="JT4" s="30">
+      <c r="JT4" s="6">
         <v>2023</v>
       </c>
+      <c r="JU4" s="14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:284" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3176,20 +3125,23 @@
       <c r="JP5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="JQ5" s="16" t="s">
+      <c r="JQ5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="JR5" s="27" t="s">
+      <c r="JR5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="JS5" s="31" t="s">
+      <c r="JS5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="JT5" s="31" t="s">
+      <c r="JT5" s="36" t="s">
         <v>17</v>
       </c>
+      <c r="JU5" s="37" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -4018,20 +3970,23 @@
       <c r="JP6" s="3">
         <v>3085</v>
       </c>
-      <c r="JQ6" s="4">
+      <c r="JQ6" s="3">
         <v>2836</v>
       </c>
-      <c r="JR6" s="28">
+      <c r="JR6" s="38">
         <v>3052</v>
       </c>
-      <c r="JS6" s="28">
+      <c r="JS6" s="39">
         <v>3104</v>
       </c>
-      <c r="JT6" s="34">
+      <c r="JT6" s="39">
         <v>3163</v>
       </c>
+      <c r="JU6" s="40">
+        <v>2911</v>
+      </c>
     </row>
-    <row r="7" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -4860,20 +4815,23 @@
       <c r="JP7" s="3">
         <v>61019</v>
       </c>
-      <c r="JQ7" s="4">
+      <c r="JQ7" s="3">
         <v>60367</v>
       </c>
-      <c r="JR7" s="28">
+      <c r="JR7" s="2">
         <v>60563</v>
       </c>
-      <c r="JS7" s="28">
+      <c r="JS7" s="3">
         <v>60889</v>
       </c>
-      <c r="JT7" s="34">
+      <c r="JT7" s="3">
         <v>61646</v>
       </c>
+      <c r="JU7" s="4">
+        <v>61972</v>
+      </c>
     </row>
-    <row r="8" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -5702,20 +5660,23 @@
       <c r="JP8" s="3">
         <v>70240</v>
       </c>
-      <c r="JQ8" s="4">
+      <c r="JQ8" s="3">
         <v>69991</v>
       </c>
-      <c r="JR8" s="28">
+      <c r="JR8" s="2">
         <v>70399</v>
       </c>
-      <c r="JS8" s="28">
+      <c r="JS8" s="3">
         <v>71150</v>
       </c>
-      <c r="JT8" s="34">
+      <c r="JT8" s="3">
         <v>71673</v>
       </c>
+      <c r="JU8" s="4">
+        <v>71933</v>
+      </c>
     </row>
-    <row r="9" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
@@ -6544,20 +6505,24 @@
       <c r="JP9" s="3">
         <v>56019</v>
       </c>
-      <c r="JQ9" s="4">
+      <c r="JQ9" s="3">
         <v>55463</v>
       </c>
-      <c r="JR9" s="28">
+      <c r="JR9" s="2">
         <v>55962</v>
       </c>
-      <c r="JS9" s="28">
+      <c r="JS9" s="3">
         <v>56845</v>
       </c>
-      <c r="JT9" s="34">
+      <c r="JT9" s="3">
         <v>57162</v>
       </c>
+      <c r="JU9" s="4">
+        <v>57222</v>
+      </c>
+      <c r="JX9" s="32"/>
     </row>
-    <row r="10" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>10</v>
       </c>
@@ -7386,20 +7351,23 @@
       <c r="JP10" s="3">
         <v>18752</v>
       </c>
-      <c r="JQ10" s="4">
+      <c r="JQ10" s="3">
         <v>18359</v>
       </c>
-      <c r="JR10" s="28">
+      <c r="JR10" s="2">
         <v>18341</v>
       </c>
-      <c r="JS10" s="28">
+      <c r="JS10" s="3">
         <v>18099</v>
       </c>
-      <c r="JT10" s="34">
+      <c r="JT10" s="3">
         <v>17942</v>
       </c>
+      <c r="JU10" s="4">
+        <v>17040</v>
+      </c>
     </row>
-    <row r="11" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
@@ -8228,20 +8196,23 @@
       <c r="JP11" s="3">
         <v>64490</v>
       </c>
-      <c r="JQ11" s="4">
+      <c r="JQ11" s="3">
         <v>62103</v>
       </c>
-      <c r="JR11" s="28">
+      <c r="JR11" s="2">
         <v>65231</v>
       </c>
-      <c r="JS11" s="28">
+      <c r="JS11" s="3">
         <v>64576</v>
       </c>
-      <c r="JT11" s="34">
+      <c r="JT11" s="3">
         <v>64148</v>
       </c>
+      <c r="JU11" s="4">
+        <v>63911</v>
+      </c>
     </row>
-    <row r="12" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
@@ -9070,20 +9041,23 @@
       <c r="JP12" s="3">
         <v>20830</v>
       </c>
-      <c r="JQ12" s="4">
+      <c r="JQ12" s="3">
         <v>20212</v>
       </c>
-      <c r="JR12" s="28">
+      <c r="JR12" s="2">
         <v>20806</v>
       </c>
-      <c r="JS12" s="28">
+      <c r="JS12" s="3">
         <v>21090</v>
       </c>
-      <c r="JT12" s="34">
+      <c r="JT12" s="3">
         <v>21058</v>
       </c>
+      <c r="JU12" s="4">
+        <v>21058</v>
+      </c>
     </row>
-    <row r="13" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -9912,20 +9886,23 @@
       <c r="JP13" s="3">
         <v>9122</v>
       </c>
-      <c r="JQ13" s="4">
+      <c r="JQ13" s="3">
         <v>9355</v>
       </c>
-      <c r="JR13" s="28">
+      <c r="JR13" s="2">
         <v>9444</v>
       </c>
-      <c r="JS13" s="28">
+      <c r="JS13" s="3">
         <v>9486</v>
       </c>
-      <c r="JT13" s="34">
+      <c r="JT13" s="3">
         <v>9448</v>
       </c>
+      <c r="JU13" s="4">
+        <v>9317</v>
+      </c>
     </row>
-    <row r="14" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>4</v>
       </c>
@@ -10754,20 +10731,23 @@
       <c r="JP14" s="3">
         <v>79983</v>
       </c>
-      <c r="JQ14" s="4">
+      <c r="JQ14" s="3">
         <v>78468</v>
       </c>
-      <c r="JR14" s="28">
+      <c r="JR14" s="2">
         <v>79267</v>
       </c>
-      <c r="JS14" s="28">
+      <c r="JS14" s="3">
         <v>79982</v>
       </c>
-      <c r="JT14" s="34">
+      <c r="JT14" s="3">
         <v>80010</v>
       </c>
+      <c r="JU14" s="4">
+        <v>80515</v>
+      </c>
     </row>
-    <row r="15" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -11596,20 +11576,23 @@
       <c r="JP15" s="3">
         <v>43940</v>
       </c>
-      <c r="JQ15" s="4">
+      <c r="JQ15" s="3">
         <v>43953</v>
       </c>
-      <c r="JR15" s="28">
+      <c r="JR15" s="2">
         <v>44970</v>
       </c>
-      <c r="JS15" s="28">
+      <c r="JS15" s="3">
         <v>45748</v>
       </c>
-      <c r="JT15" s="34">
+      <c r="JT15" s="3">
         <v>46375</v>
       </c>
+      <c r="JU15" s="4">
+        <v>44494</v>
+      </c>
     </row>
-    <row r="16" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
@@ -12438,20 +12421,23 @@
       <c r="JP16" s="3">
         <v>27589</v>
       </c>
-      <c r="JQ16" s="4">
+      <c r="JQ16" s="3">
         <v>27127</v>
       </c>
-      <c r="JR16" s="28">
+      <c r="JR16" s="2">
         <v>28758</v>
       </c>
-      <c r="JS16" s="28">
+      <c r="JS16" s="3">
         <v>29079</v>
       </c>
-      <c r="JT16" s="34">
+      <c r="JT16" s="3">
         <v>28647</v>
       </c>
+      <c r="JU16" s="4">
+        <v>27749</v>
+      </c>
     </row>
-    <row r="17" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
@@ -13280,20 +13266,23 @@
       <c r="JP17" s="3">
         <v>1505441</v>
       </c>
-      <c r="JQ17" s="4">
+      <c r="JQ17" s="3">
         <v>1484728</v>
       </c>
-      <c r="JR17" s="28">
+      <c r="JR17" s="29">
         <v>1494463</v>
       </c>
-      <c r="JS17" s="28">
+      <c r="JS17" s="30">
         <v>1504471</v>
       </c>
-      <c r="JT17" s="34">
+      <c r="JT17" s="30">
         <v>1511443</v>
       </c>
+      <c r="JU17" s="31">
+        <v>1515080</v>
+      </c>
     </row>
-    <row r="18" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
@@ -14397,24 +14386,28 @@
         <f>SUM(JP6:JP17)</f>
         <v>1960510</v>
       </c>
-      <c r="JQ18" s="13">
+      <c r="JQ18" s="8">
         <f t="shared" si="4"/>
         <v>1932962</v>
       </c>
-      <c r="JR18" s="29">
-        <f t="shared" ref="JR18:JT18" si="5">SUM(JR6:JR17)</f>
+      <c r="JR18" s="26">
+        <f t="shared" ref="JR18:JS18" si="5">SUM(JR6:JR17)</f>
         <v>1951256</v>
       </c>
-      <c r="JS18" s="29">
+      <c r="JS18" s="27">
         <f t="shared" si="5"/>
         <v>1964519</v>
       </c>
-      <c r="JT18" s="29">
-        <f t="shared" si="5"/>
+      <c r="JT18" s="27">
+        <f>SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
+      <c r="JU18" s="28">
+        <f t="shared" ref="JU18" si="6">SUM(JU6:JU17)</f>
+        <v>1973202</v>
+      </c>
     </row>
-    <row r="19" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
@@ -14696,7 +14689,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="23"/>
     </row>
-    <row r="20" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2994AAC-F91C-4C0F-B5CC-CAB2CE545B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -134,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,11 +772,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,7 +802,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,9 +817,7 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -817,12 +826,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,6 +839,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,7 +881,7 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="42"/>
+    <cellStyle name="Normal 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -971,6 +980,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1006,6 +1032,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1181,280 +1224,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JX20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JY20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JW11" sqref="JW11"/>
+      <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JI3" sqref="JI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="265" width="12.33203125" customWidth="1"/>
+    <col min="253" max="265" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2294,12 +2337,15 @@
       <c r="JT4" s="6">
         <v>2023</v>
       </c>
-      <c r="JU4" s="14">
+      <c r="JU4" s="6">
         <v>2023</v>
       </c>
+      <c r="JV4" s="14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2333,7 +2379,7 @@
       <c r="L5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="9" t="s">
@@ -2369,7 +2415,7 @@
       <c r="X5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Y5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="Z5" s="9" t="s">
@@ -2405,7 +2451,7 @@
       <c r="AJ5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="21" t="s">
+      <c r="AK5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="AL5" s="9" t="s">
@@ -2441,7 +2487,7 @@
       <c r="AV5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="21" t="s">
+      <c r="AW5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="AX5" s="9" t="s">
@@ -2477,7 +2523,7 @@
       <c r="BH5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="21" t="s">
+      <c r="BI5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="BJ5" s="9" t="s">
@@ -2513,7 +2559,7 @@
       <c r="BT5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="21" t="s">
+      <c r="BU5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="BV5" s="9" t="s">
@@ -2549,7 +2595,7 @@
       <c r="CF5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="CG5" s="21" t="s">
+      <c r="CG5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="CH5" s="9" t="s">
@@ -2585,7 +2631,7 @@
       <c r="CR5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="CS5" s="21" t="s">
+      <c r="CS5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="CT5" s="9" t="s">
@@ -2621,7 +2667,7 @@
       <c r="DD5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="DE5" s="21" t="s">
+      <c r="DE5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="DF5" s="9" t="s">
@@ -2657,7 +2703,7 @@
       <c r="DP5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="DQ5" s="21" t="s">
+      <c r="DQ5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="DR5" s="9" t="s">
@@ -2693,7 +2739,7 @@
       <c r="EB5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="EC5" s="21" t="s">
+      <c r="EC5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="ED5" s="9" t="s">
@@ -2729,7 +2775,7 @@
       <c r="EN5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="EO5" s="21" t="s">
+      <c r="EO5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="EP5" s="9" t="s">
@@ -2765,7 +2811,7 @@
       <c r="EZ5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="FA5" s="21" t="s">
+      <c r="FA5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="FB5" s="9" t="s">
@@ -2801,7 +2847,7 @@
       <c r="FL5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="FM5" s="21" t="s">
+      <c r="FM5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="FN5" s="9" t="s">
@@ -2837,7 +2883,7 @@
       <c r="FX5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="FY5" s="21" t="s">
+      <c r="FY5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="FZ5" s="9" t="s">
@@ -2873,7 +2919,7 @@
       <c r="GJ5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="GK5" s="21" t="s">
+      <c r="GK5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="GL5" s="9" t="s">
@@ -2909,7 +2955,7 @@
       <c r="GV5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="GW5" s="21" t="s">
+      <c r="GW5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="GX5" s="9" t="s">
@@ -2945,7 +2991,7 @@
       <c r="HH5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="HI5" s="21" t="s">
+      <c r="HI5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="HJ5" s="9" t="s">
@@ -2981,7 +3027,7 @@
       <c r="HT5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="HU5" s="21" t="s">
+      <c r="HU5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="HV5" s="9" t="s">
@@ -3017,19 +3063,19 @@
       <c r="IF5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="IG5" s="16" t="s">
+      <c r="IG5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="IH5" s="22" t="s">
+      <c r="IH5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="II5" s="17" t="s">
+      <c r="II5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="IJ5" s="17" t="s">
+      <c r="IJ5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="IK5" s="17" t="s">
+      <c r="IK5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="IL5" s="10" t="s">
@@ -3053,7 +3099,7 @@
       <c r="IR5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="IS5" s="16" t="s">
+      <c r="IS5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="IT5" s="11" t="s">
@@ -3089,7 +3135,7 @@
       <c r="JD5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="JE5" s="16" t="s">
+      <c r="JE5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="JF5" s="11" t="s">
@@ -3128,21 +3174,24 @@
       <c r="JQ5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="JR5" s="35" t="s">
+      <c r="JR5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS5" s="36" t="s">
+      <c r="JS5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="JT5" s="36" t="s">
+      <c r="JT5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="JU5" s="37" t="s">
+      <c r="JU5" s="31" t="s">
         <v>18</v>
       </c>
+      <c r="JV5" s="32" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
@@ -3973,21 +4022,24 @@
       <c r="JQ6" s="3">
         <v>2836</v>
       </c>
-      <c r="JR6" s="38">
+      <c r="JR6" s="33">
         <v>3052</v>
       </c>
-      <c r="JS6" s="39">
+      <c r="JS6" s="34">
         <v>3104</v>
       </c>
-      <c r="JT6" s="39">
+      <c r="JT6" s="34">
         <v>3163</v>
       </c>
-      <c r="JU6" s="40">
+      <c r="JU6" s="34">
         <v>2911</v>
       </c>
+      <c r="JV6" s="35">
+        <v>3190</v>
+      </c>
     </row>
-    <row r="7" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2">
@@ -4827,12 +4879,15 @@
       <c r="JT7" s="3">
         <v>61646</v>
       </c>
-      <c r="JU7" s="4">
+      <c r="JU7" s="3">
         <v>61972</v>
       </c>
+      <c r="JV7" s="4">
+        <v>61691</v>
+      </c>
     </row>
-    <row r="8" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2">
@@ -5672,12 +5727,15 @@
       <c r="JT8" s="3">
         <v>71673</v>
       </c>
-      <c r="JU8" s="4">
+      <c r="JU8" s="3">
         <v>71933</v>
       </c>
+      <c r="JV8" s="4">
+        <v>72580</v>
+      </c>
     </row>
-    <row r="9" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
@@ -6517,13 +6575,16 @@
       <c r="JT9" s="3">
         <v>57162</v>
       </c>
-      <c r="JU9" s="4">
+      <c r="JU9" s="3">
         <v>57222</v>
       </c>
-      <c r="JX9" s="32"/>
+      <c r="JV9" s="4">
+        <v>57760</v>
+      </c>
+      <c r="JY9" s="29"/>
     </row>
-    <row r="10" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -7363,12 +7424,15 @@
       <c r="JT10" s="3">
         <v>17942</v>
       </c>
-      <c r="JU10" s="4">
+      <c r="JU10" s="3">
         <v>17040</v>
       </c>
+      <c r="JV10" s="4">
+        <v>16528</v>
+      </c>
     </row>
-    <row r="11" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -8208,12 +8272,15 @@
       <c r="JT11" s="3">
         <v>64148</v>
       </c>
-      <c r="JU11" s="4">
+      <c r="JU11" s="3">
         <v>63911</v>
       </c>
+      <c r="JV11" s="4">
+        <v>63151</v>
+      </c>
     </row>
-    <row r="12" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -9053,12 +9120,15 @@
       <c r="JT12" s="3">
         <v>21058</v>
       </c>
-      <c r="JU12" s="4">
+      <c r="JU12" s="3">
         <v>21058</v>
       </c>
+      <c r="JV12" s="4">
+        <v>21251</v>
+      </c>
     </row>
-    <row r="13" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -9898,12 +9968,15 @@
       <c r="JT13" s="3">
         <v>9448</v>
       </c>
-      <c r="JU13" s="4">
+      <c r="JU13" s="3">
         <v>9317</v>
       </c>
+      <c r="JV13" s="4">
+        <v>9165</v>
+      </c>
     </row>
-    <row r="14" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2">
@@ -10743,12 +10816,15 @@
       <c r="JT14" s="3">
         <v>80010</v>
       </c>
-      <c r="JU14" s="4">
+      <c r="JU14" s="3">
         <v>80515</v>
       </c>
+      <c r="JV14" s="4">
+        <v>80561</v>
+      </c>
     </row>
-    <row r="15" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2">
@@ -11588,12 +11664,15 @@
       <c r="JT15" s="3">
         <v>46375</v>
       </c>
-      <c r="JU15" s="4">
+      <c r="JU15" s="3">
         <v>44494</v>
       </c>
+      <c r="JV15" s="4">
+        <v>42862</v>
+      </c>
     </row>
-    <row r="16" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2">
@@ -12433,12 +12512,15 @@
       <c r="JT16" s="3">
         <v>28647</v>
       </c>
-      <c r="JU16" s="4">
+      <c r="JU16" s="3">
         <v>27749</v>
       </c>
+      <c r="JV16" s="4">
+        <v>27813</v>
+      </c>
     </row>
-    <row r="17" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:282" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2">
@@ -13269,21 +13351,24 @@
       <c r="JQ17" s="3">
         <v>1484728</v>
       </c>
-      <c r="JR17" s="29">
+      <c r="JR17" s="26">
         <v>1494463</v>
       </c>
-      <c r="JS17" s="30">
+      <c r="JS17" s="27">
         <v>1504471</v>
       </c>
-      <c r="JT17" s="30">
+      <c r="JT17" s="27">
         <v>1511443</v>
       </c>
-      <c r="JU17" s="31">
+      <c r="JU17" s="27">
         <v>1515080</v>
       </c>
+      <c r="JV17" s="28">
+        <v>1518013</v>
+      </c>
     </row>
-    <row r="18" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:282" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
@@ -14390,29 +14475,33 @@
         <f t="shared" si="4"/>
         <v>1932962</v>
       </c>
-      <c r="JR18" s="26">
+      <c r="JR18" s="23">
         <f t="shared" ref="JR18:JS18" si="5">SUM(JR6:JR17)</f>
         <v>1951256</v>
       </c>
-      <c r="JS18" s="27">
+      <c r="JS18" s="24">
         <f t="shared" si="5"/>
         <v>1964519</v>
       </c>
-      <c r="JT18" s="27">
+      <c r="JT18" s="24">
         <f>SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
-      <c r="JU18" s="28">
-        <f t="shared" ref="JU18" si="6">SUM(JU6:JU17)</f>
+      <c r="JU18" s="24">
+        <f>SUM(JU6:JU17)</f>
         <v>1973202</v>
       </c>
+      <c r="JV18" s="25">
+        <f t="shared" ref="JV18" si="6">SUM(JV6:JV17)</f>
+        <v>1974565</v>
+      </c>
     </row>
-    <row r="19" spans="1:281" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:282" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="25"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -14434,14 +14523,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="25"/>
+      <c r="Y19" s="22"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="25"/>
+      <c r="AF19" s="22"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
@@ -14569,7 +14658,7 @@
       <c r="FA19" s="3"/>
       <c r="FB19" s="3"/>
       <c r="FC19" s="3"/>
-      <c r="FD19" s="24"/>
+      <c r="FD19" s="3"/>
       <c r="FE19" s="3"/>
       <c r="FF19" s="3"/>
       <c r="FG19" s="3"/>
@@ -14675,7 +14764,7 @@
       <c r="JC19" s="3"/>
       <c r="JD19" s="3"/>
       <c r="JE19" s="3"/>
-      <c r="JF19" s="23"/>
+      <c r="JF19" s="22"/>
       <c r="JG19" s="3"/>
       <c r="JH19" s="3"/>
       <c r="JI19" s="3"/>
@@ -14687,9 +14776,9 @@
       <c r="JO19" s="3"/>
       <c r="JP19" s="3"/>
       <c r="JQ19" s="3"/>
-      <c r="JR19" s="23"/>
+      <c r="JR19" s="22"/>
     </row>
-    <row r="20" spans="1:281" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:282" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2994AAC-F91C-4C0F-B5CC-CAB2CE545B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53903A1-4CA4-496A-A3F5-E2A1C06CE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -905,9 +905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -945,9 +945,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,26 +980,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1032,26 +1015,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1225,278 +1191,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JY20"/>
+  <dimension ref="A1:JZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI3" sqref="JI3"/>
+      <selection pane="topRight" activeCell="JQ30" sqref="JQ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="265" width="12.28515625" customWidth="1"/>
+    <col min="253" max="265" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
@@ -2340,11 +2306,14 @@
       <c r="JU4" s="6">
         <v>2023</v>
       </c>
-      <c r="JV4" s="14">
+      <c r="JV4" s="6">
         <v>2023</v>
       </c>
+      <c r="JW4" s="14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -3186,11 +3155,14 @@
       <c r="JU5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="JV5" s="32" t="s">
+      <c r="JV5" s="31" t="s">
         <v>19</v>
       </c>
+      <c r="JW5" s="32" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
@@ -4034,11 +4006,14 @@
       <c r="JU6" s="34">
         <v>2911</v>
       </c>
-      <c r="JV6" s="35">
+      <c r="JV6" s="34">
         <v>3190</v>
       </c>
+      <c r="JW6" s="35">
+        <v>3253</v>
+      </c>
     </row>
-    <row r="7" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
@@ -4882,11 +4857,14 @@
       <c r="JU7" s="3">
         <v>61972</v>
       </c>
-      <c r="JV7" s="4">
+      <c r="JV7" s="3">
         <v>61691</v>
       </c>
+      <c r="JW7" s="4">
+        <v>62948</v>
+      </c>
     </row>
-    <row r="8" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
@@ -5730,11 +5708,14 @@
       <c r="JU8" s="3">
         <v>71933</v>
       </c>
-      <c r="JV8" s="4">
+      <c r="JV8" s="3">
         <v>72580</v>
       </c>
+      <c r="JW8" s="4">
+        <v>72661</v>
+      </c>
     </row>
-    <row r="9" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
@@ -6578,12 +6559,15 @@
       <c r="JU9" s="3">
         <v>57222</v>
       </c>
-      <c r="JV9" s="4">
+      <c r="JV9" s="3">
         <v>57760</v>
       </c>
-      <c r="JY9" s="29"/>
+      <c r="JW9" s="4">
+        <v>57677</v>
+      </c>
+      <c r="JZ9" s="29"/>
     </row>
-    <row r="10" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -7427,11 +7411,14 @@
       <c r="JU10" s="3">
         <v>17040</v>
       </c>
-      <c r="JV10" s="4">
+      <c r="JV10" s="3">
         <v>16528</v>
       </c>
+      <c r="JW10" s="4">
+        <v>15866</v>
+      </c>
     </row>
-    <row r="11" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -8275,11 +8262,14 @@
       <c r="JU11" s="3">
         <v>63911</v>
       </c>
-      <c r="JV11" s="4">
+      <c r="JV11" s="3">
         <v>63151</v>
       </c>
+      <c r="JW11" s="4">
+        <v>62025</v>
+      </c>
     </row>
-    <row r="12" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -9123,11 +9113,14 @@
       <c r="JU12" s="3">
         <v>21058</v>
       </c>
-      <c r="JV12" s="4">
+      <c r="JV12" s="3">
         <v>21251</v>
       </c>
+      <c r="JW12" s="4">
+        <v>21883</v>
+      </c>
     </row>
-    <row r="13" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>5</v>
       </c>
@@ -9971,11 +9964,14 @@
       <c r="JU13" s="3">
         <v>9317</v>
       </c>
-      <c r="JV13" s="4">
+      <c r="JV13" s="3">
         <v>9165</v>
       </c>
+      <c r="JW13" s="4">
+        <v>9074</v>
+      </c>
     </row>
-    <row r="14" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
@@ -10819,11 +10815,14 @@
       <c r="JU14" s="3">
         <v>80515</v>
       </c>
-      <c r="JV14" s="4">
+      <c r="JV14" s="3">
         <v>80561</v>
       </c>
+      <c r="JW14" s="4">
+        <v>80983</v>
+      </c>
     </row>
-    <row r="15" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
@@ -11667,11 +11666,14 @@
       <c r="JU15" s="3">
         <v>44494</v>
       </c>
-      <c r="JV15" s="4">
+      <c r="JV15" s="3">
         <v>42862</v>
       </c>
+      <c r="JW15" s="4">
+        <v>41911</v>
+      </c>
     </row>
-    <row r="16" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
@@ -12515,11 +12517,14 @@
       <c r="JU16" s="3">
         <v>27749</v>
       </c>
-      <c r="JV16" s="4">
+      <c r="JV16" s="3">
         <v>27813</v>
       </c>
+      <c r="JW16" s="4">
+        <v>28114</v>
+      </c>
     </row>
-    <row r="17" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:283" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -13363,11 +13368,14 @@
       <c r="JU17" s="27">
         <v>1515080</v>
       </c>
-      <c r="JV17" s="28">
+      <c r="JV17" s="27">
         <v>1518013</v>
       </c>
+      <c r="JW17" s="28">
+        <v>1524395</v>
+      </c>
     </row>
-    <row r="18" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:283" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
@@ -14491,12 +14499,16 @@
         <f>SUM(JU6:JU17)</f>
         <v>1973202</v>
       </c>
-      <c r="JV18" s="25">
-        <f t="shared" ref="JV18" si="6">SUM(JV6:JV17)</f>
+      <c r="JV18" s="24">
+        <f>SUM(JV6:JV17)</f>
         <v>1974565</v>
       </c>
+      <c r="JW18" s="25">
+        <f t="shared" ref="JW18" si="6">SUM(JW6:JW17)</f>
+        <v>1980790</v>
+      </c>
     </row>
-    <row r="19" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:283" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14778,7 +14790,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="22"/>
     </row>
-    <row r="20" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:283" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53903A1-4CA4-496A-A3F5-E2A1C06CE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC61D7-EBA7-4345-B0F7-E718EF43FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="30">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -494,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -726,6 +726,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -772,7 +787,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -820,10 +835,8 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,7 +851,8 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,11 +1205,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JZ20"/>
+  <dimension ref="A1:KA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JQ30" sqref="JQ30"/>
+      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JO20" sqref="JO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,18 +1466,18 @@
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:286" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2309,12 +2323,15 @@
       <c r="JV4" s="6">
         <v>2023</v>
       </c>
-      <c r="JW4" s="14">
+      <c r="JW4" s="6">
         <v>2023</v>
       </c>
+      <c r="JX4" s="14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:286" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
@@ -3143,26 +3160,29 @@
       <c r="JQ5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="JR5" s="30" t="s">
+      <c r="JR5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS5" s="31" t="s">
+      <c r="JS5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="JT5" s="31" t="s">
+      <c r="JT5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="JU5" s="31" t="s">
+      <c r="JU5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="JV5" s="31" t="s">
+      <c r="JV5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="JW5" s="32" t="s">
+      <c r="JW5" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="JX5" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
@@ -3994,26 +4014,29 @@
       <c r="JQ6" s="3">
         <v>2836</v>
       </c>
-      <c r="JR6" s="33">
+      <c r="JR6" s="31">
         <v>3052</v>
       </c>
-      <c r="JS6" s="34">
+      <c r="JS6" s="32">
         <v>3104</v>
       </c>
-      <c r="JT6" s="34">
+      <c r="JT6" s="32">
         <v>3163</v>
       </c>
-      <c r="JU6" s="34">
+      <c r="JU6" s="32">
         <v>2911</v>
       </c>
-      <c r="JV6" s="34">
+      <c r="JV6" s="32">
         <v>3190</v>
       </c>
-      <c r="JW6" s="35">
+      <c r="JW6" s="32">
         <v>3253</v>
       </c>
+      <c r="JX6" s="34">
+        <v>2645</v>
+      </c>
     </row>
-    <row r="7" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
@@ -4860,11 +4883,14 @@
       <c r="JV7" s="3">
         <v>61691</v>
       </c>
-      <c r="JW7" s="4">
+      <c r="JW7" s="3">
         <v>62948</v>
       </c>
+      <c r="JX7" s="34">
+        <v>62209</v>
+      </c>
     </row>
-    <row r="8" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
@@ -5711,11 +5737,14 @@
       <c r="JV8" s="3">
         <v>72580</v>
       </c>
-      <c r="JW8" s="4">
+      <c r="JW8" s="3">
         <v>72661</v>
       </c>
+      <c r="JX8" s="34">
+        <v>72900</v>
+      </c>
     </row>
-    <row r="9" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
@@ -6562,12 +6591,15 @@
       <c r="JV9" s="3">
         <v>57760</v>
       </c>
-      <c r="JW9" s="4">
+      <c r="JW9" s="3">
         <v>57677</v>
       </c>
-      <c r="JZ9" s="29"/>
+      <c r="JX9" s="34">
+        <v>57753</v>
+      </c>
+      <c r="KA9" s="27"/>
     </row>
-    <row r="10" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
@@ -7414,11 +7446,14 @@
       <c r="JV10" s="3">
         <v>16528</v>
       </c>
-      <c r="JW10" s="4">
+      <c r="JW10" s="3">
         <v>15866</v>
       </c>
+      <c r="JX10" s="34">
+        <v>15345</v>
+      </c>
     </row>
-    <row r="11" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
@@ -8265,11 +8300,14 @@
       <c r="JV11" s="3">
         <v>63151</v>
       </c>
-      <c r="JW11" s="4">
+      <c r="JW11" s="3">
         <v>62025</v>
       </c>
+      <c r="JX11" s="34">
+        <v>59359</v>
+      </c>
     </row>
-    <row r="12" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -9116,11 +9154,14 @@
       <c r="JV12" s="3">
         <v>21251</v>
       </c>
-      <c r="JW12" s="4">
+      <c r="JW12" s="3">
         <v>21883</v>
       </c>
+      <c r="JX12" s="34">
+        <v>22416</v>
+      </c>
     </row>
-    <row r="13" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>5</v>
       </c>
@@ -9967,11 +10008,14 @@
       <c r="JV13" s="3">
         <v>9165</v>
       </c>
-      <c r="JW13" s="4">
+      <c r="JW13" s="3">
         <v>9074</v>
       </c>
+      <c r="JX13" s="34">
+        <v>8922</v>
+      </c>
     </row>
-    <row r="14" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
@@ -10818,11 +10862,14 @@
       <c r="JV14" s="3">
         <v>80561</v>
       </c>
-      <c r="JW14" s="4">
+      <c r="JW14" s="3">
         <v>80983</v>
       </c>
+      <c r="JX14" s="34">
+        <v>81265</v>
+      </c>
     </row>
-    <row r="15" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
@@ -11669,11 +11716,14 @@
       <c r="JV15" s="3">
         <v>42862</v>
       </c>
-      <c r="JW15" s="4">
+      <c r="JW15" s="3">
         <v>41911</v>
       </c>
+      <c r="JX15" s="34">
+        <v>43076</v>
+      </c>
     </row>
-    <row r="16" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
@@ -12520,11 +12570,14 @@
       <c r="JV16" s="3">
         <v>27813</v>
       </c>
-      <c r="JW16" s="4">
+      <c r="JW16" s="3">
         <v>28114</v>
       </c>
+      <c r="JX16" s="34">
+        <v>27478</v>
+      </c>
     </row>
-    <row r="17" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
@@ -13356,26 +13409,29 @@
       <c r="JQ17" s="3">
         <v>1484728</v>
       </c>
-      <c r="JR17" s="26">
+      <c r="JR17" s="25">
         <v>1494463</v>
       </c>
-      <c r="JS17" s="27">
+      <c r="JS17" s="26">
         <v>1504471</v>
       </c>
-      <c r="JT17" s="27">
+      <c r="JT17" s="26">
         <v>1511443</v>
       </c>
-      <c r="JU17" s="27">
+      <c r="JU17" s="26">
         <v>1515080</v>
       </c>
-      <c r="JV17" s="27">
+      <c r="JV17" s="26">
         <v>1518013</v>
       </c>
-      <c r="JW17" s="28">
+      <c r="JW17" s="26">
         <v>1524395</v>
       </c>
+      <c r="JX17" s="34">
+        <v>1527778</v>
+      </c>
     </row>
-    <row r="18" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
@@ -14503,12 +14559,16 @@
         <f>SUM(JV6:JV17)</f>
         <v>1974565</v>
       </c>
-      <c r="JW18" s="25">
-        <f t="shared" ref="JW18" si="6">SUM(JW6:JW17)</f>
+      <c r="JW18" s="24">
+        <f>SUM(JW6:JW17)</f>
         <v>1980790</v>
       </c>
+      <c r="JX18" s="33">
+        <f>SUM(JX6:JX17)</f>
+        <v>1981146</v>
+      </c>
     </row>
-    <row r="19" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -14790,7 +14850,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="22"/>
     </row>
-    <row r="20" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC61D7-EBA7-4345-B0F7-E718EF43FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56526E9C-84F1-4C7B-ACF2-22C16532FAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Valles</t>
-  </si>
-  <si>
-    <t>JALISCO</t>
   </si>
   <si>
     <t>2000-2023</t>
@@ -494,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -709,36 +706,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -787,7 +758,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -801,37 +772,13 @@
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -851,13 +798,27 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1205,11 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KA20"/>
+  <dimension ref="A1:KB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JO20" sqref="JO20"/>
+      <selection pane="topRight" activeCell="JU29" sqref="JU29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,18 +1427,18 @@
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -1513,7 +1474,7 @@
       <c r="L4" s="6">
         <v>2000</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="10">
         <v>2000</v>
       </c>
       <c r="N4" s="5">
@@ -1549,7 +1510,7 @@
       <c r="X4" s="6">
         <v>2001</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="10">
         <v>2001</v>
       </c>
       <c r="Z4" s="5">
@@ -1585,7 +1546,7 @@
       <c r="AJ4" s="6">
         <v>2002</v>
       </c>
-      <c r="AK4" s="14">
+      <c r="AK4" s="10">
         <v>2002</v>
       </c>
       <c r="AL4" s="5">
@@ -1621,7 +1582,7 @@
       <c r="AV4" s="6">
         <v>2003</v>
       </c>
-      <c r="AW4" s="14">
+      <c r="AW4" s="10">
         <v>2003</v>
       </c>
       <c r="AX4" s="5">
@@ -1657,7 +1618,7 @@
       <c r="BH4" s="6">
         <v>2004</v>
       </c>
-      <c r="BI4" s="14">
+      <c r="BI4" s="10">
         <v>2004</v>
       </c>
       <c r="BJ4" s="5">
@@ -1693,7 +1654,7 @@
       <c r="BT4" s="6">
         <v>2005</v>
       </c>
-      <c r="BU4" s="14">
+      <c r="BU4" s="10">
         <v>2005</v>
       </c>
       <c r="BV4" s="5">
@@ -1729,7 +1690,7 @@
       <c r="CF4" s="6">
         <v>2006</v>
       </c>
-      <c r="CG4" s="14">
+      <c r="CG4" s="10">
         <v>2006</v>
       </c>
       <c r="CH4" s="5">
@@ -1765,7 +1726,7 @@
       <c r="CR4" s="6">
         <v>2007</v>
       </c>
-      <c r="CS4" s="14">
+      <c r="CS4" s="10">
         <v>2007</v>
       </c>
       <c r="CT4" s="5">
@@ -1801,7 +1762,7 @@
       <c r="DD4" s="6">
         <v>2008</v>
       </c>
-      <c r="DE4" s="14">
+      <c r="DE4" s="10">
         <v>2008</v>
       </c>
       <c r="DF4" s="5">
@@ -1837,7 +1798,7 @@
       <c r="DP4" s="6">
         <v>2009</v>
       </c>
-      <c r="DQ4" s="14">
+      <c r="DQ4" s="10">
         <v>2009</v>
       </c>
       <c r="DR4" s="5">
@@ -1873,7 +1834,7 @@
       <c r="EB4" s="6">
         <v>2010</v>
       </c>
-      <c r="EC4" s="14">
+      <c r="EC4" s="10">
         <v>2010</v>
       </c>
       <c r="ED4" s="5">
@@ -1909,7 +1870,7 @@
       <c r="EN4" s="6">
         <v>2011</v>
       </c>
-      <c r="EO4" s="14">
+      <c r="EO4" s="10">
         <v>2011</v>
       </c>
       <c r="EP4" s="5">
@@ -1945,7 +1906,7 @@
       <c r="EZ4" s="6">
         <v>2012</v>
       </c>
-      <c r="FA4" s="14">
+      <c r="FA4" s="10">
         <v>2012</v>
       </c>
       <c r="FB4" s="5">
@@ -1981,7 +1942,7 @@
       <c r="FL4" s="6">
         <v>2013</v>
       </c>
-      <c r="FM4" s="14">
+      <c r="FM4" s="10">
         <v>2013</v>
       </c>
       <c r="FN4" s="5">
@@ -2017,7 +1978,7 @@
       <c r="FX4" s="6">
         <v>2014</v>
       </c>
-      <c r="FY4" s="14">
+      <c r="FY4" s="10">
         <v>2014</v>
       </c>
       <c r="FZ4" s="5">
@@ -2053,7 +2014,7 @@
       <c r="GJ4" s="6">
         <v>2015</v>
       </c>
-      <c r="GK4" s="14">
+      <c r="GK4" s="10">
         <v>2015</v>
       </c>
       <c r="GL4" s="5">
@@ -2089,7 +2050,7 @@
       <c r="GV4" s="6">
         <v>2016</v>
       </c>
-      <c r="GW4" s="14">
+      <c r="GW4" s="10">
         <v>2016</v>
       </c>
       <c r="GX4" s="5">
@@ -2125,7 +2086,7 @@
       <c r="HH4" s="6">
         <v>2017</v>
       </c>
-      <c r="HI4" s="14">
+      <c r="HI4" s="10">
         <v>2017</v>
       </c>
       <c r="HJ4" s="5">
@@ -2161,7 +2122,7 @@
       <c r="HT4" s="6">
         <v>2018</v>
       </c>
-      <c r="HU4" s="14">
+      <c r="HU4" s="10">
         <v>2018</v>
       </c>
       <c r="HV4" s="5">
@@ -2197,7 +2158,7 @@
       <c r="IF4" s="6">
         <v>2019</v>
       </c>
-      <c r="IG4" s="14">
+      <c r="IG4" s="10">
         <v>2019</v>
       </c>
       <c r="IH4" s="5">
@@ -2233,7 +2194,7 @@
       <c r="IR4" s="6">
         <v>2020</v>
       </c>
-      <c r="IS4" s="14">
+      <c r="IS4" s="10">
         <v>2020</v>
       </c>
       <c r="IT4" s="5">
@@ -2269,7 +2230,7 @@
       <c r="JD4" s="6">
         <v>2021</v>
       </c>
-      <c r="JE4" s="14">
+      <c r="JE4" s="10">
         <v>2021</v>
       </c>
       <c r="JF4" s="5">
@@ -2326,864 +2287,870 @@
       <c r="JW4" s="6">
         <v>2023</v>
       </c>
-      <c r="JX4" s="14">
+      <c r="JX4" s="6">
         <v>2023</v>
       </c>
+      <c r="JY4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AH5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AJ5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="20" t="s">
+      <c r="AK5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AL5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AM5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AN5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AO5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AP5" s="10" t="s">
+      <c r="AP5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AQ5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="10" t="s">
+      <c r="AR5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AS5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AU5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="20" t="s">
+      <c r="AW5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AX5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AZ5" s="10" t="s">
+      <c r="AZ5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BA5" s="10" t="s">
+      <c r="BA5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="BB5" s="10" t="s">
+      <c r="BB5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BC5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BE5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="BG5" s="10" t="s">
+      <c r="BG5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="BH5" s="10" t="s">
+      <c r="BH5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="20" t="s">
+      <c r="BI5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BJ5" s="9" t="s">
+      <c r="BJ5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="BK5" s="10" t="s">
+      <c r="BK5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BL5" s="10" t="s">
+      <c r="BL5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BM5" s="10" t="s">
+      <c r="BM5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="BN5" s="10" t="s">
+      <c r="BN5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="10" t="s">
+      <c r="BO5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="BP5" s="10" t="s">
+      <c r="BP5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BQ5" s="10" t="s">
+      <c r="BQ5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="BR5" s="10" t="s">
+      <c r="BR5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="BS5" s="10" t="s">
+      <c r="BS5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="BT5" s="10" t="s">
+      <c r="BT5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="20" t="s">
+      <c r="BU5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BV5" s="9" t="s">
+      <c r="BV5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="BW5" s="10" t="s">
+      <c r="BW5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BX5" s="10" t="s">
+      <c r="BX5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BY5" s="10" t="s">
+      <c r="BY5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="10" t="s">
+      <c r="BZ5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="10" t="s">
+      <c r="CA5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="10" t="s">
+      <c r="CB5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="10" t="s">
+      <c r="CC5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CD5" s="10" t="s">
+      <c r="CD5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CE5" s="10" t="s">
+      <c r="CE5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CF5" s="10" t="s">
+      <c r="CF5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CG5" s="20" t="s">
+      <c r="CG5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CH5" s="9" t="s">
+      <c r="CH5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CI5" s="10" t="s">
+      <c r="CI5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="CJ5" s="10" t="s">
+      <c r="CJ5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CK5" s="10" t="s">
+      <c r="CK5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="CL5" s="10" t="s">
+      <c r="CL5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="CM5" s="10" t="s">
+      <c r="CM5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="CN5" s="10" t="s">
+      <c r="CN5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CO5" s="10" t="s">
+      <c r="CO5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CP5" s="10" t="s">
+      <c r="CP5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="CQ5" s="10" t="s">
+      <c r="CQ5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="CR5" s="10" t="s">
+      <c r="CR5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CS5" s="20" t="s">
+      <c r="CS5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CT5" s="9" t="s">
+      <c r="CT5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="CU5" s="10" t="s">
+      <c r="CU5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="CV5" s="10" t="s">
+      <c r="CV5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CW5" s="10" t="s">
+      <c r="CW5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="CX5" s="10" t="s">
+      <c r="CX5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="CY5" s="10" t="s">
+      <c r="CY5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="10" t="s">
+      <c r="CZ5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="DA5" s="10" t="s">
+      <c r="DA5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="DB5" s="10" t="s">
+      <c r="DB5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="DC5" s="10" t="s">
+      <c r="DC5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="DD5" s="10" t="s">
+      <c r="DD5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="DE5" s="20" t="s">
+      <c r="DE5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="DF5" s="9" t="s">
+      <c r="DF5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="DG5" s="10" t="s">
+      <c r="DG5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="DH5" s="10" t="s">
+      <c r="DH5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="DI5" s="10" t="s">
+      <c r="DI5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DJ5" s="10" t="s">
+      <c r="DJ5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="DK5" s="10" t="s">
+      <c r="DK5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="DL5" s="10" t="s">
+      <c r="DL5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="DM5" s="10" t="s">
+      <c r="DM5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="DN5" s="10" t="s">
+      <c r="DN5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="DO5" s="10" t="s">
+      <c r="DO5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="DP5" s="10" t="s">
+      <c r="DP5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="DQ5" s="20" t="s">
+      <c r="DQ5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="DR5" s="9" t="s">
+      <c r="DR5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="DS5" s="10" t="s">
+      <c r="DS5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="DT5" s="10" t="s">
+      <c r="DT5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="DU5" s="10" t="s">
+      <c r="DU5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DV5" s="10" t="s">
+      <c r="DV5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="DW5" s="10" t="s">
+      <c r="DW5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="DX5" s="10" t="s">
+      <c r="DX5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="DY5" s="10" t="s">
+      <c r="DY5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="DZ5" s="10" t="s">
+      <c r="DZ5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="EA5" s="10" t="s">
+      <c r="EA5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="EB5" s="10" t="s">
+      <c r="EB5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="EC5" s="20" t="s">
+      <c r="EC5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="ED5" s="9" t="s">
+      <c r="ED5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="EE5" s="10" t="s">
+      <c r="EE5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="EF5" s="10" t="s">
+      <c r="EF5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="EG5" s="10" t="s">
+      <c r="EG5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EH5" s="10" t="s">
+      <c r="EH5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="EI5" s="10" t="s">
+      <c r="EI5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="EJ5" s="10" t="s">
+      <c r="EJ5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="EK5" s="10" t="s">
+      <c r="EK5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="EL5" s="10" t="s">
+      <c r="EL5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="EM5" s="10" t="s">
+      <c r="EM5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="EN5" s="10" t="s">
+      <c r="EN5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="EO5" s="20" t="s">
+      <c r="EO5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="EP5" s="9" t="s">
+      <c r="EP5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="EQ5" s="10" t="s">
+      <c r="EQ5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="ER5" s="10" t="s">
+      <c r="ER5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="ES5" s="10" t="s">
+      <c r="ES5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="ET5" s="10" t="s">
+      <c r="ET5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="EU5" s="10" t="s">
+      <c r="EU5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="EV5" s="10" t="s">
+      <c r="EV5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="EW5" s="10" t="s">
+      <c r="EW5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="EX5" s="10" t="s">
+      <c r="EX5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="EY5" s="10" t="s">
+      <c r="EY5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="EZ5" s="10" t="s">
+      <c r="EZ5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="FA5" s="20" t="s">
+      <c r="FA5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="FB5" s="9" t="s">
+      <c r="FB5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="FC5" s="10" t="s">
+      <c r="FC5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="FD5" s="10" t="s">
+      <c r="FD5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="FE5" s="10" t="s">
+      <c r="FE5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="FF5" s="10" t="s">
+      <c r="FF5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="FG5" s="10" t="s">
+      <c r="FG5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="FH5" s="10" t="s">
+      <c r="FH5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="FI5" s="10" t="s">
+      <c r="FI5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="FJ5" s="10" t="s">
+      <c r="FJ5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="FK5" s="10" t="s">
+      <c r="FK5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="FL5" s="10" t="s">
+      <c r="FL5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="FM5" s="20" t="s">
+      <c r="FM5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="FN5" s="9" t="s">
+      <c r="FN5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="FO5" s="10" t="s">
+      <c r="FO5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="FP5" s="10" t="s">
+      <c r="FP5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="FQ5" s="10" t="s">
+      <c r="FQ5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="FR5" s="10" t="s">
+      <c r="FR5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="FS5" s="10" t="s">
+      <c r="FS5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="FT5" s="10" t="s">
+      <c r="FT5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="FU5" s="10" t="s">
+      <c r="FU5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="FV5" s="10" t="s">
+      <c r="FV5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="FW5" s="10" t="s">
+      <c r="FW5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="FX5" s="10" t="s">
+      <c r="FX5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="FY5" s="20" t="s">
+      <c r="FY5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="FZ5" s="9" t="s">
+      <c r="FZ5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="GA5" s="10" t="s">
+      <c r="GA5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="GB5" s="10" t="s">
+      <c r="GB5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="GC5" s="10" t="s">
+      <c r="GC5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="GD5" s="10" t="s">
+      <c r="GD5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="GE5" s="10" t="s">
+      <c r="GE5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="GF5" s="10" t="s">
+      <c r="GF5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="GG5" s="10" t="s">
+      <c r="GG5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="GH5" s="10" t="s">
+      <c r="GH5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="GI5" s="10" t="s">
+      <c r="GI5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="GJ5" s="10" t="s">
+      <c r="GJ5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="GK5" s="20" t="s">
+      <c r="GK5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="GL5" s="9" t="s">
+      <c r="GL5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="GM5" s="10" t="s">
+      <c r="GM5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="GN5" s="10" t="s">
+      <c r="GN5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="GO5" s="10" t="s">
+      <c r="GO5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="GP5" s="10" t="s">
+      <c r="GP5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="GQ5" s="10" t="s">
+      <c r="GQ5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="GR5" s="10" t="s">
+      <c r="GR5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="GS5" s="10" t="s">
+      <c r="GS5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="GT5" s="10" t="s">
+      <c r="GT5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="GU5" s="10" t="s">
+      <c r="GU5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="GV5" s="10" t="s">
+      <c r="GV5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="GW5" s="20" t="s">
+      <c r="GW5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="GX5" s="9" t="s">
+      <c r="GX5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="GY5" s="10" t="s">
+      <c r="GY5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="GZ5" s="10" t="s">
+      <c r="GZ5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="HA5" s="10" t="s">
+      <c r="HA5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="HB5" s="10" t="s">
+      <c r="HB5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="HC5" s="10" t="s">
+      <c r="HC5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="HD5" s="10" t="s">
+      <c r="HD5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="HE5" s="10" t="s">
+      <c r="HE5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="HF5" s="10" t="s">
+      <c r="HF5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="HG5" s="10" t="s">
+      <c r="HG5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="HH5" s="10" t="s">
+      <c r="HH5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="HI5" s="20" t="s">
+      <c r="HI5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="HJ5" s="9" t="s">
+      <c r="HJ5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="HK5" s="10" t="s">
+      <c r="HK5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="HL5" s="10" t="s">
+      <c r="HL5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="HM5" s="10" t="s">
+      <c r="HM5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="HN5" s="10" t="s">
+      <c r="HN5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="HO5" s="10" t="s">
+      <c r="HO5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="HP5" s="10" t="s">
+      <c r="HP5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="HQ5" s="10" t="s">
+      <c r="HQ5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="HR5" s="10" t="s">
+      <c r="HR5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="HS5" s="10" t="s">
+      <c r="HS5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="HT5" s="10" t="s">
+      <c r="HT5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="HU5" s="20" t="s">
+      <c r="HU5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="HV5" s="9" t="s">
+      <c r="HV5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="HW5" s="10" t="s">
+      <c r="HW5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="HX5" s="10" t="s">
+      <c r="HX5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="HY5" s="10" t="s">
+      <c r="HY5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="HZ5" s="10" t="s">
+      <c r="HZ5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="IA5" s="10" t="s">
+      <c r="IA5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="IB5" s="10" t="s">
+      <c r="IB5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="IC5" s="12" t="s">
+      <c r="IC5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="ID5" s="12" t="s">
+      <c r="ID5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="IE5" s="12" t="s">
+      <c r="IE5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="IF5" s="12" t="s">
+      <c r="IF5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="IG5" s="15" t="s">
+      <c r="IG5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="IH5" s="21" t="s">
+      <c r="IH5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="II5" s="16" t="s">
+      <c r="II5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="IJ5" s="16" t="s">
+      <c r="IJ5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="IK5" s="16" t="s">
+      <c r="IK5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="IL5" s="10" t="s">
+      <c r="IL5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="IM5" s="10" t="s">
+      <c r="IM5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="IN5" s="10" t="s">
+      <c r="IN5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="IO5" s="10" t="s">
+      <c r="IO5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="IP5" s="12" t="s">
+      <c r="IP5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="IQ5" s="12" t="s">
+      <c r="IQ5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="IR5" s="12" t="s">
+      <c r="IR5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="IS5" s="15" t="s">
+      <c r="IS5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="IT5" s="11" t="s">
+      <c r="IT5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="IU5" s="12" t="s">
+      <c r="IU5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="IV5" s="12" t="s">
+      <c r="IV5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="IW5" s="12" t="s">
+      <c r="IW5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="IX5" s="12" t="s">
+      <c r="IX5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="IY5" s="12" t="s">
+      <c r="IY5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="IZ5" s="12" t="s">
+      <c r="IZ5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="JA5" s="12" t="s">
+      <c r="JA5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="JB5" s="12" t="s">
+      <c r="JB5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="JC5" s="12" t="s">
+      <c r="JC5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="JD5" s="12" t="s">
+      <c r="JD5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="JE5" s="15" t="s">
+      <c r="JE5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="JF5" s="11" t="s">
+      <c r="JF5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="JG5" s="12" t="s">
+      <c r="JG5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="JH5" s="12" t="s">
+      <c r="JH5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="JI5" s="12" t="s">
+      <c r="JI5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="JJ5" s="12" t="s">
+      <c r="JJ5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="JK5" s="12" t="s">
+      <c r="JK5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="JL5" s="12" t="s">
+      <c r="JL5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="JM5" s="12" t="s">
+      <c r="JM5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="JN5" s="12" t="s">
+      <c r="JN5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="JO5" s="12" t="s">
+      <c r="JO5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="JP5" s="12" t="s">
+      <c r="JP5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="JQ5" s="12" t="s">
+      <c r="JQ5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="JR5" s="28" t="s">
+      <c r="JR5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="JS5" s="29" t="s">
+      <c r="JS5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="JT5" s="29" t="s">
+      <c r="JT5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="JU5" s="29" t="s">
+      <c r="JU5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="JV5" s="29" t="s">
+      <c r="JV5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="JW5" s="29" t="s">
+      <c r="JW5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="JX5" s="30" t="s">
+      <c r="JX5" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="JY5" s="22" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
@@ -4014,30 +3981,33 @@
       <c r="JQ6" s="3">
         <v>2836</v>
       </c>
-      <c r="JR6" s="31">
+      <c r="JR6" s="23">
         <v>3052</v>
       </c>
-      <c r="JS6" s="32">
+      <c r="JS6" s="24">
         <v>3104</v>
       </c>
-      <c r="JT6" s="32">
+      <c r="JT6" s="24">
         <v>3163</v>
       </c>
-      <c r="JU6" s="32">
+      <c r="JU6" s="24">
         <v>2911</v>
       </c>
-      <c r="JV6" s="32">
+      <c r="JV6" s="24">
         <v>3190</v>
       </c>
-      <c r="JW6" s="32">
+      <c r="JW6" s="24">
         <v>3253</v>
       </c>
-      <c r="JX6" s="34">
+      <c r="JX6" s="3">
         <v>2645</v>
       </c>
+      <c r="JY6" s="25">
+        <v>3303</v>
+      </c>
     </row>
-    <row r="7" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2">
@@ -4886,12 +4856,15 @@
       <c r="JW7" s="3">
         <v>62948</v>
       </c>
-      <c r="JX7" s="34">
+      <c r="JX7" s="3">
         <v>62209</v>
       </c>
+      <c r="JY7" s="25">
+        <v>63009</v>
+      </c>
     </row>
-    <row r="8" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2">
@@ -5740,12 +5713,15 @@
       <c r="JW8" s="3">
         <v>72661</v>
       </c>
-      <c r="JX8" s="34">
+      <c r="JX8" s="3">
         <v>72900</v>
       </c>
+      <c r="JY8" s="25">
+        <v>73069</v>
+      </c>
     </row>
-    <row r="9" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
@@ -6594,13 +6570,16 @@
       <c r="JW9" s="3">
         <v>57677</v>
       </c>
-      <c r="JX9" s="34">
+      <c r="JX9" s="3">
         <v>57753</v>
       </c>
-      <c r="KA9" s="27"/>
+      <c r="JY9" s="25">
+        <v>57816</v>
+      </c>
+      <c r="KB9" s="19"/>
     </row>
-    <row r="10" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -7449,12 +7428,15 @@
       <c r="JW10" s="3">
         <v>15866</v>
       </c>
-      <c r="JX10" s="34">
+      <c r="JX10" s="3">
         <v>15345</v>
       </c>
+      <c r="JY10" s="25">
+        <v>15965</v>
+      </c>
     </row>
-    <row r="11" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -8303,12 +8285,15 @@
       <c r="JW11" s="3">
         <v>62025</v>
       </c>
-      <c r="JX11" s="34">
+      <c r="JX11" s="3">
         <v>59359</v>
       </c>
+      <c r="JY11" s="25">
+        <v>59745</v>
+      </c>
     </row>
-    <row r="12" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -9157,12 +9142,15 @@
       <c r="JW12" s="3">
         <v>21883</v>
       </c>
-      <c r="JX12" s="34">
+      <c r="JX12" s="3">
         <v>22416</v>
       </c>
+      <c r="JY12" s="25">
+        <v>22049</v>
+      </c>
     </row>
-    <row r="13" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -10011,12 +9999,15 @@
       <c r="JW13" s="3">
         <v>9074</v>
       </c>
-      <c r="JX13" s="34">
+      <c r="JX13" s="3">
         <v>8922</v>
       </c>
+      <c r="JY13" s="25">
+        <v>9004</v>
+      </c>
     </row>
-    <row r="14" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2">
@@ -10865,12 +10856,15 @@
       <c r="JW14" s="3">
         <v>80983</v>
       </c>
-      <c r="JX14" s="34">
+      <c r="JX14" s="3">
         <v>81265</v>
       </c>
+      <c r="JY14" s="25">
+        <v>81322</v>
+      </c>
     </row>
-    <row r="15" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2">
@@ -11719,12 +11713,15 @@
       <c r="JW15" s="3">
         <v>41911</v>
       </c>
-      <c r="JX15" s="34">
+      <c r="JX15" s="3">
         <v>43076</v>
       </c>
+      <c r="JY15" s="25">
+        <v>43729</v>
+      </c>
     </row>
-    <row r="16" spans="1:287" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:288" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2">
@@ -12573,12 +12570,15 @@
       <c r="JW16" s="3">
         <v>28114</v>
       </c>
-      <c r="JX16" s="34">
+      <c r="JX16" s="3">
         <v>27478</v>
       </c>
+      <c r="JY16" s="25">
+        <v>27163</v>
+      </c>
     </row>
-    <row r="17" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2">
@@ -13409,30 +13409,33 @@
       <c r="JQ17" s="3">
         <v>1484728</v>
       </c>
-      <c r="JR17" s="25">
+      <c r="JR17" s="17">
         <v>1494463</v>
       </c>
-      <c r="JS17" s="26">
+      <c r="JS17" s="18">
         <v>1504471</v>
       </c>
-      <c r="JT17" s="26">
+      <c r="JT17" s="18">
         <v>1511443</v>
       </c>
-      <c r="JU17" s="26">
+      <c r="JU17" s="18">
         <v>1515080</v>
       </c>
-      <c r="JV17" s="26">
+      <c r="JV17" s="18">
         <v>1518013</v>
       </c>
-      <c r="JW17" s="26">
+      <c r="JW17" s="18">
         <v>1524395</v>
       </c>
-      <c r="JX17" s="34">
+      <c r="JX17" s="3">
         <v>1527778</v>
       </c>
+      <c r="JY17" s="25">
+        <v>1532572</v>
+      </c>
     </row>
-    <row r="18" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:285" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="7">
@@ -13479,7 +13482,7 @@
         <f t="shared" si="0"/>
         <v>1054346</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="9">
         <f t="shared" si="0"/>
         <v>1034215</v>
       </c>
@@ -13527,7 +13530,7 @@
         <f t="shared" si="0"/>
         <v>1028481</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="9">
         <f t="shared" si="0"/>
         <v>1011723</v>
       </c>
@@ -13575,7 +13578,7 @@
         <f t="shared" si="0"/>
         <v>1046838</v>
       </c>
-      <c r="AK18" s="13">
+      <c r="AK18" s="9">
         <f t="shared" si="0"/>
         <v>1029691</v>
       </c>
@@ -13623,7 +13626,7 @@
         <f t="shared" si="0"/>
         <v>1047273</v>
       </c>
-      <c r="AW18" s="13">
+      <c r="AW18" s="9">
         <f t="shared" si="0"/>
         <v>1041281</v>
       </c>
@@ -13671,7 +13674,7 @@
         <f t="shared" si="0"/>
         <v>1075523</v>
       </c>
-      <c r="BI18" s="13">
+      <c r="BI18" s="9">
         <f t="shared" si="0"/>
         <v>1062895</v>
       </c>
@@ -13719,7 +13722,7 @@
         <f t="shared" si="1"/>
         <v>1113239</v>
       </c>
-      <c r="BU18" s="13">
+      <c r="BU18" s="9">
         <f t="shared" si="1"/>
         <v>1095746</v>
       </c>
@@ -13767,7 +13770,7 @@
         <f t="shared" si="1"/>
         <v>1168371</v>
       </c>
-      <c r="CG18" s="13">
+      <c r="CG18" s="9">
         <f t="shared" si="1"/>
         <v>1147143</v>
       </c>
@@ -13815,7 +13818,7 @@
         <f t="shared" si="1"/>
         <v>1219614</v>
       </c>
-      <c r="CS18" s="13">
+      <c r="CS18" s="9">
         <f t="shared" si="1"/>
         <v>1194386</v>
       </c>
@@ -13863,7 +13866,7 @@
         <f t="shared" si="1"/>
         <v>1225338</v>
       </c>
-      <c r="DE18" s="13">
+      <c r="DE18" s="9">
         <f t="shared" si="1"/>
         <v>1204590</v>
       </c>
@@ -13911,7 +13914,7 @@
         <f t="shared" si="1"/>
         <v>1221907</v>
       </c>
-      <c r="DQ18" s="13">
+      <c r="DQ18" s="9">
         <f t="shared" si="1"/>
         <v>1208019</v>
       </c>
@@ -13959,7 +13962,7 @@
         <f t="shared" si="2"/>
         <v>1277314</v>
       </c>
-      <c r="EC18" s="13">
+      <c r="EC18" s="9">
         <f t="shared" si="2"/>
         <v>1263487</v>
       </c>
@@ -14007,7 +14010,7 @@
         <f t="shared" si="2"/>
         <v>1325584</v>
       </c>
-      <c r="EO18" s="13">
+      <c r="EO18" s="9">
         <f t="shared" si="2"/>
         <v>1308282</v>
       </c>
@@ -14055,7 +14058,7 @@
         <f t="shared" si="2"/>
         <v>1358570</v>
       </c>
-      <c r="FA18" s="13">
+      <c r="FA18" s="9">
         <f t="shared" si="2"/>
         <v>1349657</v>
       </c>
@@ -14103,7 +14106,7 @@
         <f t="shared" si="2"/>
         <v>1410118</v>
       </c>
-      <c r="FM18" s="13">
+      <c r="FM18" s="9">
         <f t="shared" si="2"/>
         <v>1397248</v>
       </c>
@@ -14151,7 +14154,7 @@
         <f t="shared" si="2"/>
         <v>1477172</v>
       </c>
-      <c r="FY18" s="13">
+      <c r="FY18" s="9">
         <f t="shared" si="2"/>
         <v>1463340</v>
       </c>
@@ -14199,7 +14202,7 @@
         <f t="shared" si="2"/>
         <v>1548821</v>
       </c>
-      <c r="GK18" s="13">
+      <c r="GK18" s="9">
         <f t="shared" si="2"/>
         <v>1535255</v>
       </c>
@@ -14247,7 +14250,7 @@
         <f t="shared" si="3"/>
         <v>1643345</v>
       </c>
-      <c r="GW18" s="13">
+      <c r="GW18" s="9">
         <f t="shared" si="3"/>
         <v>1624237</v>
       </c>
@@ -14295,7 +14298,7 @@
         <f t="shared" si="3"/>
         <v>1740013</v>
       </c>
-      <c r="HI18" s="13">
+      <c r="HI18" s="9">
         <f t="shared" si="3"/>
         <v>1717868</v>
       </c>
@@ -14343,7 +14346,7 @@
         <f t="shared" si="3"/>
         <v>1792036</v>
       </c>
-      <c r="HU18" s="13">
+      <c r="HU18" s="9">
         <f t="shared" si="3"/>
         <v>1761000</v>
       </c>
@@ -14391,7 +14394,7 @@
         <f t="shared" si="3"/>
         <v>1840150</v>
       </c>
-      <c r="IG18" s="13">
+      <c r="IG18" s="9">
         <f t="shared" si="3"/>
         <v>1812699</v>
       </c>
@@ -14439,7 +14442,7 @@
         <f t="shared" si="3"/>
         <v>1805269</v>
       </c>
-      <c r="IS18" s="13">
+      <c r="IS18" s="9">
         <f t="shared" si="3"/>
         <v>1780367</v>
       </c>
@@ -14487,7 +14490,7 @@
         <f t="shared" si="4"/>
         <v>1873476</v>
       </c>
-      <c r="JE18" s="13">
+      <c r="JE18" s="9">
         <f t="shared" si="4"/>
         <v>1849999</v>
       </c>
@@ -14539,41 +14542,42 @@
         <f t="shared" si="4"/>
         <v>1932962</v>
       </c>
-      <c r="JR18" s="23">
+      <c r="JR18" s="15">
         <f t="shared" ref="JR18:JS18" si="5">SUM(JR6:JR17)</f>
         <v>1951256</v>
       </c>
-      <c r="JS18" s="24">
+      <c r="JS18" s="16">
         <f t="shared" si="5"/>
         <v>1964519</v>
       </c>
-      <c r="JT18" s="24">
-        <f>SUM(JT6:JT17)</f>
+      <c r="JT18" s="16">
+        <f t="shared" ref="JT18:JY18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
-      <c r="JU18" s="24">
-        <f>SUM(JU6:JU17)</f>
+      <c r="JU18" s="16">
+        <f t="shared" si="6"/>
         <v>1973202</v>
       </c>
-      <c r="JV18" s="24">
-        <f>SUM(JV6:JV17)</f>
+      <c r="JV18" s="16">
+        <f t="shared" si="6"/>
         <v>1974565</v>
       </c>
-      <c r="JW18" s="24">
-        <f>SUM(JW6:JW17)</f>
+      <c r="JW18" s="16">
+        <f t="shared" si="6"/>
         <v>1980790</v>
       </c>
-      <c r="JX18" s="33">
-        <f>SUM(JX6:JX17)</f>
+      <c r="JX18" s="8">
+        <f t="shared" si="6"/>
         <v>1981146</v>
       </c>
+      <c r="JY18" s="9">
+        <f t="shared" si="6"/>
+        <v>1988746</v>
+      </c>
     </row>
-    <row r="19" spans="1:284" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
+    <row r="19" spans="1:285" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -14595,14 +14599,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="22"/>
+      <c r="Y19" s="14"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="22"/>
+      <c r="AF19" s="14"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
@@ -14836,7 +14840,7 @@
       <c r="JC19" s="3"/>
       <c r="JD19" s="3"/>
       <c r="JE19" s="3"/>
-      <c r="JF19" s="22"/>
+      <c r="JF19" s="14"/>
       <c r="JG19" s="3"/>
       <c r="JH19" s="3"/>
       <c r="JI19" s="3"/>
@@ -14848,9 +14852,9 @@
       <c r="JO19" s="3"/>
       <c r="JP19" s="3"/>
       <c r="JQ19" s="3"/>
-      <c r="JR19" s="22"/>
+      <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:285" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56526E9C-84F1-4C7B-ACF2-22C16532FAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE666E-1CB0-4D64-BB11-BF0BD2647753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -798,13 +798,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,6 +812,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1166,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KB20"/>
+  <dimension ref="A1:KC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JU29" sqref="JU29"/>
+      <pane xSplit="1" topLeftCell="JM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JV30" sqref="JV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,18 +1426,18 @@
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2290,715 +2289,718 @@
       <c r="JX4" s="6">
         <v>2023</v>
       </c>
-      <c r="JY4" s="10">
+      <c r="JY4" s="6">
         <v>2023</v>
       </c>
+      <c r="JZ4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:288" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:289" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="30" t="s">
+      <c r="R5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="30" t="s">
+      <c r="T5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="30" t="s">
+      <c r="U5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="W5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="30" t="s">
+      <c r="X5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="30" t="s">
+      <c r="AA5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="30" t="s">
+      <c r="AB5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AC5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="30" t="s">
+      <c r="AD5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="30" t="s">
+      <c r="AE5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="30" t="s">
+      <c r="AF5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="30" t="s">
+      <c r="AG5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="30" t="s">
+      <c r="AH5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="30" t="s">
+      <c r="AI5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="30" t="s">
+      <c r="AJ5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="32" t="s">
+      <c r="AK5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="31" t="s">
+      <c r="AL5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="30" t="s">
+      <c r="AM5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="30" t="s">
+      <c r="AN5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AO5" s="30" t="s">
+      <c r="AO5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AP5" s="30" t="s">
+      <c r="AP5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AQ5" s="30" t="s">
+      <c r="AQ5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="30" t="s">
+      <c r="AR5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="30" t="s">
+      <c r="AS5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="30" t="s">
+      <c r="AT5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="30" t="s">
+      <c r="AU5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="30" t="s">
+      <c r="AV5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="32" t="s">
+      <c r="AW5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AX5" s="31" t="s">
+      <c r="AX5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="30" t="s">
+      <c r="AY5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AZ5" s="30" t="s">
+      <c r="AZ5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="BA5" s="30" t="s">
+      <c r="BA5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="BB5" s="30" t="s">
+      <c r="BB5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="30" t="s">
+      <c r="BC5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="30" t="s">
+      <c r="BD5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="BE5" s="30" t="s">
+      <c r="BE5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="BF5" s="30" t="s">
+      <c r="BF5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="BG5" s="30" t="s">
+      <c r="BG5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BH5" s="30" t="s">
+      <c r="BH5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="32" t="s">
+      <c r="BI5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BJ5" s="31" t="s">
+      <c r="BJ5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="BK5" s="30" t="s">
+      <c r="BK5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="BL5" s="30" t="s">
+      <c r="BL5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="BM5" s="30" t="s">
+      <c r="BM5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="BN5" s="30" t="s">
+      <c r="BN5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="30" t="s">
+      <c r="BO5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="BP5" s="30" t="s">
+      <c r="BP5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="BQ5" s="30" t="s">
+      <c r="BQ5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="BR5" s="30" t="s">
+      <c r="BR5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="BS5" s="30" t="s">
+      <c r="BS5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BT5" s="30" t="s">
+      <c r="BT5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="32" t="s">
+      <c r="BU5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BV5" s="31" t="s">
+      <c r="BV5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="BW5" s="30" t="s">
+      <c r="BW5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="BX5" s="30" t="s">
+      <c r="BX5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="BY5" s="30" t="s">
+      <c r="BY5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="30" t="s">
+      <c r="BZ5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="30" t="s">
+      <c r="CA5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="30" t="s">
+      <c r="CB5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="30" t="s">
+      <c r="CC5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="CD5" s="30" t="s">
+      <c r="CD5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="CE5" s="30" t="s">
+      <c r="CE5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="CF5" s="30" t="s">
+      <c r="CF5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="CG5" s="32" t="s">
+      <c r="CG5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CH5" s="31" t="s">
+      <c r="CH5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="CI5" s="30" t="s">
+      <c r="CI5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="CJ5" s="30" t="s">
+      <c r="CJ5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="CK5" s="30" t="s">
+      <c r="CK5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="CL5" s="30" t="s">
+      <c r="CL5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="CM5" s="30" t="s">
+      <c r="CM5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="CN5" s="30" t="s">
+      <c r="CN5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="CO5" s="30" t="s">
+      <c r="CO5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="CP5" s="30" t="s">
+      <c r="CP5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="CQ5" s="30" t="s">
+      <c r="CQ5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="CR5" s="30" t="s">
+      <c r="CR5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="CS5" s="32" t="s">
+      <c r="CS5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CT5" s="31" t="s">
+      <c r="CT5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="CU5" s="30" t="s">
+      <c r="CU5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="CV5" s="30" t="s">
+      <c r="CV5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="CW5" s="30" t="s">
+      <c r="CW5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="CX5" s="30" t="s">
+      <c r="CX5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="CY5" s="30" t="s">
+      <c r="CY5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="30" t="s">
+      <c r="CZ5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="DA5" s="30" t="s">
+      <c r="DA5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="DB5" s="30" t="s">
+      <c r="DB5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="DC5" s="30" t="s">
+      <c r="DC5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="DD5" s="30" t="s">
+      <c r="DD5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="DE5" s="32" t="s">
+      <c r="DE5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="DF5" s="31" t="s">
+      <c r="DF5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="DG5" s="30" t="s">
+      <c r="DG5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="DH5" s="30" t="s">
+      <c r="DH5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="DI5" s="30" t="s">
+      <c r="DI5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="DJ5" s="30" t="s">
+      <c r="DJ5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="DK5" s="30" t="s">
+      <c r="DK5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="DL5" s="30" t="s">
+      <c r="DL5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="DM5" s="30" t="s">
+      <c r="DM5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="DN5" s="30" t="s">
+      <c r="DN5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="DO5" s="30" t="s">
+      <c r="DO5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="DP5" s="30" t="s">
+      <c r="DP5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="DQ5" s="32" t="s">
+      <c r="DQ5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="DR5" s="31" t="s">
+      <c r="DR5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="DS5" s="30" t="s">
+      <c r="DS5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="DT5" s="30" t="s">
+      <c r="DT5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="DU5" s="30" t="s">
+      <c r="DU5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="DV5" s="30" t="s">
+      <c r="DV5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="DW5" s="30" t="s">
+      <c r="DW5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="DX5" s="30" t="s">
+      <c r="DX5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="DY5" s="30" t="s">
+      <c r="DY5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="DZ5" s="30" t="s">
+      <c r="DZ5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="EA5" s="30" t="s">
+      <c r="EA5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="EB5" s="30" t="s">
+      <c r="EB5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="EC5" s="32" t="s">
+      <c r="EC5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="ED5" s="31" t="s">
+      <c r="ED5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="EE5" s="30" t="s">
+      <c r="EE5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="EF5" s="30" t="s">
+      <c r="EF5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="EG5" s="30" t="s">
+      <c r="EG5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="EH5" s="30" t="s">
+      <c r="EH5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="EI5" s="30" t="s">
+      <c r="EI5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="EJ5" s="30" t="s">
+      <c r="EJ5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="EK5" s="30" t="s">
+      <c r="EK5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="EL5" s="30" t="s">
+      <c r="EL5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="EM5" s="30" t="s">
+      <c r="EM5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="EN5" s="30" t="s">
+      <c r="EN5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="EO5" s="32" t="s">
+      <c r="EO5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="EP5" s="31" t="s">
+      <c r="EP5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="EQ5" s="30" t="s">
+      <c r="EQ5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="ER5" s="30" t="s">
+      <c r="ER5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="ES5" s="30" t="s">
+      <c r="ES5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="ET5" s="30" t="s">
+      <c r="ET5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="EU5" s="30" t="s">
+      <c r="EU5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="EV5" s="30" t="s">
+      <c r="EV5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="EW5" s="30" t="s">
+      <c r="EW5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="EX5" s="30" t="s">
+      <c r="EX5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="EY5" s="30" t="s">
+      <c r="EY5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="EZ5" s="30" t="s">
+      <c r="EZ5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="FA5" s="32" t="s">
+      <c r="FA5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="FB5" s="31" t="s">
+      <c r="FB5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="FC5" s="30" t="s">
+      <c r="FC5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="FD5" s="30" t="s">
+      <c r="FD5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="FE5" s="30" t="s">
+      <c r="FE5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="FF5" s="30" t="s">
+      <c r="FF5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="FG5" s="30" t="s">
+      <c r="FG5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="FH5" s="30" t="s">
+      <c r="FH5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="FI5" s="30" t="s">
+      <c r="FI5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="FJ5" s="30" t="s">
+      <c r="FJ5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="FK5" s="30" t="s">
+      <c r="FK5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="FL5" s="30" t="s">
+      <c r="FL5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="FM5" s="32" t="s">
+      <c r="FM5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="FN5" s="31" t="s">
+      <c r="FN5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="FO5" s="30" t="s">
+      <c r="FO5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="FP5" s="30" t="s">
+      <c r="FP5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="FQ5" s="30" t="s">
+      <c r="FQ5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="FR5" s="30" t="s">
+      <c r="FR5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="FS5" s="30" t="s">
+      <c r="FS5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="FT5" s="30" t="s">
+      <c r="FT5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="FU5" s="30" t="s">
+      <c r="FU5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="FV5" s="30" t="s">
+      <c r="FV5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="FW5" s="30" t="s">
+      <c r="FW5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="FX5" s="30" t="s">
+      <c r="FX5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="FY5" s="32" t="s">
+      <c r="FY5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="FZ5" s="31" t="s">
+      <c r="FZ5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="GA5" s="30" t="s">
+      <c r="GA5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="GB5" s="30" t="s">
+      <c r="GB5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="GC5" s="30" t="s">
+      <c r="GC5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="GD5" s="30" t="s">
+      <c r="GD5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="GE5" s="30" t="s">
+      <c r="GE5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="GF5" s="30" t="s">
+      <c r="GF5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="GG5" s="30" t="s">
+      <c r="GG5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="GH5" s="30" t="s">
+      <c r="GH5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="GI5" s="30" t="s">
+      <c r="GI5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="GJ5" s="30" t="s">
+      <c r="GJ5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="GK5" s="32" t="s">
+      <c r="GK5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="GL5" s="31" t="s">
+      <c r="GL5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="GM5" s="30" t="s">
+      <c r="GM5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="GN5" s="30" t="s">
+      <c r="GN5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="GO5" s="30" t="s">
+      <c r="GO5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="GP5" s="30" t="s">
+      <c r="GP5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="GQ5" s="30" t="s">
+      <c r="GQ5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="GR5" s="30" t="s">
+      <c r="GR5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="GS5" s="30" t="s">
+      <c r="GS5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="GT5" s="30" t="s">
+      <c r="GT5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="GU5" s="30" t="s">
+      <c r="GU5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="GV5" s="30" t="s">
+      <c r="GV5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="GW5" s="32" t="s">
+      <c r="GW5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="GX5" s="31" t="s">
+      <c r="GX5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="GY5" s="30" t="s">
+      <c r="GY5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="GZ5" s="30" t="s">
+      <c r="GZ5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="HA5" s="30" t="s">
+      <c r="HA5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="HB5" s="30" t="s">
+      <c r="HB5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="HC5" s="30" t="s">
+      <c r="HC5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="HD5" s="30" t="s">
+      <c r="HD5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="HE5" s="30" t="s">
+      <c r="HE5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="HF5" s="30" t="s">
+      <c r="HF5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="HG5" s="30" t="s">
+      <c r="HG5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="HH5" s="30" t="s">
+      <c r="HH5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="HI5" s="32" t="s">
+      <c r="HI5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="HJ5" s="31" t="s">
+      <c r="HJ5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="HK5" s="30" t="s">
+      <c r="HK5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="HL5" s="30" t="s">
+      <c r="HL5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="HM5" s="30" t="s">
+      <c r="HM5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="HN5" s="30" t="s">
+      <c r="HN5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="HO5" s="30" t="s">
+      <c r="HO5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="HP5" s="30" t="s">
+      <c r="HP5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="HQ5" s="30" t="s">
+      <c r="HQ5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="HR5" s="30" t="s">
+      <c r="HR5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="HS5" s="30" t="s">
+      <c r="HS5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="HT5" s="30" t="s">
+      <c r="HT5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="HU5" s="32" t="s">
+      <c r="HU5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="HV5" s="31" t="s">
+      <c r="HV5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="HW5" s="30" t="s">
+      <c r="HW5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="HX5" s="30" t="s">
+      <c r="HX5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="HY5" s="30" t="s">
+      <c r="HY5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="HZ5" s="30" t="s">
+      <c r="HZ5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="IA5" s="30" t="s">
+      <c r="IA5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="IB5" s="30" t="s">
+      <c r="IB5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="IC5" s="21" t="s">
@@ -3016,28 +3018,28 @@
       <c r="IG5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="IH5" s="28" t="s">
+      <c r="IH5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="II5" s="29" t="s">
+      <c r="II5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="IJ5" s="29" t="s">
+      <c r="IJ5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="IK5" s="29" t="s">
+      <c r="IK5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="IL5" s="30" t="s">
+      <c r="IL5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="IM5" s="30" t="s">
+      <c r="IM5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="IN5" s="30" t="s">
+      <c r="IN5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="IO5" s="30" t="s">
+      <c r="IO5" s="27" t="s">
         <v>22</v>
       </c>
       <c r="IP5" s="21" t="s">
@@ -3145,11 +3147,14 @@
       <c r="JX5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="JY5" s="22" t="s">
+      <c r="JY5" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="JZ5" s="22" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4002,11 +4007,14 @@
       <c r="JX6" s="3">
         <v>2645</v>
       </c>
-      <c r="JY6" s="25">
+      <c r="JY6" s="3">
         <v>3303</v>
       </c>
+      <c r="JZ6" s="4">
+        <v>3087</v>
+      </c>
     </row>
-    <row r="7" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4859,11 +4867,14 @@
       <c r="JX7" s="3">
         <v>62209</v>
       </c>
-      <c r="JY7" s="25">
+      <c r="JY7" s="3">
         <v>63009</v>
       </c>
+      <c r="JZ7" s="4">
+        <v>63478</v>
+      </c>
     </row>
-    <row r="8" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5716,11 +5727,14 @@
       <c r="JX8" s="3">
         <v>72900</v>
       </c>
-      <c r="JY8" s="25">
+      <c r="JY8" s="3">
         <v>73069</v>
       </c>
+      <c r="JZ8" s="4">
+        <v>73661</v>
+      </c>
     </row>
-    <row r="9" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6573,12 +6587,15 @@
       <c r="JX9" s="3">
         <v>57753</v>
       </c>
-      <c r="JY9" s="25">
+      <c r="JY9" s="3">
         <v>57816</v>
       </c>
-      <c r="KB9" s="19"/>
+      <c r="JZ9" s="4">
+        <v>57996</v>
+      </c>
+      <c r="KC9" s="19"/>
     </row>
-    <row r="10" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7431,11 +7448,14 @@
       <c r="JX10" s="3">
         <v>15345</v>
       </c>
-      <c r="JY10" s="25">
+      <c r="JY10" s="3">
         <v>15965</v>
       </c>
+      <c r="JZ10" s="4">
+        <v>16427</v>
+      </c>
     </row>
-    <row r="11" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8288,11 +8308,14 @@
       <c r="JX11" s="3">
         <v>59359</v>
       </c>
-      <c r="JY11" s="25">
+      <c r="JY11" s="3">
         <v>59745</v>
       </c>
+      <c r="JZ11" s="4">
+        <v>60733</v>
+      </c>
     </row>
-    <row r="12" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9145,11 +9168,14 @@
       <c r="JX12" s="3">
         <v>22416</v>
       </c>
-      <c r="JY12" s="25">
+      <c r="JY12" s="3">
         <v>22049</v>
       </c>
+      <c r="JZ12" s="4">
+        <v>22270</v>
+      </c>
     </row>
-    <row r="13" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10002,11 +10028,14 @@
       <c r="JX13" s="3">
         <v>8922</v>
       </c>
-      <c r="JY13" s="25">
+      <c r="JY13" s="3">
         <v>9004</v>
       </c>
+      <c r="JZ13" s="4">
+        <v>8952</v>
+      </c>
     </row>
-    <row r="14" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -10859,11 +10888,14 @@
       <c r="JX14" s="3">
         <v>81265</v>
       </c>
-      <c r="JY14" s="25">
+      <c r="JY14" s="3">
         <v>81322</v>
       </c>
+      <c r="JZ14" s="4">
+        <v>81584</v>
+      </c>
     </row>
-    <row r="15" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11716,11 +11748,14 @@
       <c r="JX15" s="3">
         <v>43076</v>
       </c>
-      <c r="JY15" s="25">
+      <c r="JY15" s="3">
         <v>43729</v>
       </c>
+      <c r="JZ15" s="4">
+        <v>43845</v>
+      </c>
     </row>
-    <row r="16" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12573,11 +12608,14 @@
       <c r="JX16" s="3">
         <v>27478</v>
       </c>
-      <c r="JY16" s="25">
+      <c r="JY16" s="3">
         <v>27163</v>
       </c>
+      <c r="JZ16" s="4">
+        <v>27729</v>
+      </c>
     </row>
-    <row r="17" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13430,11 +13468,14 @@
       <c r="JX17" s="3">
         <v>1527778</v>
       </c>
-      <c r="JY17" s="25">
+      <c r="JY17" s="3">
         <v>1532572</v>
       </c>
+      <c r="JZ17" s="4">
+        <v>1539598</v>
+      </c>
     </row>
-    <row r="18" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14551,7 +14592,7 @@
         <v>1964519</v>
       </c>
       <c r="JT18" s="16">
-        <f t="shared" ref="JT18:JY18" si="6">SUM(JT6:JT17)</f>
+        <f t="shared" ref="JT18:JZ18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
       <c r="JU18" s="16">
@@ -14570,12 +14611,16 @@
         <f t="shared" si="6"/>
         <v>1981146</v>
       </c>
-      <c r="JY18" s="9">
+      <c r="JY18" s="8">
+        <f>SUM(JY6:JY17)</f>
+        <v>1988746</v>
+      </c>
+      <c r="JZ18" s="9">
         <f t="shared" si="6"/>
-        <v>1988746</v>
+        <v>1999360</v>
       </c>
     </row>
-    <row r="19" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:286" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -14854,7 +14899,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE666E-1CB0-4D64-BB11-BF0BD2647753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B070C7-5F24-4B20-90F8-D24D7FE44BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1165,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KC20"/>
+  <dimension ref="A1:KD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JV30" sqref="JV30"/>
+      <pane xSplit="1" topLeftCell="JL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW26" sqref="JW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,17 +1426,17 @@
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2292,11 +2292,14 @@
       <c r="JY4" s="6">
         <v>2023</v>
       </c>
-      <c r="JZ4" s="10">
+      <c r="JZ4" s="6">
         <v>2023</v>
       </c>
+      <c r="KA4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
@@ -3150,11 +3153,14 @@
       <c r="JY5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="JZ5" s="22" t="s">
+      <c r="JZ5" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="KA5" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4010,11 +4016,14 @@
       <c r="JY6" s="3">
         <v>3303</v>
       </c>
-      <c r="JZ6" s="4">
+      <c r="JZ6" s="3">
         <v>3087</v>
       </c>
+      <c r="KA6" s="4">
+        <v>3531</v>
+      </c>
     </row>
-    <row r="7" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4870,11 +4879,14 @@
       <c r="JY7" s="3">
         <v>63009</v>
       </c>
-      <c r="JZ7" s="4">
+      <c r="JZ7" s="3">
         <v>63478</v>
       </c>
+      <c r="KA7" s="4">
+        <v>63978</v>
+      </c>
     </row>
-    <row r="8" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5730,11 +5742,14 @@
       <c r="JY8" s="3">
         <v>73069</v>
       </c>
-      <c r="JZ8" s="4">
+      <c r="JZ8" s="3">
         <v>73661</v>
       </c>
+      <c r="KA8" s="4">
+        <v>74329</v>
+      </c>
     </row>
-    <row r="9" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6590,12 +6605,15 @@
       <c r="JY9" s="3">
         <v>57816</v>
       </c>
-      <c r="JZ9" s="4">
+      <c r="JZ9" s="3">
         <v>57996</v>
       </c>
-      <c r="KC9" s="19"/>
+      <c r="KA9" s="4">
+        <v>58327</v>
+      </c>
+      <c r="KD9" s="19"/>
     </row>
-    <row r="10" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7451,11 +7469,14 @@
       <c r="JY10" s="3">
         <v>15965</v>
       </c>
-      <c r="JZ10" s="4">
+      <c r="JZ10" s="3">
         <v>16427</v>
       </c>
+      <c r="KA10" s="4">
+        <v>16803</v>
+      </c>
     </row>
-    <row r="11" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8311,11 +8332,14 @@
       <c r="JY11" s="3">
         <v>59745</v>
       </c>
-      <c r="JZ11" s="4">
+      <c r="JZ11" s="3">
         <v>60733</v>
       </c>
+      <c r="KA11" s="4">
+        <v>60796</v>
+      </c>
     </row>
-    <row r="12" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9171,11 +9195,14 @@
       <c r="JY12" s="3">
         <v>22049</v>
       </c>
-      <c r="JZ12" s="4">
+      <c r="JZ12" s="3">
         <v>22270</v>
       </c>
+      <c r="KA12" s="4">
+        <v>22348</v>
+      </c>
     </row>
-    <row r="13" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10031,11 +10058,14 @@
       <c r="JY13" s="3">
         <v>9004</v>
       </c>
-      <c r="JZ13" s="4">
+      <c r="JZ13" s="3">
         <v>8952</v>
       </c>
+      <c r="KA13" s="4">
+        <v>9054</v>
+      </c>
     </row>
-    <row r="14" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -10891,11 +10921,14 @@
       <c r="JY14" s="3">
         <v>81322</v>
       </c>
-      <c r="JZ14" s="4">
+      <c r="JZ14" s="3">
         <v>81584</v>
       </c>
+      <c r="KA14" s="4">
+        <v>81837</v>
+      </c>
     </row>
-    <row r="15" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11751,11 +11784,14 @@
       <c r="JY15" s="3">
         <v>43729</v>
       </c>
-      <c r="JZ15" s="4">
+      <c r="JZ15" s="3">
         <v>43845</v>
       </c>
+      <c r="KA15" s="4">
+        <v>44899</v>
+      </c>
     </row>
-    <row r="16" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12611,11 +12647,14 @@
       <c r="JY16" s="3">
         <v>27163</v>
       </c>
-      <c r="JZ16" s="4">
+      <c r="JZ16" s="3">
         <v>27729</v>
       </c>
+      <c r="KA16" s="4">
+        <v>28500</v>
+      </c>
     </row>
-    <row r="17" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13471,11 +13510,14 @@
       <c r="JY17" s="3">
         <v>1532572</v>
       </c>
-      <c r="JZ17" s="4">
+      <c r="JZ17" s="3">
         <v>1539598</v>
       </c>
+      <c r="KA17" s="4">
+        <v>1549029</v>
+      </c>
     </row>
-    <row r="18" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14592,7 +14634,7 @@
         <v>1964519</v>
       </c>
       <c r="JT18" s="16">
-        <f t="shared" ref="JT18:JZ18" si="6">SUM(JT6:JT17)</f>
+        <f t="shared" ref="JT18:KA18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
       <c r="JU18" s="16">
@@ -14615,12 +14657,16 @@
         <f>SUM(JY6:JY17)</f>
         <v>1988746</v>
       </c>
-      <c r="JZ18" s="9">
+      <c r="JZ18" s="8">
+        <f>SUM(JZ6:JZ17)</f>
+        <v>1999360</v>
+      </c>
+      <c r="KA18" s="9">
         <f t="shared" si="6"/>
-        <v>1999360</v>
+        <v>2013431</v>
       </c>
     </row>
-    <row r="19" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:287" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -14899,7 +14945,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B070C7-5F24-4B20-90F8-D24D7FE44BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BF8089-2246-4591-8C38-855B928BB743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1165,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KD20"/>
+  <dimension ref="A1:KE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JW26" sqref="JW26"/>
+      <pane xSplit="1" topLeftCell="JM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW28" sqref="JW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,19 +1424,20 @@
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
+    <col min="288" max="288" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2295,11 +2296,14 @@
       <c r="JZ4" s="6">
         <v>2023</v>
       </c>
-      <c r="KA4" s="10">
+      <c r="KA4" s="6">
         <v>2023</v>
       </c>
+      <c r="KB4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
@@ -3156,11 +3160,14 @@
       <c r="JZ5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="KA5" s="22" t="s">
+      <c r="KA5" s="21" t="s">
         <v>24</v>
       </c>
+      <c r="KB5" s="22" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4019,11 +4026,14 @@
       <c r="JZ6" s="3">
         <v>3087</v>
       </c>
-      <c r="KA6" s="4">
+      <c r="KA6" s="3">
         <v>3531</v>
       </c>
+      <c r="KB6" s="4">
+        <v>3627</v>
+      </c>
     </row>
-    <row r="7" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4882,11 +4892,14 @@
       <c r="JZ7" s="3">
         <v>63478</v>
       </c>
-      <c r="KA7" s="4">
+      <c r="KA7" s="3">
         <v>63978</v>
       </c>
+      <c r="KB7" s="4">
+        <v>64090</v>
+      </c>
     </row>
-    <row r="8" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5745,11 +5758,14 @@
       <c r="JZ8" s="3">
         <v>73661</v>
       </c>
-      <c r="KA8" s="4">
+      <c r="KA8" s="3">
         <v>74329</v>
       </c>
+      <c r="KB8" s="4">
+        <v>74393</v>
+      </c>
     </row>
-    <row r="9" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6608,12 +6624,15 @@
       <c r="JZ9" s="3">
         <v>57996</v>
       </c>
-      <c r="KA9" s="4">
+      <c r="KA9" s="3">
         <v>58327</v>
       </c>
-      <c r="KD9" s="19"/>
+      <c r="KB9" s="4">
+        <v>58276</v>
+      </c>
+      <c r="KE9" s="19"/>
     </row>
-    <row r="10" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7472,11 +7491,14 @@
       <c r="JZ10" s="3">
         <v>16427</v>
       </c>
-      <c r="KA10" s="4">
+      <c r="KA10" s="3">
         <v>16803</v>
       </c>
+      <c r="KB10" s="4">
+        <v>16892</v>
+      </c>
     </row>
-    <row r="11" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8335,11 +8357,14 @@
       <c r="JZ11" s="3">
         <v>60733</v>
       </c>
-      <c r="KA11" s="4">
+      <c r="KA11" s="3">
         <v>60796</v>
       </c>
+      <c r="KB11" s="4">
+        <v>62234</v>
+      </c>
     </row>
-    <row r="12" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9198,11 +9223,14 @@
       <c r="JZ12" s="3">
         <v>22270</v>
       </c>
-      <c r="KA12" s="4">
+      <c r="KA12" s="3">
         <v>22348</v>
       </c>
+      <c r="KB12" s="4">
+        <v>20967</v>
+      </c>
     </row>
-    <row r="13" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10061,11 +10089,14 @@
       <c r="JZ13" s="3">
         <v>8952</v>
       </c>
-      <c r="KA13" s="4">
+      <c r="KA13" s="3">
         <v>9054</v>
       </c>
+      <c r="KB13" s="4">
+        <v>9032</v>
+      </c>
     </row>
-    <row r="14" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -10924,11 +10955,14 @@
       <c r="JZ14" s="3">
         <v>81584</v>
       </c>
-      <c r="KA14" s="4">
+      <c r="KA14" s="3">
         <v>81837</v>
       </c>
+      <c r="KB14" s="4">
+        <v>82530</v>
+      </c>
     </row>
-    <row r="15" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11787,11 +11821,14 @@
       <c r="JZ15" s="3">
         <v>43845</v>
       </c>
-      <c r="KA15" s="4">
+      <c r="KA15" s="3">
         <v>44899</v>
       </c>
+      <c r="KB15" s="4">
+        <v>46507</v>
+      </c>
     </row>
-    <row r="16" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12650,11 +12687,14 @@
       <c r="JZ16" s="3">
         <v>27729</v>
       </c>
-      <c r="KA16" s="4">
+      <c r="KA16" s="3">
         <v>28500</v>
       </c>
+      <c r="KB16" s="4">
+        <v>28489</v>
+      </c>
     </row>
-    <row r="17" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13513,11 +13553,14 @@
       <c r="JZ17" s="3">
         <v>1539598</v>
       </c>
-      <c r="KA17" s="4">
+      <c r="KA17" s="3">
         <v>1549029</v>
       </c>
+      <c r="KB17" s="4">
+        <v>1559898</v>
+      </c>
     </row>
-    <row r="18" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14634,7 +14677,7 @@
         <v>1964519</v>
       </c>
       <c r="JT18" s="16">
-        <f t="shared" ref="JT18:KA18" si="6">SUM(JT6:JT17)</f>
+        <f t="shared" ref="JT18:KB18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
       <c r="JU18" s="16">
@@ -14661,12 +14704,16 @@
         <f>SUM(JZ6:JZ17)</f>
         <v>1999360</v>
       </c>
-      <c r="KA18" s="9">
+      <c r="KA18" s="8">
+        <f>SUM(KA6:KA17)</f>
+        <v>2013431</v>
+      </c>
+      <c r="KB18" s="9">
         <f t="shared" si="6"/>
-        <v>2013431</v>
+        <v>2026935</v>
       </c>
     </row>
-    <row r="19" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:288" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -14945,7 +14992,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BF8089-2246-4591-8C38-855B928BB743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E285C8-0C43-4975-8431-CCAFFF426C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1165,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KE20"/>
+  <dimension ref="A1:KF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JW28" sqref="JW28"/>
+      <pane xSplit="1" topLeftCell="JN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JS23" sqref="JS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,20 +1424,20 @@
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
-    <col min="288" max="288" width="11.33203125" customWidth="1"/>
+    <col min="289" max="289" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2299,11 +2299,14 @@
       <c r="KA4" s="6">
         <v>2023</v>
       </c>
-      <c r="KB4" s="10">
+      <c r="KB4" s="6">
         <v>2023</v>
       </c>
+      <c r="KC4" s="10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
@@ -3163,11 +3166,14 @@
       <c r="KA5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="KB5" s="22" t="s">
+      <c r="KB5" s="21" t="s">
         <v>25</v>
       </c>
+      <c r="KC5" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4029,11 +4035,14 @@
       <c r="KA6" s="3">
         <v>3531</v>
       </c>
-      <c r="KB6" s="4">
+      <c r="KB6" s="3">
         <v>3627</v>
       </c>
+      <c r="KC6" s="4">
+        <v>3794</v>
+      </c>
     </row>
-    <row r="7" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4895,11 +4904,14 @@
       <c r="KA7" s="3">
         <v>63978</v>
       </c>
-      <c r="KB7" s="4">
+      <c r="KB7" s="3">
         <v>64090</v>
       </c>
+      <c r="KC7" s="4">
+        <v>62262</v>
+      </c>
     </row>
-    <row r="8" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5761,11 +5773,14 @@
       <c r="KA8" s="3">
         <v>74329</v>
       </c>
-      <c r="KB8" s="4">
+      <c r="KB8" s="3">
         <v>74393</v>
       </c>
+      <c r="KC8" s="4">
+        <v>74022</v>
+      </c>
     </row>
-    <row r="9" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6627,12 +6642,15 @@
       <c r="KA9" s="3">
         <v>58327</v>
       </c>
-      <c r="KB9" s="4">
+      <c r="KB9" s="3">
         <v>58276</v>
       </c>
-      <c r="KE9" s="19"/>
+      <c r="KC9" s="4">
+        <v>57707</v>
+      </c>
+      <c r="KF9" s="19"/>
     </row>
-    <row r="10" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7494,11 +7512,14 @@
       <c r="KA10" s="3">
         <v>16803</v>
       </c>
-      <c r="KB10" s="4">
+      <c r="KB10" s="3">
         <v>16892</v>
       </c>
+      <c r="KC10" s="4">
+        <v>16544</v>
+      </c>
     </row>
-    <row r="11" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8360,11 +8381,14 @@
       <c r="KA11" s="3">
         <v>60796</v>
       </c>
-      <c r="KB11" s="4">
+      <c r="KB11" s="3">
         <v>62234</v>
       </c>
+      <c r="KC11" s="4">
+        <v>60533</v>
+      </c>
     </row>
-    <row r="12" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9226,11 +9250,14 @@
       <c r="KA12" s="3">
         <v>22348</v>
       </c>
-      <c r="KB12" s="4">
+      <c r="KB12" s="3">
         <v>20967</v>
       </c>
+      <c r="KC12" s="4">
+        <v>20338</v>
+      </c>
     </row>
-    <row r="13" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10092,11 +10119,14 @@
       <c r="KA13" s="3">
         <v>9054</v>
       </c>
-      <c r="KB13" s="4">
+      <c r="KB13" s="3">
         <v>9032</v>
       </c>
+      <c r="KC13" s="4">
+        <v>9329</v>
+      </c>
     </row>
-    <row r="14" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -10958,11 +10988,14 @@
       <c r="KA14" s="3">
         <v>81837</v>
       </c>
-      <c r="KB14" s="4">
+      <c r="KB14" s="3">
         <v>82530</v>
       </c>
+      <c r="KC14" s="4">
+        <v>81645</v>
+      </c>
     </row>
-    <row r="15" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11824,11 +11857,14 @@
       <c r="KA15" s="3">
         <v>44899</v>
       </c>
-      <c r="KB15" s="4">
+      <c r="KB15" s="3">
         <v>46507</v>
       </c>
+      <c r="KC15" s="4">
+        <v>46308</v>
+      </c>
     </row>
-    <row r="16" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12690,11 +12726,14 @@
       <c r="KA16" s="3">
         <v>28500</v>
       </c>
-      <c r="KB16" s="4">
+      <c r="KB16" s="3">
         <v>28489</v>
       </c>
+      <c r="KC16" s="4">
+        <v>29085</v>
+      </c>
     </row>
-    <row r="17" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13556,11 +13595,14 @@
       <c r="KA17" s="3">
         <v>1549029</v>
       </c>
-      <c r="KB17" s="4">
+      <c r="KB17" s="3">
         <v>1559898</v>
       </c>
+      <c r="KC17" s="4">
+        <v>1533790</v>
+      </c>
     </row>
-    <row r="18" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14677,7 +14719,7 @@
         <v>1964519</v>
       </c>
       <c r="JT18" s="16">
-        <f t="shared" ref="JT18:KB18" si="6">SUM(JT6:JT17)</f>
+        <f t="shared" ref="JT18:KC18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
       <c r="JU18" s="16">
@@ -14708,12 +14750,16 @@
         <f>SUM(KA6:KA17)</f>
         <v>2013431</v>
       </c>
-      <c r="KB18" s="9">
+      <c r="KB18" s="8">
+        <f>SUM(KB6:KB17)</f>
+        <v>2026935</v>
+      </c>
+      <c r="KC18" s="9">
         <f t="shared" si="6"/>
-        <v>2026935</v>
+        <v>1995357</v>
       </c>
     </row>
-    <row r="19" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:289" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -14992,7 +15038,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E285C8-0C43-4975-8431-CCAFFF426C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174F410-19AC-4063-947B-A57285DA366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Valles</t>
   </si>
   <si>
-    <t>2000-2023</t>
+    <t>2000-2024</t>
   </si>
 </sst>
 </file>
@@ -1165,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KF20"/>
+  <dimension ref="A1:KG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS23" sqref="JS23"/>
+      <pane xSplit="1" topLeftCell="JO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KF9" sqref="KF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,20 +1424,20 @@
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
-    <col min="289" max="289" width="11.33203125" customWidth="1"/>
+    <col min="290" max="290" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -2302,11 +2302,14 @@
       <c r="KB4" s="6">
         <v>2023</v>
       </c>
-      <c r="KC4" s="10">
+      <c r="KC4" s="6">
         <v>2023</v>
       </c>
+      <c r="KD4" s="10">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
@@ -3169,11 +3172,14 @@
       <c r="KB5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="KC5" s="22" t="s">
+      <c r="KC5" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="KD5" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4038,11 +4044,14 @@
       <c r="KB6" s="3">
         <v>3627</v>
       </c>
-      <c r="KC6" s="4">
+      <c r="KC6" s="3">
         <v>3794</v>
       </c>
+      <c r="KD6" s="4">
+        <v>4035</v>
+      </c>
     </row>
-    <row r="7" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4907,11 +4916,14 @@
       <c r="KB7" s="3">
         <v>64090</v>
       </c>
-      <c r="KC7" s="4">
+      <c r="KC7" s="3">
         <v>62262</v>
       </c>
+      <c r="KD7" s="4">
+        <v>63306</v>
+      </c>
     </row>
-    <row r="8" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5776,11 +5788,14 @@
       <c r="KB8" s="3">
         <v>74393</v>
       </c>
-      <c r="KC8" s="4">
+      <c r="KC8" s="3">
         <v>74022</v>
       </c>
+      <c r="KD8" s="4">
+        <v>74303</v>
+      </c>
     </row>
-    <row r="9" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6645,12 +6660,15 @@
       <c r="KB9" s="3">
         <v>58276</v>
       </c>
-      <c r="KC9" s="4">
+      <c r="KC9" s="3">
         <v>57707</v>
       </c>
-      <c r="KF9" s="19"/>
+      <c r="KD9" s="4">
+        <v>57606</v>
+      </c>
+      <c r="KG9" s="19"/>
     </row>
-    <row r="10" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7515,11 +7533,14 @@
       <c r="KB10" s="3">
         <v>16892</v>
       </c>
-      <c r="KC10" s="4">
+      <c r="KC10" s="3">
         <v>16544</v>
       </c>
+      <c r="KD10" s="4">
+        <v>16547</v>
+      </c>
     </row>
-    <row r="11" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8384,11 +8405,14 @@
       <c r="KB11" s="3">
         <v>62234</v>
       </c>
-      <c r="KC11" s="4">
+      <c r="KC11" s="3">
         <v>60533</v>
       </c>
+      <c r="KD11" s="4">
+        <v>60874</v>
+      </c>
     </row>
-    <row r="12" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9253,11 +9277,14 @@
       <c r="KB12" s="3">
         <v>20967</v>
       </c>
-      <c r="KC12" s="4">
+      <c r="KC12" s="3">
         <v>20338</v>
       </c>
+      <c r="KD12" s="4">
+        <v>20788</v>
+      </c>
     </row>
-    <row r="13" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10122,11 +10149,14 @@
       <c r="KB13" s="3">
         <v>9032</v>
       </c>
-      <c r="KC13" s="4">
+      <c r="KC13" s="3">
         <v>9329</v>
       </c>
+      <c r="KD13" s="4">
+        <v>9357</v>
+      </c>
     </row>
-    <row r="14" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -10991,11 +11021,14 @@
       <c r="KB14" s="3">
         <v>82530</v>
       </c>
-      <c r="KC14" s="4">
+      <c r="KC14" s="3">
         <v>81645</v>
       </c>
+      <c r="KD14" s="4">
+        <v>82057</v>
+      </c>
     </row>
-    <row r="15" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11860,11 +11893,14 @@
       <c r="KB15" s="3">
         <v>46507</v>
       </c>
-      <c r="KC15" s="4">
+      <c r="KC15" s="3">
         <v>46308</v>
       </c>
+      <c r="KD15" s="4">
+        <v>48342</v>
+      </c>
     </row>
-    <row r="16" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12729,11 +12765,14 @@
       <c r="KB16" s="3">
         <v>28489</v>
       </c>
-      <c r="KC16" s="4">
+      <c r="KC16" s="3">
         <v>29085</v>
       </c>
+      <c r="KD16" s="4">
+        <v>29444</v>
+      </c>
     </row>
-    <row r="17" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13598,11 +13637,14 @@
       <c r="KB17" s="3">
         <v>1559898</v>
       </c>
-      <c r="KC17" s="4">
+      <c r="KC17" s="3">
         <v>1533790</v>
       </c>
+      <c r="KD17" s="4">
+        <v>1543194</v>
+      </c>
     </row>
-    <row r="18" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14719,7 +14761,7 @@
         <v>1964519</v>
       </c>
       <c r="JT18" s="16">
-        <f t="shared" ref="JT18:KC18" si="6">SUM(JT6:JT17)</f>
+        <f t="shared" ref="JT18:KD18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
       <c r="JU18" s="16">
@@ -14754,12 +14796,16 @@
         <f>SUM(KB6:KB17)</f>
         <v>2026935</v>
       </c>
-      <c r="KC18" s="9">
+      <c r="KC18" s="8">
+        <f>SUM(KC6:KC17)</f>
+        <v>1995357</v>
+      </c>
+      <c r="KD18" s="9">
         <f t="shared" si="6"/>
-        <v>1995357</v>
+        <v>2009853</v>
       </c>
     </row>
-    <row r="19" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:290" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15038,7 +15084,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174F410-19AC-4063-947B-A57285DA366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78907D4D-79D8-4383-981F-7E605263DE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -491,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -712,6 +712,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -758,7 +769,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -811,6 +822,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KG20"/>
+  <dimension ref="A1:KH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF9" sqref="KF9"/>
+      <pane xSplit="1" topLeftCell="JP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,21 +1447,21 @@
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
     <col min="253" max="265" width="12.33203125" customWidth="1"/>
-    <col min="290" max="290" width="11.33203125" customWidth="1"/>
+    <col min="291" max="291" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:293" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:294" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2305,12 +2328,15 @@
       <c r="KC4" s="6">
         <v>2023</v>
       </c>
-      <c r="KD4" s="10">
+      <c r="KD4" s="32">
         <v>2024</v>
       </c>
+      <c r="KE4" s="33">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:293" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:294" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
@@ -3172,14 +3198,17 @@
       <c r="KB5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="KC5" s="21" t="s">
+      <c r="KC5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="KD5" s="22" t="s">
+      <c r="KD5" s="30" t="s">
         <v>15</v>
       </c>
+      <c r="KE5" s="31" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4044,14 +4073,17 @@
       <c r="KB6" s="3">
         <v>3627</v>
       </c>
-      <c r="KC6" s="3">
+      <c r="KC6" s="4">
         <v>3794</v>
       </c>
-      <c r="KD6" s="4">
+      <c r="KD6" s="3">
         <v>4035</v>
       </c>
+      <c r="KE6" s="4">
+        <v>4035</v>
+      </c>
     </row>
-    <row r="7" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4916,14 +4948,17 @@
       <c r="KB7" s="3">
         <v>64090</v>
       </c>
-      <c r="KC7" s="3">
+      <c r="KC7" s="4">
         <v>62262</v>
       </c>
-      <c r="KD7" s="4">
+      <c r="KD7" s="3">
         <v>63306</v>
       </c>
+      <c r="KE7" s="4">
+        <v>64174</v>
+      </c>
     </row>
-    <row r="8" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5788,14 +5823,17 @@
       <c r="KB8" s="3">
         <v>74393</v>
       </c>
-      <c r="KC8" s="3">
+      <c r="KC8" s="4">
         <v>74022</v>
       </c>
-      <c r="KD8" s="4">
+      <c r="KD8" s="3">
         <v>74303</v>
       </c>
+      <c r="KE8" s="4">
+        <v>74628</v>
+      </c>
     </row>
-    <row r="9" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6660,15 +6698,18 @@
       <c r="KB9" s="3">
         <v>58276</v>
       </c>
-      <c r="KC9" s="3">
+      <c r="KC9" s="4">
         <v>57707</v>
       </c>
-      <c r="KD9" s="4">
+      <c r="KD9" s="3">
         <v>57606</v>
       </c>
-      <c r="KG9" s="19"/>
+      <c r="KE9" s="4">
+        <v>58158</v>
+      </c>
+      <c r="KH9" s="19"/>
     </row>
-    <row r="10" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7533,14 +7574,17 @@
       <c r="KB10" s="3">
         <v>16892</v>
       </c>
-      <c r="KC10" s="3">
+      <c r="KC10" s="4">
         <v>16544</v>
       </c>
-      <c r="KD10" s="4">
+      <c r="KD10" s="3">
         <v>16547</v>
       </c>
+      <c r="KE10" s="4">
+        <v>16464</v>
+      </c>
     </row>
-    <row r="11" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8405,14 +8449,17 @@
       <c r="KB11" s="3">
         <v>62234</v>
       </c>
-      <c r="KC11" s="3">
+      <c r="KC11" s="4">
         <v>60533</v>
       </c>
-      <c r="KD11" s="4">
+      <c r="KD11" s="3">
         <v>60874</v>
       </c>
+      <c r="KE11" s="4">
+        <v>61275</v>
+      </c>
     </row>
-    <row r="12" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9277,14 +9324,17 @@
       <c r="KB12" s="3">
         <v>20967</v>
       </c>
-      <c r="KC12" s="3">
+      <c r="KC12" s="4">
         <v>20338</v>
       </c>
-      <c r="KD12" s="4">
+      <c r="KD12" s="3">
         <v>20788</v>
       </c>
+      <c r="KE12" s="4">
+        <v>21034</v>
+      </c>
     </row>
-    <row r="13" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10149,14 +10199,17 @@
       <c r="KB13" s="3">
         <v>9032</v>
       </c>
-      <c r="KC13" s="3">
+      <c r="KC13" s="4">
         <v>9329</v>
       </c>
-      <c r="KD13" s="4">
+      <c r="KD13" s="3">
         <v>9357</v>
       </c>
+      <c r="KE13" s="4">
+        <v>9432</v>
+      </c>
     </row>
-    <row r="14" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11021,14 +11074,17 @@
       <c r="KB14" s="3">
         <v>82530</v>
       </c>
-      <c r="KC14" s="3">
+      <c r="KC14" s="4">
         <v>81645</v>
       </c>
-      <c r="KD14" s="4">
+      <c r="KD14" s="3">
         <v>82057</v>
       </c>
+      <c r="KE14" s="4">
+        <v>82791</v>
+      </c>
     </row>
-    <row r="15" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11893,14 +11949,17 @@
       <c r="KB15" s="3">
         <v>46507</v>
       </c>
-      <c r="KC15" s="3">
+      <c r="KC15" s="4">
         <v>46308</v>
       </c>
-      <c r="KD15" s="4">
+      <c r="KD15" s="3">
         <v>48342</v>
       </c>
+      <c r="KE15" s="4">
+        <v>48140</v>
+      </c>
     </row>
-    <row r="16" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12765,14 +12824,17 @@
       <c r="KB16" s="3">
         <v>28489</v>
       </c>
-      <c r="KC16" s="3">
+      <c r="KC16" s="4">
         <v>29085</v>
       </c>
-      <c r="KD16" s="4">
+      <c r="KD16" s="3">
         <v>29444</v>
       </c>
+      <c r="KE16" s="4">
+        <v>28862</v>
+      </c>
     </row>
-    <row r="17" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13637,14 +13699,17 @@
       <c r="KB17" s="3">
         <v>1559898</v>
       </c>
-      <c r="KC17" s="3">
+      <c r="KC17" s="4">
         <v>1533790</v>
       </c>
-      <c r="KD17" s="4">
+      <c r="KD17" s="3">
         <v>1543194</v>
       </c>
+      <c r="KE17" s="4">
+        <v>1548886</v>
+      </c>
     </row>
-    <row r="18" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14761,7 +14826,7 @@
         <v>1964519</v>
       </c>
       <c r="JT18" s="16">
-        <f t="shared" ref="JT18:KD18" si="6">SUM(JT6:JT17)</f>
+        <f t="shared" ref="JT18:KE18" si="6">SUM(JT6:JT17)</f>
         <v>1972715</v>
       </c>
       <c r="JU18" s="16">
@@ -14781,31 +14846,35 @@
         <v>1981146</v>
       </c>
       <c r="JY18" s="8">
-        <f>SUM(JY6:JY17)</f>
+        <f t="shared" ref="JY18:KD18" si="7">SUM(JY6:JY17)</f>
         <v>1988746</v>
       </c>
       <c r="JZ18" s="8">
-        <f>SUM(JZ6:JZ17)</f>
+        <f t="shared" si="7"/>
         <v>1999360</v>
       </c>
       <c r="KA18" s="8">
-        <f>SUM(KA6:KA17)</f>
+        <f t="shared" si="7"/>
         <v>2013431</v>
       </c>
       <c r="KB18" s="8">
-        <f>SUM(KB6:KB17)</f>
+        <f t="shared" si="7"/>
         <v>2026935</v>
       </c>
-      <c r="KC18" s="8">
-        <f>SUM(KC6:KC17)</f>
+      <c r="KC18" s="9">
+        <f t="shared" si="7"/>
         <v>1995357</v>
       </c>
-      <c r="KD18" s="9">
+      <c r="KD18" s="8">
+        <f t="shared" si="7"/>
+        <v>2009853</v>
+      </c>
+      <c r="KE18" s="9">
         <f t="shared" si="6"/>
-        <v>2009853</v>
+        <v>2017879</v>
       </c>
     </row>
-    <row r="19" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:291" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15084,7 +15153,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78907D4D-79D8-4383-981F-7E605263DE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33ED58-F6F1-4129-855A-90196EF1303F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta regiones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -769,7 +758,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -827,9 +816,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,6 +828,19 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,9 +901,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +941,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,9 +976,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,9 +1028,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,277 +1224,277 @@
   <dimension ref="A1:KH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+      <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="11" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="10" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="11" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="11" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="11" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="11" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="10" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="11" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="10" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="11" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="11" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="187" max="187" width="10" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="196" max="196" width="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="11" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="10" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="11" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="235" max="235" width="10" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="244" max="244" width="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="13" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="13" customWidth="1"/>
-    <col min="253" max="265" width="12.33203125" customWidth="1"/>
-    <col min="291" max="291" width="11.33203125" customWidth="1"/>
+    <col min="253" max="265" width="12.28515625" customWidth="1"/>
+    <col min="291" max="291" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:294" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:294" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2328,15 +2361,21 @@
       <c r="KC4" s="6">
         <v>2023</v>
       </c>
-      <c r="KD4" s="32">
+      <c r="KD4" s="31">
         <v>2024</v>
       </c>
-      <c r="KE4" s="33">
+      <c r="KE4" s="36">
         <v>2024</v>
       </c>
+      <c r="KF4" s="36">
+        <v>2024</v>
+      </c>
+      <c r="KG4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:294" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:294" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
@@ -3201,14 +3240,20 @@
       <c r="KC5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="KD5" s="30" t="s">
+      <c r="KD5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="KE5" s="31" t="s">
+      <c r="KE5" s="30" t="s">
         <v>16</v>
       </c>
+      <c r="KF5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="KG5" s="35" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4076,14 +4121,20 @@
       <c r="KC6" s="4">
         <v>3794</v>
       </c>
-      <c r="KD6" s="3">
+      <c r="KD6" s="2">
         <v>4035</v>
       </c>
-      <c r="KE6" s="4">
+      <c r="KE6" s="39">
         <v>4035</v>
       </c>
+      <c r="KF6" s="39">
+        <v>3804</v>
+      </c>
+      <c r="KG6" s="4">
+        <v>3956</v>
+      </c>
     </row>
-    <row r="7" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -4951,14 +5002,20 @@
       <c r="KC7" s="4">
         <v>62262</v>
       </c>
-      <c r="KD7" s="3">
+      <c r="KD7" s="2">
         <v>63306</v>
       </c>
-      <c r="KE7" s="4">
+      <c r="KE7" s="39">
         <v>64174</v>
       </c>
+      <c r="KF7" s="39">
+        <v>65481</v>
+      </c>
+      <c r="KG7" s="4">
+        <v>65922</v>
+      </c>
     </row>
-    <row r="8" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5826,14 +5883,20 @@
       <c r="KC8" s="4">
         <v>74022</v>
       </c>
-      <c r="KD8" s="3">
+      <c r="KD8" s="2">
         <v>74303</v>
       </c>
-      <c r="KE8" s="4">
+      <c r="KE8" s="39">
         <v>74628</v>
       </c>
+      <c r="KF8" s="39">
+        <v>74562</v>
+      </c>
+      <c r="KG8" s="4">
+        <v>74384</v>
+      </c>
     </row>
-    <row r="9" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6701,15 +6764,21 @@
       <c r="KC9" s="4">
         <v>57707</v>
       </c>
-      <c r="KD9" s="3">
+      <c r="KD9" s="2">
         <v>57606</v>
       </c>
-      <c r="KE9" s="4">
+      <c r="KE9" s="39">
         <v>58158</v>
+      </c>
+      <c r="KF9" s="39">
+        <v>58133</v>
+      </c>
+      <c r="KG9" s="4">
+        <v>57735</v>
       </c>
       <c r="KH9" s="19"/>
     </row>
-    <row r="10" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7577,14 +7646,20 @@
       <c r="KC10" s="4">
         <v>16544</v>
       </c>
-      <c r="KD10" s="3">
+      <c r="KD10" s="2">
         <v>16547</v>
       </c>
-      <c r="KE10" s="4">
+      <c r="KE10" s="39">
         <v>16464</v>
       </c>
+      <c r="KF10" s="39">
+        <v>16514</v>
+      </c>
+      <c r="KG10" s="4">
+        <v>16581</v>
+      </c>
     </row>
-    <row r="11" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8452,14 +8527,20 @@
       <c r="KC11" s="4">
         <v>60533</v>
       </c>
-      <c r="KD11" s="3">
+      <c r="KD11" s="2">
         <v>60874</v>
       </c>
-      <c r="KE11" s="4">
+      <c r="KE11" s="39">
         <v>61275</v>
       </c>
+      <c r="KF11" s="39">
+        <v>61129</v>
+      </c>
+      <c r="KG11" s="4">
+        <v>60992</v>
+      </c>
     </row>
-    <row r="12" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9327,14 +9408,20 @@
       <c r="KC12" s="4">
         <v>20338</v>
       </c>
-      <c r="KD12" s="3">
+      <c r="KD12" s="2">
         <v>20788</v>
       </c>
-      <c r="KE12" s="4">
+      <c r="KE12" s="39">
         <v>21034</v>
       </c>
+      <c r="KF12" s="39">
+        <v>20766</v>
+      </c>
+      <c r="KG12" s="4">
+        <v>20709</v>
+      </c>
     </row>
-    <row r="13" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10202,14 +10289,20 @@
       <c r="KC13" s="4">
         <v>9329</v>
       </c>
-      <c r="KD13" s="3">
+      <c r="KD13" s="2">
         <v>9357</v>
       </c>
-      <c r="KE13" s="4">
+      <c r="KE13" s="39">
         <v>9432</v>
       </c>
+      <c r="KF13" s="39">
+        <v>9374</v>
+      </c>
+      <c r="KG13" s="4">
+        <v>9480</v>
+      </c>
     </row>
-    <row r="14" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11077,14 +11170,20 @@
       <c r="KC14" s="4">
         <v>81645</v>
       </c>
-      <c r="KD14" s="3">
+      <c r="KD14" s="2">
         <v>82057</v>
       </c>
-      <c r="KE14" s="4">
+      <c r="KE14" s="39">
         <v>82791</v>
       </c>
+      <c r="KF14" s="39">
+        <v>82994</v>
+      </c>
+      <c r="KG14" s="4">
+        <v>82998</v>
+      </c>
     </row>
-    <row r="15" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -11952,14 +12051,20 @@
       <c r="KC15" s="4">
         <v>46308</v>
       </c>
-      <c r="KD15" s="3">
+      <c r="KD15" s="2">
         <v>48342</v>
       </c>
-      <c r="KE15" s="4">
+      <c r="KE15" s="39">
         <v>48140</v>
       </c>
+      <c r="KF15" s="39">
+        <v>28051</v>
+      </c>
+      <c r="KG15" s="4">
+        <v>27341</v>
+      </c>
     </row>
-    <row r="16" spans="1:294" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12827,14 +12932,20 @@
       <c r="KC16" s="4">
         <v>29085</v>
       </c>
-      <c r="KD16" s="3">
+      <c r="KD16" s="2">
         <v>29444</v>
       </c>
-      <c r="KE16" s="4">
+      <c r="KE16" s="39">
         <v>28862</v>
       </c>
+      <c r="KF16" s="39">
+        <v>47991</v>
+      </c>
+      <c r="KG16" s="4">
+        <v>48680</v>
+      </c>
     </row>
-    <row r="17" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13702,14 +13813,20 @@
       <c r="KC17" s="4">
         <v>1533790</v>
       </c>
-      <c r="KD17" s="3">
+      <c r="KD17" s="2">
         <v>1543194</v>
       </c>
-      <c r="KE17" s="4">
+      <c r="KE17" s="39">
         <v>1548886</v>
       </c>
+      <c r="KF17" s="39">
+        <v>1548827</v>
+      </c>
+      <c r="KG17" s="4">
+        <v>1554616</v>
+      </c>
     </row>
-    <row r="18" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14865,16 +14982,22 @@
         <f t="shared" si="7"/>
         <v>1995357</v>
       </c>
-      <c r="KD18" s="8">
+      <c r="KD18" s="7">
         <f t="shared" si="7"/>
         <v>2009853</v>
       </c>
-      <c r="KE18" s="9">
+      <c r="KE18" s="8">
         <f t="shared" si="6"/>
         <v>2017879</v>
       </c>
+      <c r="KF18" s="8">
+        <v>2017626</v>
+      </c>
+      <c r="KG18" s="9">
+        <v>2023394</v>
+      </c>
     </row>
-    <row r="19" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:293" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15153,7 +15276,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:293" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C33ED58-F6F1-4129-855A-90196EF1303F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608090E-D4E8-40EE-8F51-2450EA8556D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -784,9 +784,6 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,12 +819,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,6 +832,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,9 +1220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="JZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KK12" sqref="KK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1491,7 @@
       </c>
     </row>
     <row r="4" spans="1:294" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2361,896 +2358,902 @@
       <c r="KC4" s="6">
         <v>2023</v>
       </c>
-      <c r="KD4" s="31">
+      <c r="KD4" s="30">
         <v>2024</v>
       </c>
-      <c r="KE4" s="36">
+      <c r="KE4" s="33">
         <v>2024</v>
       </c>
-      <c r="KF4" s="36">
+      <c r="KF4" s="33">
         <v>2024</v>
       </c>
-      <c r="KG4" s="32">
+      <c r="KG4" s="31">
+        <v>2024</v>
+      </c>
+      <c r="KH4" s="31">
         <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:294" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="28" t="s">
+      <c r="Z5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="27" t="s">
+      <c r="AC5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="27" t="s">
+      <c r="AD5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AE5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AF5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="27" t="s">
+      <c r="AG5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="27" t="s">
+      <c r="AH5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AI5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="27" t="s">
+      <c r="AJ5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="29" t="s">
+      <c r="AK5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AL5" s="28" t="s">
+      <c r="AL5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="27" t="s">
+      <c r="AM5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="27" t="s">
+      <c r="AN5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AO5" s="27" t="s">
+      <c r="AO5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AP5" s="27" t="s">
+      <c r="AP5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AQ5" s="27" t="s">
+      <c r="AQ5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="27" t="s">
+      <c r="AR5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" s="27" t="s">
+      <c r="AS5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="27" t="s">
+      <c r="AT5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="27" t="s">
+      <c r="AU5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="27" t="s">
+      <c r="AV5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="29" t="s">
+      <c r="AW5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AX5" s="28" t="s">
+      <c r="AX5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="27" t="s">
+      <c r="AY5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AZ5" s="27" t="s">
+      <c r="AZ5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BA5" s="27" t="s">
+      <c r="BA5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="BB5" s="27" t="s">
+      <c r="BB5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="27" t="s">
+      <c r="BC5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="27" t="s">
+      <c r="BD5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="BE5" s="27" t="s">
+      <c r="BE5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="BF5" s="27" t="s">
+      <c r="BF5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="BG5" s="27" t="s">
+      <c r="BG5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BH5" s="27" t="s">
+      <c r="BH5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="29" t="s">
+      <c r="BI5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="BJ5" s="28" t="s">
+      <c r="BJ5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="BK5" s="27" t="s">
+      <c r="BK5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="BL5" s="27" t="s">
+      <c r="BL5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BM5" s="27" t="s">
+      <c r="BM5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="BN5" s="27" t="s">
+      <c r="BN5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="BO5" s="27" t="s">
+      <c r="BO5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="BP5" s="27" t="s">
+      <c r="BP5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="BQ5" s="27" t="s">
+      <c r="BQ5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="BR5" s="27" t="s">
+      <c r="BR5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="BS5" s="27" t="s">
+      <c r="BS5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BT5" s="27" t="s">
+      <c r="BT5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BU5" s="29" t="s">
+      <c r="BU5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="BV5" s="28" t="s">
+      <c r="BV5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="BW5" s="27" t="s">
+      <c r="BW5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="BX5" s="27" t="s">
+      <c r="BX5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BY5" s="27" t="s">
+      <c r="BY5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="27" t="s">
+      <c r="BZ5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="27" t="s">
+      <c r="CA5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="27" t="s">
+      <c r="CB5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="27" t="s">
+      <c r="CC5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CD5" s="27" t="s">
+      <c r="CD5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="CE5" s="27" t="s">
+      <c r="CE5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CF5" s="27" t="s">
+      <c r="CF5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CG5" s="29" t="s">
+      <c r="CG5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CH5" s="28" t="s">
+      <c r="CH5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="CI5" s="27" t="s">
+      <c r="CI5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="CJ5" s="27" t="s">
+      <c r="CJ5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CK5" s="27" t="s">
+      <c r="CK5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="CL5" s="27" t="s">
+      <c r="CL5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CM5" s="27" t="s">
+      <c r="CM5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="CN5" s="27" t="s">
+      <c r="CN5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="CO5" s="27" t="s">
+      <c r="CO5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="CP5" s="27" t="s">
+      <c r="CP5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="CQ5" s="27" t="s">
+      <c r="CQ5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="CR5" s="27" t="s">
+      <c r="CR5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="CS5" s="29" t="s">
+      <c r="CS5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CT5" s="28" t="s">
+      <c r="CT5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="CU5" s="27" t="s">
+      <c r="CU5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="CV5" s="27" t="s">
+      <c r="CV5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CW5" s="27" t="s">
+      <c r="CW5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="CX5" s="27" t="s">
+      <c r="CX5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CY5" s="27" t="s">
+      <c r="CY5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="27" t="s">
+      <c r="CZ5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="DA5" s="27" t="s">
+      <c r="DA5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="DB5" s="27" t="s">
+      <c r="DB5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="DC5" s="27" t="s">
+      <c r="DC5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="DD5" s="27" t="s">
+      <c r="DD5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="DE5" s="29" t="s">
+      <c r="DE5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="DF5" s="28" t="s">
+      <c r="DF5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="DG5" s="27" t="s">
+      <c r="DG5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="DH5" s="27" t="s">
+      <c r="DH5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="DI5" s="27" t="s">
+      <c r="DI5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="DJ5" s="27" t="s">
+      <c r="DJ5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="DK5" s="27" t="s">
+      <c r="DK5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="DL5" s="27" t="s">
+      <c r="DL5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="DM5" s="27" t="s">
+      <c r="DM5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="DN5" s="27" t="s">
+      <c r="DN5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="DO5" s="27" t="s">
+      <c r="DO5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="DP5" s="27" t="s">
+      <c r="DP5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="DQ5" s="29" t="s">
+      <c r="DQ5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="DR5" s="28" t="s">
+      <c r="DR5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="DS5" s="27" t="s">
+      <c r="DS5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="DT5" s="27" t="s">
+      <c r="DT5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="DU5" s="27" t="s">
+      <c r="DU5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="DV5" s="27" t="s">
+      <c r="DV5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="DW5" s="27" t="s">
+      <c r="DW5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="DX5" s="27" t="s">
+      <c r="DX5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="DY5" s="27" t="s">
+      <c r="DY5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="DZ5" s="27" t="s">
+      <c r="DZ5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="EA5" s="27" t="s">
+      <c r="EA5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="EB5" s="27" t="s">
+      <c r="EB5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="EC5" s="29" t="s">
+      <c r="EC5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="ED5" s="28" t="s">
+      <c r="ED5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="EE5" s="27" t="s">
+      <c r="EE5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="EF5" s="27" t="s">
+      <c r="EF5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="EG5" s="27" t="s">
+      <c r="EG5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="EH5" s="27" t="s">
+      <c r="EH5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="EI5" s="27" t="s">
+      <c r="EI5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="EJ5" s="27" t="s">
+      <c r="EJ5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="EK5" s="27" t="s">
+      <c r="EK5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="EL5" s="27" t="s">
+      <c r="EL5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="EM5" s="27" t="s">
+      <c r="EM5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="EN5" s="27" t="s">
+      <c r="EN5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="EO5" s="29" t="s">
+      <c r="EO5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="EP5" s="28" t="s">
+      <c r="EP5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="EQ5" s="27" t="s">
+      <c r="EQ5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="ER5" s="27" t="s">
+      <c r="ER5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="ES5" s="27" t="s">
+      <c r="ES5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="ET5" s="27" t="s">
+      <c r="ET5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="EU5" s="27" t="s">
+      <c r="EU5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="EV5" s="27" t="s">
+      <c r="EV5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="EW5" s="27" t="s">
+      <c r="EW5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="EX5" s="27" t="s">
+      <c r="EX5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="EY5" s="27" t="s">
+      <c r="EY5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="EZ5" s="27" t="s">
+      <c r="EZ5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="FA5" s="29" t="s">
+      <c r="FA5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="FB5" s="28" t="s">
+      <c r="FB5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="FC5" s="27" t="s">
+      <c r="FC5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="FD5" s="27" t="s">
+      <c r="FD5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="FE5" s="27" t="s">
+      <c r="FE5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="FF5" s="27" t="s">
+      <c r="FF5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="FG5" s="27" t="s">
+      <c r="FG5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="FH5" s="27" t="s">
+      <c r="FH5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="FI5" s="27" t="s">
+      <c r="FI5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="FJ5" s="27" t="s">
+      <c r="FJ5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="FK5" s="27" t="s">
+      <c r="FK5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="FL5" s="27" t="s">
+      <c r="FL5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="FM5" s="29" t="s">
+      <c r="FM5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="FN5" s="28" t="s">
+      <c r="FN5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="FO5" s="27" t="s">
+      <c r="FO5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="FP5" s="27" t="s">
+      <c r="FP5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="FQ5" s="27" t="s">
+      <c r="FQ5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="FR5" s="27" t="s">
+      <c r="FR5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="FS5" s="27" t="s">
+      <c r="FS5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="FT5" s="27" t="s">
+      <c r="FT5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="FU5" s="27" t="s">
+      <c r="FU5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="FV5" s="27" t="s">
+      <c r="FV5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="FW5" s="27" t="s">
+      <c r="FW5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="FX5" s="27" t="s">
+      <c r="FX5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="FY5" s="29" t="s">
+      <c r="FY5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="FZ5" s="28" t="s">
+      <c r="FZ5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="GA5" s="27" t="s">
+      <c r="GA5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="GB5" s="27" t="s">
+      <c r="GB5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="GC5" s="27" t="s">
+      <c r="GC5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="GD5" s="27" t="s">
+      <c r="GD5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="GE5" s="27" t="s">
+      <c r="GE5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="GF5" s="27" t="s">
+      <c r="GF5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="GG5" s="27" t="s">
+      <c r="GG5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="GH5" s="27" t="s">
+      <c r="GH5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="GI5" s="27" t="s">
+      <c r="GI5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="GJ5" s="27" t="s">
+      <c r="GJ5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="GK5" s="29" t="s">
+      <c r="GK5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="GL5" s="28" t="s">
+      <c r="GL5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="GM5" s="27" t="s">
+      <c r="GM5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="GN5" s="27" t="s">
+      <c r="GN5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="GO5" s="27" t="s">
+      <c r="GO5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="GP5" s="27" t="s">
+      <c r="GP5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="GQ5" s="27" t="s">
+      <c r="GQ5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="GR5" s="27" t="s">
+      <c r="GR5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="GS5" s="27" t="s">
+      <c r="GS5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="GT5" s="27" t="s">
+      <c r="GT5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="GU5" s="27" t="s">
+      <c r="GU5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="GV5" s="27" t="s">
+      <c r="GV5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="GW5" s="29" t="s">
+      <c r="GW5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="GX5" s="28" t="s">
+      <c r="GX5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="GY5" s="27" t="s">
+      <c r="GY5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="GZ5" s="27" t="s">
+      <c r="GZ5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="HA5" s="27" t="s">
+      <c r="HA5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="HB5" s="27" t="s">
+      <c r="HB5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="HC5" s="27" t="s">
+      <c r="HC5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="HD5" s="27" t="s">
+      <c r="HD5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="HE5" s="27" t="s">
+      <c r="HE5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="HF5" s="27" t="s">
+      <c r="HF5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="HG5" s="27" t="s">
+      <c r="HG5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="HH5" s="27" t="s">
+      <c r="HH5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="HI5" s="29" t="s">
+      <c r="HI5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="HJ5" s="28" t="s">
+      <c r="HJ5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="HK5" s="27" t="s">
+      <c r="HK5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="HL5" s="27" t="s">
+      <c r="HL5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="HM5" s="27" t="s">
+      <c r="HM5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="HN5" s="27" t="s">
+      <c r="HN5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="HO5" s="27" t="s">
+      <c r="HO5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="HP5" s="27" t="s">
+      <c r="HP5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="HQ5" s="27" t="s">
+      <c r="HQ5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="HR5" s="27" t="s">
+      <c r="HR5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="HS5" s="27" t="s">
+      <c r="HS5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="HT5" s="27" t="s">
+      <c r="HT5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="HU5" s="29" t="s">
+      <c r="HU5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="HV5" s="28" t="s">
+      <c r="HV5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="HW5" s="27" t="s">
+      <c r="HW5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="HX5" s="27" t="s">
+      <c r="HX5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="HY5" s="27" t="s">
+      <c r="HY5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="HZ5" s="27" t="s">
+      <c r="HZ5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="IA5" s="27" t="s">
+      <c r="IA5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="IB5" s="27" t="s">
+      <c r="IB5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="IC5" s="21" t="s">
+      <c r="IC5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="ID5" s="21" t="s">
+      <c r="ID5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="IE5" s="21" t="s">
+      <c r="IE5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="IF5" s="21" t="s">
+      <c r="IF5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="IG5" s="22" t="s">
+      <c r="IG5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="IH5" s="25" t="s">
+      <c r="IH5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="II5" s="26" t="s">
+      <c r="II5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="IJ5" s="26" t="s">
+      <c r="IJ5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="IK5" s="26" t="s">
+      <c r="IK5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="IL5" s="27" t="s">
+      <c r="IL5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="IM5" s="27" t="s">
+      <c r="IM5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="IN5" s="27" t="s">
+      <c r="IN5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="IO5" s="27" t="s">
+      <c r="IO5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="IP5" s="21" t="s">
+      <c r="IP5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="IQ5" s="21" t="s">
+      <c r="IQ5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="IR5" s="21" t="s">
+      <c r="IR5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="IS5" s="22" t="s">
+      <c r="IS5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="IT5" s="20" t="s">
+      <c r="IT5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="IU5" s="21" t="s">
+      <c r="IU5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="IV5" s="21" t="s">
+      <c r="IV5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="IW5" s="21" t="s">
+      <c r="IW5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="IX5" s="21" t="s">
+      <c r="IX5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="IY5" s="21" t="s">
+      <c r="IY5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="IZ5" s="21" t="s">
+      <c r="IZ5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JA5" s="21" t="s">
+      <c r="JA5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="JB5" s="21" t="s">
+      <c r="JB5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="JC5" s="21" t="s">
+      <c r="JC5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="JD5" s="21" t="s">
+      <c r="JD5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="JE5" s="22" t="s">
+      <c r="JE5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="JF5" s="20" t="s">
+      <c r="JF5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="JG5" s="21" t="s">
+      <c r="JG5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="JH5" s="21" t="s">
+      <c r="JH5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="JI5" s="21" t="s">
+      <c r="JI5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="JJ5" s="21" t="s">
+      <c r="JJ5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="JK5" s="21" t="s">
+      <c r="JK5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="JL5" s="21" t="s">
+      <c r="JL5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JM5" s="21" t="s">
+      <c r="JM5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="JN5" s="21" t="s">
+      <c r="JN5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="JO5" s="21" t="s">
+      <c r="JO5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="JP5" s="21" t="s">
+      <c r="JP5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="JQ5" s="22" t="s">
+      <c r="JQ5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="JR5" s="20" t="s">
+      <c r="JR5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="JS5" s="21" t="s">
+      <c r="JS5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="JT5" s="21" t="s">
+      <c r="JT5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="JU5" s="21" t="s">
+      <c r="JU5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="JV5" s="21" t="s">
+      <c r="JV5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="JW5" s="21" t="s">
+      <c r="JW5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="JX5" s="21" t="s">
+      <c r="JX5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="JY5" s="21" t="s">
+      <c r="JY5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="JZ5" s="21" t="s">
+      <c r="JZ5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="KA5" s="21" t="s">
+      <c r="KA5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="KB5" s="21" t="s">
+      <c r="KB5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="KC5" s="22" t="s">
+      <c r="KC5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="KD5" s="37" t="s">
+      <c r="KD5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="KE5" s="30" t="s">
+      <c r="KE5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="KF5" s="38" t="s">
+      <c r="KF5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="KG5" s="35" t="s">
+      <c r="KG5" s="32" t="s">
         <v>18</v>
+      </c>
+      <c r="KH5" s="32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:294" x14ac:dyDescent="0.25">
@@ -4085,22 +4088,22 @@
       <c r="JQ6" s="3">
         <v>2836</v>
       </c>
-      <c r="JR6" s="23">
+      <c r="JR6" s="22">
         <v>3052</v>
       </c>
-      <c r="JS6" s="24">
+      <c r="JS6" s="23">
         <v>3104</v>
       </c>
-      <c r="JT6" s="24">
+      <c r="JT6" s="23">
         <v>3163</v>
       </c>
-      <c r="JU6" s="24">
+      <c r="JU6" s="23">
         <v>2911</v>
       </c>
-      <c r="JV6" s="24">
+      <c r="JV6" s="23">
         <v>3190</v>
       </c>
-      <c r="JW6" s="24">
+      <c r="JW6" s="23">
         <v>3253</v>
       </c>
       <c r="JX6" s="3">
@@ -4124,14 +4127,17 @@
       <c r="KD6" s="2">
         <v>4035</v>
       </c>
-      <c r="KE6" s="39">
+      <c r="KE6" s="36">
         <v>4035</v>
       </c>
-      <c r="KF6" s="39">
+      <c r="KF6" s="36">
         <v>3804</v>
       </c>
       <c r="KG6" s="4">
         <v>3956</v>
+      </c>
+      <c r="KH6" s="4">
+        <v>4124</v>
       </c>
     </row>
     <row r="7" spans="1:294" x14ac:dyDescent="0.25">
@@ -5005,14 +5011,17 @@
       <c r="KD7" s="2">
         <v>63306</v>
       </c>
-      <c r="KE7" s="39">
+      <c r="KE7" s="36">
         <v>64174</v>
       </c>
-      <c r="KF7" s="39">
+      <c r="KF7" s="36">
         <v>65481</v>
       </c>
       <c r="KG7" s="4">
         <v>65922</v>
+      </c>
+      <c r="KH7" s="4">
+        <v>67282</v>
       </c>
     </row>
     <row r="8" spans="1:294" x14ac:dyDescent="0.25">
@@ -5886,14 +5895,17 @@
       <c r="KD8" s="2">
         <v>74303</v>
       </c>
-      <c r="KE8" s="39">
+      <c r="KE8" s="36">
         <v>74628</v>
       </c>
-      <c r="KF8" s="39">
+      <c r="KF8" s="36">
         <v>74562</v>
       </c>
       <c r="KG8" s="4">
         <v>74384</v>
+      </c>
+      <c r="KH8" s="4">
+        <v>73994</v>
       </c>
     </row>
     <row r="9" spans="1:294" x14ac:dyDescent="0.25">
@@ -6767,16 +6779,18 @@
       <c r="KD9" s="2">
         <v>57606</v>
       </c>
-      <c r="KE9" s="39">
+      <c r="KE9" s="36">
         <v>58158</v>
       </c>
-      <c r="KF9" s="39">
+      <c r="KF9" s="36">
         <v>58133</v>
       </c>
       <c r="KG9" s="4">
         <v>57735</v>
       </c>
-      <c r="KH9" s="19"/>
+      <c r="KH9" s="4">
+        <v>58101</v>
+      </c>
     </row>
     <row r="10" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -7649,14 +7663,17 @@
       <c r="KD10" s="2">
         <v>16547</v>
       </c>
-      <c r="KE10" s="39">
+      <c r="KE10" s="36">
         <v>16464</v>
       </c>
-      <c r="KF10" s="39">
+      <c r="KF10" s="36">
         <v>16514</v>
       </c>
       <c r="KG10" s="4">
         <v>16581</v>
+      </c>
+      <c r="KH10" s="4">
+        <v>16194</v>
       </c>
     </row>
     <row r="11" spans="1:294" x14ac:dyDescent="0.25">
@@ -8530,14 +8547,17 @@
       <c r="KD11" s="2">
         <v>60874</v>
       </c>
-      <c r="KE11" s="39">
+      <c r="KE11" s="36">
         <v>61275</v>
       </c>
-      <c r="KF11" s="39">
+      <c r="KF11" s="36">
         <v>61129</v>
       </c>
       <c r="KG11" s="4">
         <v>60992</v>
+      </c>
+      <c r="KH11" s="4">
+        <v>60871</v>
       </c>
     </row>
     <row r="12" spans="1:294" x14ac:dyDescent="0.25">
@@ -9411,14 +9431,17 @@
       <c r="KD12" s="2">
         <v>20788</v>
       </c>
-      <c r="KE12" s="39">
+      <c r="KE12" s="36">
         <v>21034</v>
       </c>
-      <c r="KF12" s="39">
+      <c r="KF12" s="36">
         <v>20766</v>
       </c>
       <c r="KG12" s="4">
         <v>20709</v>
+      </c>
+      <c r="KH12" s="4">
+        <v>20862</v>
       </c>
     </row>
     <row r="13" spans="1:294" x14ac:dyDescent="0.25">
@@ -10292,14 +10315,17 @@
       <c r="KD13" s="2">
         <v>9357</v>
       </c>
-      <c r="KE13" s="39">
+      <c r="KE13" s="36">
         <v>9432</v>
       </c>
-      <c r="KF13" s="39">
+      <c r="KF13" s="36">
         <v>9374</v>
       </c>
       <c r="KG13" s="4">
         <v>9480</v>
+      </c>
+      <c r="KH13" s="4">
+        <v>9162</v>
       </c>
     </row>
     <row r="14" spans="1:294" x14ac:dyDescent="0.25">
@@ -11173,14 +11199,17 @@
       <c r="KD14" s="2">
         <v>82057</v>
       </c>
-      <c r="KE14" s="39">
+      <c r="KE14" s="36">
         <v>82791</v>
       </c>
-      <c r="KF14" s="39">
+      <c r="KF14" s="36">
         <v>82994</v>
       </c>
       <c r="KG14" s="4">
         <v>82998</v>
+      </c>
+      <c r="KH14" s="4">
+        <v>84827</v>
       </c>
     </row>
     <row r="15" spans="1:294" x14ac:dyDescent="0.25">
@@ -12054,14 +12083,17 @@
       <c r="KD15" s="2">
         <v>48342</v>
       </c>
-      <c r="KE15" s="39">
+      <c r="KE15" s="36">
         <v>48140</v>
       </c>
-      <c r="KF15" s="39">
+      <c r="KF15" s="36">
         <v>28051</v>
       </c>
       <c r="KG15" s="4">
         <v>27341</v>
+      </c>
+      <c r="KH15" s="4">
+        <v>45910</v>
       </c>
     </row>
     <row r="16" spans="1:294" x14ac:dyDescent="0.25">
@@ -12935,17 +12967,20 @@
       <c r="KD16" s="2">
         <v>29444</v>
       </c>
-      <c r="KE16" s="39">
+      <c r="KE16" s="36">
         <v>28862</v>
       </c>
-      <c r="KF16" s="39">
+      <c r="KF16" s="36">
         <v>47991</v>
       </c>
       <c r="KG16" s="4">
         <v>48680</v>
       </c>
+      <c r="KH16" s="4">
+        <v>26234</v>
+      </c>
     </row>
-    <row r="17" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13816,17 +13851,20 @@
       <c r="KD17" s="2">
         <v>1543194</v>
       </c>
-      <c r="KE17" s="39">
+      <c r="KE17" s="36">
         <v>1548886</v>
       </c>
-      <c r="KF17" s="39">
+      <c r="KF17" s="36">
         <v>1548827</v>
       </c>
       <c r="KG17" s="4">
         <v>1554616</v>
       </c>
+      <c r="KH17" s="4">
+        <v>1556037</v>
+      </c>
     </row>
-    <row r="18" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -14996,8 +15034,12 @@
       <c r="KG18" s="9">
         <v>2023394</v>
       </c>
+      <c r="KH18" s="9">
+        <f>SUM(KH6:KH17)</f>
+        <v>2023598</v>
+      </c>
     </row>
-    <row r="19" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:294" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15276,7 +15318,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:293" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:294" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608090E-D4E8-40EE-8F51-2450EA8556D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F28D45-EF3F-44D4-B7F2-662484E85CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -480,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -701,17 +701,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -758,7 +747,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -819,9 +808,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,6 +823,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1218,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KH20"/>
+  <dimension ref="A1:KI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KK12" sqref="KK12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="KD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KI15" sqref="KI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,18 +1472,18 @@
     <col min="291" max="291" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:294" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2361,10 +2353,10 @@
       <c r="KD4" s="30">
         <v>2024</v>
       </c>
-      <c r="KE4" s="33">
+      <c r="KE4" s="32">
         <v>2024</v>
       </c>
-      <c r="KF4" s="33">
+      <c r="KF4" s="32">
         <v>2024</v>
       </c>
       <c r="KG4" s="31">
@@ -2373,9 +2365,12 @@
       <c r="KH4" s="31">
         <v>2024</v>
       </c>
+      <c r="KI4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:294" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -3240,23 +3235,26 @@
       <c r="KC5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="KD5" s="34" t="s">
+      <c r="KD5" s="33" t="s">
         <v>15</v>
       </c>
       <c r="KE5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="KF5" s="35" t="s">
+      <c r="KF5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="KG5" s="32" t="s">
+      <c r="KG5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="KH5" s="32" t="s">
+      <c r="KH5" s="38" t="s">
         <v>19</v>
       </c>
+      <c r="KI5" s="39" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4127,20 +4125,23 @@
       <c r="KD6" s="2">
         <v>4035</v>
       </c>
-      <c r="KE6" s="36">
+      <c r="KE6" s="35">
         <v>4035</v>
       </c>
-      <c r="KF6" s="36">
+      <c r="KF6" s="35">
         <v>3804</v>
       </c>
-      <c r="KG6" s="4">
+      <c r="KG6" s="35">
         <v>3956</v>
       </c>
-      <c r="KH6" s="4">
+      <c r="KH6" s="35">
         <v>4124</v>
       </c>
+      <c r="KI6" s="4">
+        <v>3829</v>
+      </c>
     </row>
-    <row r="7" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -5011,20 +5012,23 @@
       <c r="KD7" s="2">
         <v>63306</v>
       </c>
-      <c r="KE7" s="36">
+      <c r="KE7" s="35">
         <v>64174</v>
       </c>
-      <c r="KF7" s="36">
+      <c r="KF7" s="35">
         <v>65481</v>
       </c>
-      <c r="KG7" s="4">
+      <c r="KG7" s="35">
         <v>65922</v>
       </c>
-      <c r="KH7" s="4">
+      <c r="KH7" s="35">
         <v>67282</v>
       </c>
+      <c r="KI7" s="4">
+        <v>67720</v>
+      </c>
     </row>
-    <row r="8" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5895,20 +5899,23 @@
       <c r="KD8" s="2">
         <v>74303</v>
       </c>
-      <c r="KE8" s="36">
+      <c r="KE8" s="35">
         <v>74628</v>
       </c>
-      <c r="KF8" s="36">
+      <c r="KF8" s="35">
         <v>74562</v>
       </c>
-      <c r="KG8" s="4">
+      <c r="KG8" s="35">
         <v>74384</v>
       </c>
-      <c r="KH8" s="4">
+      <c r="KH8" s="35">
         <v>73994</v>
       </c>
+      <c r="KI8" s="4">
+        <v>74219</v>
+      </c>
     </row>
-    <row r="9" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6779,20 +6786,23 @@
       <c r="KD9" s="2">
         <v>57606</v>
       </c>
-      <c r="KE9" s="36">
+      <c r="KE9" s="35">
         <v>58158</v>
       </c>
-      <c r="KF9" s="36">
+      <c r="KF9" s="35">
         <v>58133</v>
       </c>
-      <c r="KG9" s="4">
+      <c r="KG9" s="35">
         <v>57735</v>
       </c>
-      <c r="KH9" s="4">
+      <c r="KH9" s="35">
         <v>58101</v>
       </c>
+      <c r="KI9" s="4">
+        <v>57689</v>
+      </c>
     </row>
-    <row r="10" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7663,20 +7673,23 @@
       <c r="KD10" s="2">
         <v>16547</v>
       </c>
-      <c r="KE10" s="36">
+      <c r="KE10" s="35">
         <v>16464</v>
       </c>
-      <c r="KF10" s="36">
+      <c r="KF10" s="35">
         <v>16514</v>
       </c>
-      <c r="KG10" s="4">
+      <c r="KG10" s="35">
         <v>16581</v>
       </c>
-      <c r="KH10" s="4">
+      <c r="KH10" s="35">
         <v>16194</v>
       </c>
+      <c r="KI10" s="4">
+        <v>15370</v>
+      </c>
     </row>
-    <row r="11" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8547,20 +8560,23 @@
       <c r="KD11" s="2">
         <v>60874</v>
       </c>
-      <c r="KE11" s="36">
+      <c r="KE11" s="35">
         <v>61275</v>
       </c>
-      <c r="KF11" s="36">
+      <c r="KF11" s="35">
         <v>61129</v>
       </c>
-      <c r="KG11" s="4">
+      <c r="KG11" s="35">
         <v>60992</v>
       </c>
-      <c r="KH11" s="4">
+      <c r="KH11" s="35">
         <v>60871</v>
       </c>
+      <c r="KI11" s="4">
+        <v>59957</v>
+      </c>
     </row>
-    <row r="12" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9431,20 +9447,23 @@
       <c r="KD12" s="2">
         <v>20788</v>
       </c>
-      <c r="KE12" s="36">
+      <c r="KE12" s="35">
         <v>21034</v>
       </c>
-      <c r="KF12" s="36">
+      <c r="KF12" s="35">
         <v>20766</v>
       </c>
-      <c r="KG12" s="4">
+      <c r="KG12" s="35">
         <v>20709</v>
       </c>
-      <c r="KH12" s="4">
+      <c r="KH12" s="35">
         <v>20862</v>
       </c>
+      <c r="KI12" s="4">
+        <v>20740</v>
+      </c>
     </row>
-    <row r="13" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10315,20 +10334,23 @@
       <c r="KD13" s="2">
         <v>9357</v>
       </c>
-      <c r="KE13" s="36">
+      <c r="KE13" s="35">
         <v>9432</v>
       </c>
-      <c r="KF13" s="36">
+      <c r="KF13" s="35">
         <v>9374</v>
       </c>
-      <c r="KG13" s="4">
+      <c r="KG13" s="35">
         <v>9480</v>
       </c>
-      <c r="KH13" s="4">
+      <c r="KH13" s="35">
         <v>9162</v>
       </c>
+      <c r="KI13" s="4">
+        <v>9079</v>
+      </c>
     </row>
-    <row r="14" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11199,20 +11221,23 @@
       <c r="KD14" s="2">
         <v>82057</v>
       </c>
-      <c r="KE14" s="36">
+      <c r="KE14" s="35">
         <v>82791</v>
       </c>
-      <c r="KF14" s="36">
+      <c r="KF14" s="35">
         <v>82994</v>
       </c>
-      <c r="KG14" s="4">
+      <c r="KG14" s="35">
         <v>82998</v>
       </c>
-      <c r="KH14" s="4">
+      <c r="KH14" s="35">
         <v>84827</v>
       </c>
+      <c r="KI14" s="4">
+        <v>83757</v>
+      </c>
     </row>
-    <row r="15" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -12083,20 +12108,23 @@
       <c r="KD15" s="2">
         <v>48342</v>
       </c>
-      <c r="KE15" s="36">
+      <c r="KE15" s="35">
         <v>48140</v>
       </c>
-      <c r="KF15" s="36">
+      <c r="KF15" s="35">
         <v>28051</v>
       </c>
-      <c r="KG15" s="4">
+      <c r="KG15" s="35">
         <v>27341</v>
       </c>
-      <c r="KH15" s="4">
+      <c r="KH15" s="35">
         <v>45910</v>
       </c>
+      <c r="KI15" s="4">
+        <v>44663</v>
+      </c>
     </row>
-    <row r="16" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -12967,20 +12995,23 @@
       <c r="KD16" s="2">
         <v>29444</v>
       </c>
-      <c r="KE16" s="36">
+      <c r="KE16" s="35">
         <v>28862</v>
       </c>
-      <c r="KF16" s="36">
+      <c r="KF16" s="35">
         <v>47991</v>
       </c>
-      <c r="KG16" s="4">
+      <c r="KG16" s="35">
         <v>48680</v>
       </c>
-      <c r="KH16" s="4">
+      <c r="KH16" s="35">
         <v>26234</v>
       </c>
+      <c r="KI16" s="4">
+        <v>26797</v>
+      </c>
     </row>
-    <row r="17" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13851,20 +13882,23 @@
       <c r="KD17" s="2">
         <v>1543194</v>
       </c>
-      <c r="KE17" s="36">
+      <c r="KE17" s="35">
         <v>1548886</v>
       </c>
-      <c r="KF17" s="36">
+      <c r="KF17" s="35">
         <v>1548827</v>
       </c>
-      <c r="KG17" s="4">
+      <c r="KG17" s="35">
         <v>1554616</v>
       </c>
-      <c r="KH17" s="4">
+      <c r="KH17" s="35">
         <v>1556037</v>
       </c>
+      <c r="KI17" s="4">
+        <v>1559488</v>
+      </c>
     </row>
-    <row r="18" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -15031,15 +15065,18 @@
       <c r="KF18" s="8">
         <v>2017626</v>
       </c>
-      <c r="KG18" s="9">
+      <c r="KG18" s="8">
         <v>2023394</v>
       </c>
-      <c r="KH18" s="9">
+      <c r="KH18" s="8">
         <f>SUM(KH6:KH17)</f>
         <v>2023598</v>
       </c>
+      <c r="KI18" s="9">
+        <v>2023308</v>
+      </c>
     </row>
-    <row r="19" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:295" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15318,7 +15355,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:294" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F28D45-EF3F-44D4-B7F2-662484E85CC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FA8DC-60B0-4215-A28B-4C39005FB9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -747,7 +747,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -818,18 +818,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1210,11 +1211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KI20"/>
+  <dimension ref="A1:KJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KI15" sqref="KI15"/>
+      <selection pane="topRight" activeCell="KK11" sqref="KK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,18 +1473,18 @@
     <col min="291" max="291" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:296" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2359,18 +2360,21 @@
       <c r="KF4" s="32">
         <v>2024</v>
       </c>
-      <c r="KG4" s="31">
+      <c r="KG4" s="32">
         <v>2024</v>
       </c>
-      <c r="KH4" s="31">
+      <c r="KH4" s="32">
         <v>2024</v>
       </c>
-      <c r="KI4" s="31">
+      <c r="KI4" s="32">
         <v>2024</v>
       </c>
+      <c r="KJ4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:296" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -3244,17 +3248,20 @@
       <c r="KF5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="KG5" s="38" t="s">
+      <c r="KG5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="KH5" s="38" t="s">
+      <c r="KH5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="KI5" s="39" t="s">
+      <c r="KI5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="KJ5" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4137,11 +4144,14 @@
       <c r="KH6" s="35">
         <v>4124</v>
       </c>
-      <c r="KI6" s="4">
+      <c r="KI6" s="35">
+        <v>4124</v>
+      </c>
+      <c r="KJ6" s="40">
         <v>3829</v>
       </c>
     </row>
-    <row r="7" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -5024,11 +5034,14 @@
       <c r="KH7" s="35">
         <v>67282</v>
       </c>
-      <c r="KI7" s="4">
+      <c r="KI7" s="35">
+        <v>67282</v>
+      </c>
+      <c r="KJ7" s="40">
         <v>67720</v>
       </c>
     </row>
-    <row r="8" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5911,11 +5924,14 @@
       <c r="KH8" s="35">
         <v>73994</v>
       </c>
-      <c r="KI8" s="4">
+      <c r="KI8" s="35">
+        <v>73994</v>
+      </c>
+      <c r="KJ8" s="40">
         <v>74219</v>
       </c>
     </row>
-    <row r="9" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6798,11 +6814,14 @@
       <c r="KH9" s="35">
         <v>58101</v>
       </c>
-      <c r="KI9" s="4">
+      <c r="KI9" s="35">
+        <v>58101</v>
+      </c>
+      <c r="KJ9" s="40">
         <v>57689</v>
       </c>
     </row>
-    <row r="10" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7685,11 +7704,14 @@
       <c r="KH10" s="35">
         <v>16194</v>
       </c>
-      <c r="KI10" s="4">
+      <c r="KI10" s="35">
+        <v>16194</v>
+      </c>
+      <c r="KJ10" s="40">
         <v>15370</v>
       </c>
     </row>
-    <row r="11" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8572,11 +8594,14 @@
       <c r="KH11" s="35">
         <v>60871</v>
       </c>
-      <c r="KI11" s="4">
+      <c r="KI11" s="35">
+        <v>60871</v>
+      </c>
+      <c r="KJ11" s="40">
         <v>59957</v>
       </c>
     </row>
-    <row r="12" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9459,11 +9484,14 @@
       <c r="KH12" s="35">
         <v>20862</v>
       </c>
-      <c r="KI12" s="4">
+      <c r="KI12" s="35">
+        <v>20862</v>
+      </c>
+      <c r="KJ12" s="40">
         <v>20740</v>
       </c>
     </row>
-    <row r="13" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10346,11 +10374,14 @@
       <c r="KH13" s="35">
         <v>9162</v>
       </c>
-      <c r="KI13" s="4">
+      <c r="KI13" s="35">
+        <v>9162</v>
+      </c>
+      <c r="KJ13" s="40">
         <v>9079</v>
       </c>
     </row>
-    <row r="14" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11233,11 +11264,14 @@
       <c r="KH14" s="35">
         <v>84827</v>
       </c>
-      <c r="KI14" s="4">
+      <c r="KI14" s="35">
+        <v>84827</v>
+      </c>
+      <c r="KJ14" s="40">
         <v>83757</v>
       </c>
     </row>
-    <row r="15" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -12120,11 +12154,14 @@
       <c r="KH15" s="35">
         <v>45910</v>
       </c>
-      <c r="KI15" s="4">
+      <c r="KI15" s="35">
+        <v>45910</v>
+      </c>
+      <c r="KJ15" s="40">
         <v>44663</v>
       </c>
     </row>
-    <row r="16" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -13007,11 +13044,14 @@
       <c r="KH16" s="35">
         <v>26234</v>
       </c>
-      <c r="KI16" s="4">
+      <c r="KI16" s="35">
+        <v>26234</v>
+      </c>
+      <c r="KJ16" s="40">
         <v>26797</v>
       </c>
     </row>
-    <row r="17" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13894,11 +13934,14 @@
       <c r="KH17" s="35">
         <v>1556037</v>
       </c>
-      <c r="KI17" s="4">
+      <c r="KI17" s="35">
+        <v>1556037</v>
+      </c>
+      <c r="KJ17" s="40">
         <v>1559488</v>
       </c>
     </row>
-    <row r="18" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -15072,11 +15115,14 @@
         <f>SUM(KH6:KH17)</f>
         <v>2023598</v>
       </c>
-      <c r="KI18" s="9">
+      <c r="KI18" s="8">
+        <v>2023598</v>
+      </c>
+      <c r="KJ18" s="9">
         <v>2023308</v>
       </c>
     </row>
-    <row r="19" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:296" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15355,7 +15401,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1FA8DC-60B0-4215-A28B-4C39005FB9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DDB5C-995D-4383-A88C-E066A8271DB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -747,7 +747,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -805,9 +805,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,10 +824,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,11 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KJ20"/>
+  <dimension ref="A1:KL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KK11" sqref="KK11"/>
+      <selection pane="topRight" activeCell="KK21" sqref="KK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,18 +1469,18 @@
     <col min="291" max="291" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:296" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:298" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2354,27 +2350,33 @@
       <c r="KD4" s="30">
         <v>2024</v>
       </c>
-      <c r="KE4" s="32">
+      <c r="KE4" s="31">
         <v>2024</v>
       </c>
-      <c r="KF4" s="32">
+      <c r="KF4" s="31">
         <v>2024</v>
       </c>
-      <c r="KG4" s="32">
+      <c r="KG4" s="31">
         <v>2024</v>
       </c>
-      <c r="KH4" s="32">
+      <c r="KH4" s="31">
         <v>2024</v>
       </c>
-      <c r="KI4" s="32">
+      <c r="KI4" s="31">
         <v>2024</v>
       </c>
       <c r="KJ4" s="31">
         <v>2024</v>
       </c>
+      <c r="KK4" s="31">
+        <v>2024</v>
+      </c>
+      <c r="KL4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:296" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:298" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -3239,29 +3241,35 @@
       <c r="KC5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="KD5" s="33" t="s">
+      <c r="KD5" s="32" t="s">
         <v>15</v>
       </c>
       <c r="KE5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="KF5" s="34" t="s">
+      <c r="KF5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="KG5" s="36" t="s">
+      <c r="KG5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="KH5" s="36" t="s">
+      <c r="KH5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="KI5" s="36" t="s">
+      <c r="KI5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="KJ5" s="39" t="s">
+      <c r="KJ5" s="38" t="s">
         <v>20</v>
       </c>
+      <c r="KK5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="KL5" s="38" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4132,26 +4140,32 @@
       <c r="KD6" s="2">
         <v>4035</v>
       </c>
-      <c r="KE6" s="35">
+      <c r="KE6" s="34">
         <v>4035</v>
       </c>
-      <c r="KF6" s="35">
+      <c r="KF6" s="34">
         <v>3804</v>
       </c>
-      <c r="KG6" s="35">
+      <c r="KG6" s="34">
         <v>3956</v>
       </c>
-      <c r="KH6" s="35">
+      <c r="KH6" s="34">
         <v>4124</v>
       </c>
-      <c r="KI6" s="35">
+      <c r="KI6" s="34">
         <v>4124</v>
       </c>
-      <c r="KJ6" s="40">
+      <c r="KJ6" s="34">
         <v>3829</v>
       </c>
+      <c r="KK6" s="34">
+        <v>4142</v>
+      </c>
+      <c r="KL6" s="34">
+        <v>3875</v>
+      </c>
     </row>
-    <row r="7" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -5022,26 +5036,32 @@
       <c r="KD7" s="2">
         <v>63306</v>
       </c>
-      <c r="KE7" s="35">
+      <c r="KE7" s="34">
         <v>64174</v>
       </c>
-      <c r="KF7" s="35">
+      <c r="KF7" s="34">
         <v>65481</v>
       </c>
-      <c r="KG7" s="35">
+      <c r="KG7" s="34">
         <v>65922</v>
       </c>
-      <c r="KH7" s="35">
+      <c r="KH7" s="34">
         <v>67282</v>
       </c>
-      <c r="KI7" s="35">
+      <c r="KI7" s="34">
         <v>67282</v>
       </c>
-      <c r="KJ7" s="40">
+      <c r="KJ7" s="34">
         <v>67720</v>
       </c>
+      <c r="KK7" s="34">
+        <v>67571</v>
+      </c>
+      <c r="KL7" s="34">
+        <v>66998</v>
+      </c>
     </row>
-    <row r="8" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5912,26 +5932,32 @@
       <c r="KD8" s="2">
         <v>74303</v>
       </c>
-      <c r="KE8" s="35">
+      <c r="KE8" s="34">
         <v>74628</v>
       </c>
-      <c r="KF8" s="35">
+      <c r="KF8" s="34">
         <v>74562</v>
       </c>
-      <c r="KG8" s="35">
+      <c r="KG8" s="34">
         <v>74384</v>
       </c>
-      <c r="KH8" s="35">
+      <c r="KH8" s="34">
         <v>73994</v>
       </c>
-      <c r="KI8" s="35">
+      <c r="KI8" s="34">
         <v>73994</v>
       </c>
-      <c r="KJ8" s="40">
+      <c r="KJ8" s="34">
         <v>74219</v>
       </c>
+      <c r="KK8" s="34">
+        <v>74345</v>
+      </c>
+      <c r="KL8" s="34">
+        <v>74310</v>
+      </c>
     </row>
-    <row r="9" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6802,26 +6828,32 @@
       <c r="KD9" s="2">
         <v>57606</v>
       </c>
-      <c r="KE9" s="35">
+      <c r="KE9" s="34">
         <v>58158</v>
       </c>
-      <c r="KF9" s="35">
+      <c r="KF9" s="34">
         <v>58133</v>
       </c>
-      <c r="KG9" s="35">
+      <c r="KG9" s="34">
         <v>57735</v>
       </c>
-      <c r="KH9" s="35">
+      <c r="KH9" s="34">
         <v>58101</v>
       </c>
-      <c r="KI9" s="35">
+      <c r="KI9" s="34">
         <v>58101</v>
       </c>
-      <c r="KJ9" s="40">
+      <c r="KJ9" s="34">
         <v>57689</v>
       </c>
+      <c r="KK9" s="34">
+        <v>57665</v>
+      </c>
+      <c r="KL9" s="34">
+        <v>57965</v>
+      </c>
     </row>
-    <row r="10" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7692,26 +7724,32 @@
       <c r="KD10" s="2">
         <v>16547</v>
       </c>
-      <c r="KE10" s="35">
+      <c r="KE10" s="34">
         <v>16464</v>
       </c>
-      <c r="KF10" s="35">
+      <c r="KF10" s="34">
         <v>16514</v>
       </c>
-      <c r="KG10" s="35">
+      <c r="KG10" s="34">
         <v>16581</v>
       </c>
-      <c r="KH10" s="35">
+      <c r="KH10" s="34">
         <v>16194</v>
       </c>
-      <c r="KI10" s="35">
+      <c r="KI10" s="34">
         <v>16194</v>
       </c>
-      <c r="KJ10" s="40">
+      <c r="KJ10" s="34">
         <v>15370</v>
       </c>
+      <c r="KK10" s="34">
+        <v>15443</v>
+      </c>
+      <c r="KL10" s="34">
+        <v>15260</v>
+      </c>
     </row>
-    <row r="11" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8582,26 +8620,32 @@
       <c r="KD11" s="2">
         <v>60874</v>
       </c>
-      <c r="KE11" s="35">
+      <c r="KE11" s="34">
         <v>61275</v>
       </c>
-      <c r="KF11" s="35">
+      <c r="KF11" s="34">
         <v>61129</v>
       </c>
-      <c r="KG11" s="35">
+      <c r="KG11" s="34">
         <v>60992</v>
       </c>
-      <c r="KH11" s="35">
+      <c r="KH11" s="34">
         <v>60871</v>
       </c>
-      <c r="KI11" s="35">
+      <c r="KI11" s="34">
         <v>60871</v>
       </c>
-      <c r="KJ11" s="40">
+      <c r="KJ11" s="34">
         <v>59957</v>
       </c>
+      <c r="KK11" s="34">
+        <v>57776</v>
+      </c>
+      <c r="KL11" s="34">
+        <v>58131</v>
+      </c>
     </row>
-    <row r="12" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9472,26 +9516,32 @@
       <c r="KD12" s="2">
         <v>20788</v>
       </c>
-      <c r="KE12" s="35">
+      <c r="KE12" s="34">
         <v>21034</v>
       </c>
-      <c r="KF12" s="35">
+      <c r="KF12" s="34">
         <v>20766</v>
       </c>
-      <c r="KG12" s="35">
+      <c r="KG12" s="34">
         <v>20709</v>
       </c>
-      <c r="KH12" s="35">
+      <c r="KH12" s="34">
         <v>20862</v>
       </c>
-      <c r="KI12" s="35">
+      <c r="KI12" s="34">
         <v>20862</v>
       </c>
-      <c r="KJ12" s="40">
+      <c r="KJ12" s="34">
         <v>20740</v>
       </c>
+      <c r="KK12" s="34">
+        <v>20534</v>
+      </c>
+      <c r="KL12" s="34">
+        <v>21654</v>
+      </c>
     </row>
-    <row r="13" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10362,26 +10412,32 @@
       <c r="KD13" s="2">
         <v>9357</v>
       </c>
-      <c r="KE13" s="35">
+      <c r="KE13" s="34">
         <v>9432</v>
       </c>
-      <c r="KF13" s="35">
+      <c r="KF13" s="34">
         <v>9374</v>
       </c>
-      <c r="KG13" s="35">
+      <c r="KG13" s="34">
         <v>9480</v>
       </c>
-      <c r="KH13" s="35">
+      <c r="KH13" s="34">
         <v>9162</v>
       </c>
-      <c r="KI13" s="35">
+      <c r="KI13" s="34">
         <v>9162</v>
       </c>
-      <c r="KJ13" s="40">
+      <c r="KJ13" s="34">
         <v>9079</v>
       </c>
+      <c r="KK13" s="34">
+        <v>8838</v>
+      </c>
+      <c r="KL13" s="34">
+        <v>8532</v>
+      </c>
     </row>
-    <row r="14" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11252,26 +11308,32 @@
       <c r="KD14" s="2">
         <v>82057</v>
       </c>
-      <c r="KE14" s="35">
+      <c r="KE14" s="34">
         <v>82791</v>
       </c>
-      <c r="KF14" s="35">
+      <c r="KF14" s="34">
         <v>82994</v>
       </c>
-      <c r="KG14" s="35">
+      <c r="KG14" s="34">
         <v>82998</v>
       </c>
-      <c r="KH14" s="35">
+      <c r="KH14" s="34">
         <v>84827</v>
       </c>
-      <c r="KI14" s="35">
+      <c r="KI14" s="34">
         <v>84827</v>
       </c>
-      <c r="KJ14" s="40">
+      <c r="KJ14" s="34">
         <v>83757</v>
       </c>
+      <c r="KK14" s="34">
+        <v>83469</v>
+      </c>
+      <c r="KL14" s="34">
+        <v>83111</v>
+      </c>
     </row>
-    <row r="15" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -12142,26 +12204,32 @@
       <c r="KD15" s="2">
         <v>48342</v>
       </c>
-      <c r="KE15" s="35">
+      <c r="KE15" s="34">
         <v>48140</v>
       </c>
-      <c r="KF15" s="35">
+      <c r="KF15" s="34">
         <v>28051</v>
       </c>
-      <c r="KG15" s="35">
+      <c r="KG15" s="34">
         <v>27341</v>
       </c>
-      <c r="KH15" s="35">
+      <c r="KH15" s="34">
         <v>45910</v>
       </c>
-      <c r="KI15" s="35">
+      <c r="KI15" s="34">
         <v>45910</v>
       </c>
-      <c r="KJ15" s="40">
+      <c r="KJ15" s="34">
         <v>44663</v>
       </c>
+      <c r="KK15" s="34">
+        <v>42914</v>
+      </c>
+      <c r="KL15" s="34">
+        <v>42694</v>
+      </c>
     </row>
-    <row r="16" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -13032,26 +13100,32 @@
       <c r="KD16" s="2">
         <v>29444</v>
       </c>
-      <c r="KE16" s="35">
+      <c r="KE16" s="34">
         <v>28862</v>
       </c>
-      <c r="KF16" s="35">
+      <c r="KF16" s="34">
         <v>47991</v>
       </c>
-      <c r="KG16" s="35">
+      <c r="KG16" s="34">
         <v>48680</v>
       </c>
-      <c r="KH16" s="35">
+      <c r="KH16" s="34">
         <v>26234</v>
       </c>
-      <c r="KI16" s="35">
+      <c r="KI16" s="34">
         <v>26234</v>
       </c>
-      <c r="KJ16" s="40">
+      <c r="KJ16" s="34">
         <v>26797</v>
       </c>
+      <c r="KK16" s="34">
+        <v>26905</v>
+      </c>
+      <c r="KL16" s="34">
+        <v>26906</v>
+      </c>
     </row>
-    <row r="17" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -13922,26 +13996,32 @@
       <c r="KD17" s="2">
         <v>1543194</v>
       </c>
-      <c r="KE17" s="35">
+      <c r="KE17" s="34">
         <v>1548886</v>
       </c>
-      <c r="KF17" s="35">
+      <c r="KF17" s="34">
         <v>1548827</v>
       </c>
-      <c r="KG17" s="35">
+      <c r="KG17" s="34">
         <v>1554616</v>
       </c>
-      <c r="KH17" s="35">
+      <c r="KH17" s="34">
         <v>1556037</v>
       </c>
-      <c r="KI17" s="35">
+      <c r="KI17" s="34">
         <v>1556037</v>
       </c>
-      <c r="KJ17" s="40">
+      <c r="KJ17" s="34">
         <v>1559488</v>
       </c>
+      <c r="KK17" s="34">
+        <v>1563876</v>
+      </c>
+      <c r="KL17" s="34">
+        <v>1562459</v>
+      </c>
     </row>
-    <row r="18" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -15118,11 +15198,17 @@
       <c r="KI18" s="8">
         <v>2023598</v>
       </c>
-      <c r="KJ18" s="9">
+      <c r="KJ18" s="8">
         <v>2023308</v>
       </c>
+      <c r="KK18" s="8">
+        <v>2023478</v>
+      </c>
+      <c r="KL18" s="8">
+        <v>2021895</v>
+      </c>
     </row>
-    <row r="19" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:298" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15401,7 +15487,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DDB5C-995D-4383-A88C-E066A8271DB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04920AB3-3520-4B1A-BBB3-A95394D78F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -818,14 +818,14 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1207,11 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KL20"/>
+  <dimension ref="A1:KM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KK21" sqref="KK21"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,18 +1469,18 @@
     <col min="291" max="291" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:298" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:299" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
@@ -2374,9 +2374,12 @@
       <c r="KL4" s="31">
         <v>2024</v>
       </c>
+      <c r="KM4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:298" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:299" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
@@ -3259,17 +3262,20 @@
       <c r="KI5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="KJ5" s="38" t="s">
+      <c r="KJ5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="KK5" s="38" t="s">
+      <c r="KK5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="KL5" s="38" t="s">
+      <c r="KL5" s="36" t="s">
         <v>22</v>
       </c>
+      <c r="KM5" s="36" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4164,8 +4170,11 @@
       <c r="KL6" s="34">
         <v>3875</v>
       </c>
+      <c r="KM6" s="34">
+        <v>3309</v>
+      </c>
     </row>
-    <row r="7" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -5060,8 +5069,11 @@
       <c r="KL7" s="34">
         <v>66998</v>
       </c>
+      <c r="KM7" s="34">
+        <v>67815</v>
+      </c>
     </row>
-    <row r="8" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5956,8 +5968,11 @@
       <c r="KL8" s="34">
         <v>74310</v>
       </c>
+      <c r="KM8" s="34">
+        <v>73923</v>
+      </c>
     </row>
-    <row r="9" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6852,8 +6867,11 @@
       <c r="KL9" s="34">
         <v>57965</v>
       </c>
+      <c r="KM9" s="34">
+        <v>58223</v>
+      </c>
     </row>
-    <row r="10" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7748,8 +7766,11 @@
       <c r="KL10" s="34">
         <v>15260</v>
       </c>
+      <c r="KM10" s="34">
+        <v>15417</v>
+      </c>
     </row>
-    <row r="11" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8644,8 +8665,11 @@
       <c r="KL11" s="34">
         <v>58131</v>
       </c>
+      <c r="KM11" s="34">
+        <v>59117</v>
+      </c>
     </row>
-    <row r="12" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9540,8 +9564,11 @@
       <c r="KL12" s="34">
         <v>21654</v>
       </c>
+      <c r="KM12" s="34">
+        <v>21545</v>
+      </c>
     </row>
-    <row r="13" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10436,8 +10463,11 @@
       <c r="KL13" s="34">
         <v>8532</v>
       </c>
+      <c r="KM13" s="34">
+        <v>8481</v>
+      </c>
     </row>
-    <row r="14" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11332,8 +11362,11 @@
       <c r="KL14" s="34">
         <v>83111</v>
       </c>
+      <c r="KM14" s="34">
+        <v>83428</v>
+      </c>
     </row>
-    <row r="15" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -12228,8 +12261,11 @@
       <c r="KL15" s="34">
         <v>42694</v>
       </c>
+      <c r="KM15" s="34">
+        <v>42675</v>
+      </c>
     </row>
-    <row r="16" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -13124,8 +13160,11 @@
       <c r="KL16" s="34">
         <v>26906</v>
       </c>
+      <c r="KM16" s="34">
+        <v>26588</v>
+      </c>
     </row>
-    <row r="17" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -14020,8 +14059,11 @@
       <c r="KL17" s="34">
         <v>1562459</v>
       </c>
+      <c r="KM17" s="34">
+        <v>1574272</v>
+      </c>
     </row>
-    <row r="18" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -15207,8 +15249,11 @@
       <c r="KL18" s="8">
         <v>2021895</v>
       </c>
+      <c r="KM18" s="8">
+        <v>2034793</v>
+      </c>
     </row>
-    <row r="19" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:299" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15487,7 +15532,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>

--- a/Historicos/ta_regiones_jalisco.xlsx
+++ b/Historicos/ta_regiones_jalisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04920AB3-3520-4B1A-BBB3-A95394D78F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD66493-4D8C-49C4-BB64-D6514C923F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="29">
   <si>
     <t>Altos Norte</t>
   </si>
@@ -1207,11 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KM20"/>
+  <dimension ref="A1:KN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:A17"/>
+      <selection pane="topRight" activeCell="KO17" sqref="KO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,17 +1469,17 @@
     <col min="291" max="291" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>12</v>
       </c>
@@ -2377,8 +2377,11 @@
       <c r="KM4" s="31">
         <v>2024</v>
       </c>
+      <c r="KN4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="27" t="s">
         <v>15</v>
@@ -3274,8 +3277,11 @@
       <c r="KM5" s="36" t="s">
         <v>23</v>
       </c>
+      <c r="KN5" s="36" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -4173,8 +4179,11 @@
       <c r="KM6" s="34">
         <v>3309</v>
       </c>
+      <c r="KN6" s="34">
+        <v>3291</v>
+      </c>
     </row>
-    <row r="7" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -5072,8 +5081,11 @@
       <c r="KM7" s="34">
         <v>67815</v>
       </c>
+      <c r="KN7" s="34">
+        <v>68181</v>
+      </c>
     </row>
-    <row r="8" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5971,8 +5983,11 @@
       <c r="KM8" s="34">
         <v>73923</v>
       </c>
+      <c r="KN8" s="34">
+        <v>74655</v>
+      </c>
     </row>
-    <row r="9" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -6870,8 +6885,11 @@
       <c r="KM9" s="34">
         <v>58223</v>
       </c>
+      <c r="KN9" s="34">
+        <v>58350</v>
+      </c>
     </row>
-    <row r="10" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
@@ -7769,8 +7787,11 @@
       <c r="KM10" s="34">
         <v>15417</v>
       </c>
+      <c r="KN10" s="34">
+        <v>15629</v>
+      </c>
     </row>
-    <row r="11" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -8668,8 +8689,11 @@
       <c r="KM11" s="34">
         <v>59117</v>
       </c>
+      <c r="KN11" s="34">
+        <v>61113</v>
+      </c>
     </row>
-    <row r="12" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
@@ -9567,8 +9591,11 @@
       <c r="KM12" s="34">
         <v>21545</v>
       </c>
+      <c r="KN12" s="34">
+        <v>20695</v>
+      </c>
     </row>
-    <row r="13" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
@@ -10466,8 +10493,11 @@
       <c r="KM13" s="34">
         <v>8481</v>
       </c>
+      <c r="KN13" s="34">
+        <v>8399</v>
+      </c>
     </row>
-    <row r="14" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -11365,8 +11395,11 @@
       <c r="KM14" s="34">
         <v>83428</v>
       </c>
+      <c r="KN14" s="34">
+        <v>84845</v>
+      </c>
     </row>
-    <row r="15" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
@@ -12264,8 +12297,11 @@
       <c r="KM15" s="34">
         <v>42675</v>
       </c>
+      <c r="KN15" s="34">
+        <v>43230</v>
+      </c>
     </row>
-    <row r="16" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -13163,8 +13199,11 @@
       <c r="KM16" s="34">
         <v>26588</v>
       </c>
+      <c r="KN16" s="34">
+        <v>27517</v>
+      </c>
     </row>
-    <row r="17" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -14062,8 +14101,11 @@
       <c r="KM17" s="34">
         <v>1574272</v>
       </c>
+      <c r="KN17" s="34">
+        <v>1588573</v>
+      </c>
     </row>
-    <row r="18" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
@@ -15252,8 +15294,11 @@
       <c r="KM18" s="8">
         <v>2034793</v>
       </c>
+      <c r="KN18" s="8">
+        <v>2054478</v>
+      </c>
     </row>
-    <row r="19" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:300" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3"/>
@@ -15532,7 +15577,7 @@
       <c r="JQ19" s="3"/>
       <c r="JR19" s="14"/>
     </row>
-    <row r="20" spans="1:299" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:300" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
